--- a/滑点理解图表格.xlsx
+++ b/滑点理解图表格.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAkangwei_liu\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54688D24-FDF6-4A67-BBBE-DB0A6F87BB02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47282406-4860-43AA-8B67-E3F3A929900E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="795" windowWidth="24900" windowHeight="11385" tabRatio="514" xr2:uid="{05AAACF9-C555-44C3-9157-138E1CF9061B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="456" activeTab="3" xr2:uid="{05AAACF9-C555-44C3-9157-138E1CF9061B}"/>
   </bookViews>
   <sheets>
     <sheet name="滑点计算" sheetId="1" r:id="rId1"/>
     <sheet name="期货收益计算" sheetId="2" r:id="rId2"/>
+    <sheet name="无偿损失计算" sheetId="4" r:id="rId3"/>
+    <sheet name="无偿损失待计算" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>购买ETH数量 （ΔY）</t>
   </si>
@@ -188,6 +190,251 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>实际产出-理论产出)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论产出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠杆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">收益 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么看</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>p1/p0</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <r>
+      <t>e(ETH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t(DAI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p(DAI/ETH)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v0(hold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时资金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DAI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结算</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>impermanent loss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v1(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放入流动池后的资金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAI结算</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>impermanant loss的比率与当前价格变化的关系，O列表示资金刚放入流动池的情况，O-&gt;H表示价格上涨时impermanent loss的变化，A&lt;-O表示价格下跌时impermanent loss的变化。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L(v1/v0)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ETH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前后价格比</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>alpha</t>
     </r>
@@ -263,60 +510,309 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>时之前的兑换前的流动量</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际产出-理论产出)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论产出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>保证金</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>杠杆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>t1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">收益 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>x10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么看</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1</t>
+      <t>是之前的兑换前的流动量</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买时消耗的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DAI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ΔX</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DAI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流动量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DAI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计价流动量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买时计价的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DAI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>利差</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1/p0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产（DAI计价）原来v0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产（DAI计价）v1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1/v0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据上面数据画出的函数图像，蓝色的曲线是不包含手续费的，黄色的图像包含手续费，红色的线条是我手动添加上去的为了方便说明。
+先看蓝色曲线，当不计算手续费收益的情况下，无论币价上涨或下跌，流动性提供者100%会有损失。
+再看黄色的曲线，由于黄色曲线是计算手续费收益的，所以只要币价在一个范围内波动，流动性提供者可以稳赚手续费收益。
+PS:这里手续费10% 应该是 池中手续费占比</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -324,13 +820,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,8 +912,37 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF555555"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.6"/>
+      <color rgb="FF555555"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,8 +960,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -453,6 +985,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -476,7 +1017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,6 +1078,45 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="百分比" xfId="3" builtinId="5"/>
@@ -556,6 +1136,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>345288</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>70034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>373645</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6351B0FB-1960-4B1D-A91A-8BAED34E9EAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9352016" y="1610843"/>
+          <a:ext cx="5519239" cy="3578881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -857,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7CF3E5-7D34-4A51-979D-A892FCDB2E15}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1383,10 +2012,10 @@
         <v>17</v>
       </c>
       <c r="F16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>3</v>
@@ -1411,7 +2040,7 @@
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="2"/>
     </row>
@@ -1925,25 +2554,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1951,10 +2580,10 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -1985,7 +2614,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1000</v>
@@ -2019,10 +2648,10 @@
         <v>1000</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>1000</v>
@@ -2053,7 +2682,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>1000</v>
@@ -2086,4 +2715,1200 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1DAE4A-5906-4718-9918-5A702D8FDDAE}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.503</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <f>H7/100</f>
+        <v>1.2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.5625</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2.0407999999999999</v>
+      </c>
+      <c r="K3" s="4">
+        <v>4</v>
+      </c>
+      <c r="L3" s="4">
+        <v>4.9382999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3162278</v>
+      </c>
+      <c r="D4" s="3">
+        <v>200</v>
+      </c>
+      <c r="E4" s="3">
+        <v>141</v>
+      </c>
+      <c r="F4" s="3">
+        <v>115</v>
+      </c>
+      <c r="G4" s="3">
+        <v>100</v>
+      </c>
+      <c r="H4" s="3">
+        <f>SQRT(H6/H7)</f>
+        <v>91.287092917527687</v>
+      </c>
+      <c r="I4" s="3">
+        <v>80</v>
+      </c>
+      <c r="J4" s="3">
+        <v>70</v>
+      </c>
+      <c r="K4" s="3">
+        <v>50</v>
+      </c>
+      <c r="L4" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.31622773199999998</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7092.198582</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8695.6521740000007</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H5" s="3">
+        <f>SQRT(H6*H7)</f>
+        <v>10954.451150103323</v>
+      </c>
+      <c r="I5" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J5" s="3">
+        <v>14285.71429</v>
+      </c>
+      <c r="K5" s="3">
+        <v>20000</v>
+      </c>
+      <c r="L5" s="3">
+        <v>22222.22222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="30">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D7" s="29">
+        <v>25</v>
+      </c>
+      <c r="E7" s="29">
+        <v>50.299280719999999</v>
+      </c>
+      <c r="F7" s="29">
+        <v>75.61436673</v>
+      </c>
+      <c r="G7" s="29">
+        <v>100</v>
+      </c>
+      <c r="H7" s="29">
+        <v>120</v>
+      </c>
+      <c r="I7" s="29">
+        <v>156.25</v>
+      </c>
+      <c r="J7" s="29">
+        <v>204.0816327</v>
+      </c>
+      <c r="K7" s="29">
+        <v>400</v>
+      </c>
+      <c r="L7" s="29">
+        <v>493.82716049999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000.00001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15029.92807</v>
+      </c>
+      <c r="F8" s="3">
+        <v>17561.436669999999</v>
+      </c>
+      <c r="G8" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H8" s="3">
+        <f>100*H7+10000</f>
+        <v>22000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>25625</v>
+      </c>
+      <c r="J8" s="3">
+        <v>30408.163270000001</v>
+      </c>
+      <c r="K8" s="3">
+        <v>50000</v>
+      </c>
+      <c r="L8" s="3">
+        <v>59382.716050000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>14184</v>
+      </c>
+      <c r="F9" s="3">
+        <v>17391</v>
+      </c>
+      <c r="G9" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H9" s="3">
+        <f>H4*H7+H5</f>
+        <v>21908.902300206646</v>
+      </c>
+      <c r="I9" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>28571</v>
+      </c>
+      <c r="K9" s="3">
+        <v>40000</v>
+      </c>
+      <c r="L9" s="3">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <f>H9/H8</f>
+        <v>0.99585919546393842</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.74839999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32">
+        <f t="shared" ref="C11:E11" si="0">C9*1.1/C8</f>
+        <v>1.0999999989000001E-4</v>
+      </c>
+      <c r="D11" s="32">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="E11" s="32">
+        <f t="shared" si="0"/>
+        <v>1.0380888003810653</v>
+      </c>
+      <c r="F11" s="32">
+        <f>F9*1.1/F8</f>
+        <v>1.0893243166534166</v>
+      </c>
+      <c r="G11" s="32">
+        <f>G9*1.1/G8</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H11" s="32">
+        <f>H9*1.1/H8</f>
+        <v>1.0954451150103324</v>
+      </c>
+      <c r="I11" s="32">
+        <f t="shared" ref="I11:L11" si="1">I9*1.1/I8</f>
+        <v>1.0731707317073171</v>
+      </c>
+      <c r="J11" s="32">
+        <f t="shared" si="1"/>
+        <v>1.0335415434646211</v>
+      </c>
+      <c r="K11" s="32">
+        <f t="shared" si="1"/>
+        <v>0.88</v>
+      </c>
+      <c r="L11" s="32">
+        <f t="shared" si="1"/>
+        <v>0.82327659042803247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A13:L18"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B3FCC8-BAB7-40EE-AD0B-D20B49F368AF}">
+  <dimension ref="A1:U16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="26" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="10" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="12" max="13" width="9.125" customWidth="1"/>
+    <col min="14" max="14" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1" s="20"/>
+    </row>
+    <row r="7" spans="1:21" ht="69.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <f>$K$8*$L$8</f>
+        <v>1000000</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <f>$L$8-L9</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <f>H9/A9</f>
+        <v>112.23344556677856</v>
+      </c>
+      <c r="C9" s="3">
+        <f>O9*L9+K9</f>
+        <v>20224.466891133558</v>
+      </c>
+      <c r="D9" s="28">
+        <f>O9*$L$8+$K$8</f>
+        <v>20214.377217744222</v>
+      </c>
+      <c r="E9" s="13">
+        <f>C9-D9</f>
+        <v>10.089673389335076</v>
+      </c>
+      <c r="F9" s="18">
+        <f>O9/100</f>
+        <v>1.0214377217744222</v>
+      </c>
+      <c r="G9" s="18">
+        <f>C9/D9</f>
+        <v>1.0004991335266307</v>
+      </c>
+      <c r="H9" s="3">
+        <f>(J9-$K$8)/0.9</f>
+        <v>112.23344556677856</v>
+      </c>
+      <c r="I9" s="3">
+        <f>H9*0.9</f>
+        <v>101.0101010101007</v>
+      </c>
+      <c r="J9" s="3">
+        <f>N9/L9</f>
+        <v>10101.010101010101</v>
+      </c>
+      <c r="K9" s="3">
+        <f>$K$8+H9</f>
+        <v>10112.233445566779</v>
+      </c>
+      <c r="L9" s="3">
+        <v>99</v>
+      </c>
+      <c r="M9" s="3">
+        <f>K9*L9</f>
+        <v>1001111.1111111111</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" ref="N9:N16" si="0">$K$8*$L$8</f>
+        <v>1000000</v>
+      </c>
+      <c r="O9" s="3">
+        <f>K9/L9</f>
+        <v>102.14377217744222</v>
+      </c>
+      <c r="P9" s="18">
+        <f>1-J9/K9</f>
+        <v>1.1098779134295356E-3</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <f t="shared" ref="A10:A16" si="1">$L$8-L10</f>
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" ref="B10:B16" si="2">H10/A10</f>
+        <v>123.45679012345681</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ref="C10:C16" si="3">O10*L10+K10</f>
+        <v>22469.135802469136</v>
+      </c>
+      <c r="D10" s="28">
+        <f t="shared" ref="D10:D16" si="4">O10*$L$8+$K$8</f>
+        <v>22482.853223593964</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" ref="E10:E16" si="5">C10-D10</f>
+        <v>-13.717421124827524</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" ref="F10:F16" si="6">O10/100</f>
+        <v>1.2482853223593964</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" ref="G10:G16" si="7">C10/D10</f>
+        <v>0.99938987187309336</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" ref="H10:H16" si="8">(J10-$K$8)/0.9</f>
+        <v>1234.5679012345681</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" ref="I10:I16" si="9">H10*0.9</f>
+        <v>1111.1111111111113</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" ref="J10:J16" si="10">N10/L10</f>
+        <v>11111.111111111111</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" ref="K10:K16" si="11">$K$8+H10</f>
+        <v>11234.567901234568</v>
+      </c>
+      <c r="L10" s="3">
+        <v>90</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" ref="M10:M16" si="12">K10*L10</f>
+        <v>1011111.1111111111</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" ref="O10:O16" si="13">K10/L10</f>
+        <v>124.82853223593965</v>
+      </c>
+      <c r="P10" s="18">
+        <f t="shared" ref="P10:P16" si="14">1-J10/K10</f>
+        <v>1.098901098901095E-2</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="2"/>
+        <v>138.88888888888889</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="3"/>
+        <v>25555.555555555555</v>
+      </c>
+      <c r="D11" s="28">
+        <f t="shared" si="4"/>
+        <v>25972.222222222223</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="5"/>
+        <v>-416.66666666666788</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="6"/>
+        <v>1.5972222222222223</v>
+      </c>
+      <c r="G11" s="18">
+        <f t="shared" si="7"/>
+        <v>0.98395721925133683</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="8"/>
+        <v>2777.7777777777778</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="10"/>
+        <v>12500</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="11"/>
+        <v>12777.777777777777</v>
+      </c>
+      <c r="L11" s="3">
+        <v>80</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="12"/>
+        <v>1022222.2222222222</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="13"/>
+        <v>159.72222222222223</v>
+      </c>
+      <c r="P11" s="18">
+        <f t="shared" si="14"/>
+        <v>2.1739130434782594E-2</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="2"/>
+        <v>158.73015873015873</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="3"/>
+        <v>29523.809523809527</v>
+      </c>
+      <c r="D12" s="28">
+        <f t="shared" si="4"/>
+        <v>31088.435374149663</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="5"/>
+        <v>-1564.6258503401368</v>
+      </c>
+      <c r="F12" s="18">
+        <f t="shared" si="6"/>
+        <v>2.1088435374149661</v>
+      </c>
+      <c r="G12" s="18">
+        <f t="shared" si="7"/>
+        <v>0.94967177242888401</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="8"/>
+        <v>4761.9047619047624</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="9"/>
+        <v>4285.7142857142862</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="10"/>
+        <v>14285.714285714286</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="11"/>
+        <v>14761.904761904763</v>
+      </c>
+      <c r="L12" s="3">
+        <v>70</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="12"/>
+        <v>1033333.3333333335</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="13"/>
+        <v>210.88435374149662</v>
+      </c>
+      <c r="P12" s="18">
+        <f t="shared" si="14"/>
+        <v>3.2258064516129115E-2</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="2"/>
+        <v>222.22222222222223</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="3"/>
+        <v>42222.222222222219</v>
+      </c>
+      <c r="D13" s="28">
+        <f t="shared" si="4"/>
+        <v>52222.222222222219</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="5"/>
+        <v>-10000</v>
+      </c>
+      <c r="F13" s="18">
+        <f t="shared" si="6"/>
+        <v>4.2222222222222214</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" si="7"/>
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="8"/>
+        <v>11111.111111111111</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="10"/>
+        <v>20000</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="11"/>
+        <v>21111.111111111109</v>
+      </c>
+      <c r="L13" s="3">
+        <v>50</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="12"/>
+        <v>1055555.5555555555</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="13"/>
+        <v>422.22222222222217</v>
+      </c>
+      <c r="P13" s="18">
+        <f t="shared" si="14"/>
+        <v>5.2631578947368363E-2</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="2"/>
+        <v>246.9135802469136</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="3"/>
+        <v>47160.493827160491</v>
+      </c>
+      <c r="D14" s="28">
+        <f t="shared" si="4"/>
+        <v>62400.548696844984</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="5"/>
+        <v>-15240.054869684493</v>
+      </c>
+      <c r="F14" s="18">
+        <f t="shared" si="6"/>
+        <v>5.2400548696844984</v>
+      </c>
+      <c r="G14" s="18">
+        <f t="shared" si="7"/>
+        <v>0.75577049901077165</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="8"/>
+        <v>13580.246913580248</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="9"/>
+        <v>12222.222222222223</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="10"/>
+        <v>22222.222222222223</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="11"/>
+        <v>23580.246913580246</v>
+      </c>
+      <c r="L14" s="3">
+        <v>45</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="12"/>
+        <v>1061111.111111111</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="13"/>
+        <v>524.00548696844987</v>
+      </c>
+      <c r="P14" s="18">
+        <f t="shared" si="14"/>
+        <v>5.7591623036649109E-2</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="2"/>
+        <v>555.55555555555554</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="3"/>
+        <v>108888.88888888889</v>
+      </c>
+      <c r="D15" s="28">
+        <f t="shared" si="4"/>
+        <v>282222.22222222219</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="5"/>
+        <v>-173333.33333333331</v>
+      </c>
+      <c r="F15" s="18">
+        <f t="shared" si="6"/>
+        <v>27.222222222222221</v>
+      </c>
+      <c r="G15" s="18">
+        <f t="shared" si="7"/>
+        <v>0.38582677165354334</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="8"/>
+        <v>44444.444444444445</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="9"/>
+        <v>40000</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="10"/>
+        <v>50000</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="11"/>
+        <v>54444.444444444445</v>
+      </c>
+      <c r="L15" s="3">
+        <v>20</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="12"/>
+        <v>1088888.888888889</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="13"/>
+        <v>2722.2222222222222</v>
+      </c>
+      <c r="P15" s="18">
+        <f t="shared" si="14"/>
+        <v>8.1632653061224469E-2</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="2"/>
+        <v>11111.111111111111</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="3"/>
+        <v>2220000</v>
+      </c>
+      <c r="D16" s="28">
+        <f t="shared" si="4"/>
+        <v>111010000</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="5"/>
+        <v>-108790000</v>
+      </c>
+      <c r="F16" s="18">
+        <f t="shared" si="6"/>
+        <v>11100</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="7"/>
+        <v>1.9998198360508063E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="8"/>
+        <v>1100000</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="9"/>
+        <v>990000</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="10"/>
+        <v>1000000</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="11"/>
+        <v>1110000</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="12"/>
+        <v>1110000</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="13"/>
+        <v>1110000</v>
+      </c>
+      <c r="P16" s="18">
+        <f t="shared" si="14"/>
+        <v>9.9099099099099086E-2</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/滑点理解图表格.xlsx
+++ b/滑点理解图表格.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAkangwei_liu\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SolidityProjectGit\solidityTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47282406-4860-43AA-8B67-E3F3A929900E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C1FD49-4B4A-4E5F-B767-B71D48DC88EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="456" activeTab="3" xr2:uid="{05AAACF9-C555-44C3-9157-138E1CF9061B}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="滑点计算" sheetId="1" r:id="rId1"/>
     <sheet name="期货收益计算" sheetId="2" r:id="rId2"/>
     <sheet name="无偿损失计算" sheetId="4" r:id="rId3"/>
-    <sheet name="无偿损失待计算" sheetId="3" r:id="rId4"/>
+    <sheet name="单笔交易时" sheetId="3" r:id="rId4"/>
+    <sheet name="长期看Lp分成" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>购买ETH数量 （ΔY）</t>
   </si>
@@ -66,24 +67,6 @@
   </si>
   <si>
     <t>理论消耗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>理论消耗</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200x100</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -813,6 +796,142 @@
 先看蓝色曲线，当不计算手续费收益的情况下，无论币价上涨或下跌，流动性提供者100%会有损失。
 再看黄色的曲线，由于黄色曲线是计算手续费收益的，所以只要币价在一个范围内波动，流动性提供者可以稳赚手续费收益。
 PS:这里手续费10% 应该是 池中手续费占比</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>y1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动性的百分比</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fee=L2-L2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>y^</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x^</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x^+y^</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动性的百分比(fee/L2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>alpha</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>beta</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是之前的兑换前的流动量</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%的手续费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x^（x的增量）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>y^（y的增量）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -820,14 +939,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="11">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.000_ "/>
+    <numFmt numFmtId="182" formatCode="0.0000_ "/>
+    <numFmt numFmtId="183" formatCode="0.0000%"/>
+    <numFmt numFmtId="193" formatCode="0_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,6 +1066,12 @@
       <family val="2"/>
       <charset val="161"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="MJXc-TeX-math-I"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1017,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1084,25 +1215,16 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1116,6 +1238,42 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1486,11 +1644,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7CF3E5-7D34-4A51-979D-A892FCDB2E15}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="8" customWidth="1"/>
@@ -1503,24 +1661,24 @@
     <col min="16" max="16" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="42.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>10</v>
@@ -1538,7 +1696,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>8</v>
@@ -1548,11 +1706,11 @@
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1579,7 +1737,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1630,7 +1788,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="3">
         <v>10</v>
       </c>
@@ -1681,7 +1839,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="3">
         <v>50</v>
       </c>
@@ -1732,7 +1890,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="3">
         <v>100</v>
       </c>
@@ -1783,7 +1941,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="3">
         <v>200</v>
       </c>
@@ -1831,12 +1989,10 @@
         <v>0.2</v>
       </c>
       <c r="O7" s="2"/>
-      <c r="P7" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="3">
         <v>500</v>
       </c>
@@ -1887,7 +2043,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="3">
         <v>800</v>
       </c>
@@ -1938,7 +2094,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="3">
         <v>999</v>
       </c>
@@ -1989,13 +2145,13 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="H14" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:17" ht="49.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18" customHeight="1"/>
+    <row r="16" spans="1:17" ht="49.5">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2006,16 +2162,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>3</v>
@@ -2040,11 +2196,11 @@
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
@@ -2071,7 +2227,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="3">
         <f>1000-J18</f>
         <v>0.99900099900105488</v>
@@ -2129,7 +2285,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="3">
         <f t="shared" ref="A19:A25" si="5">1000-J19</f>
         <v>9.9009900990098458</v>
@@ -2187,7 +2343,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="3">
         <f t="shared" si="5"/>
         <v>47.619047619047592</v>
@@ -2245,7 +2401,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="3">
         <f t="shared" si="5"/>
         <v>90.909090909090878</v>
@@ -2303,7 +2459,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="3">
         <f t="shared" si="5"/>
         <v>200</v>
@@ -2361,7 +2517,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="3">
         <f t="shared" si="5"/>
         <v>500</v>
@@ -2419,7 +2575,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="3">
         <f t="shared" si="5"/>
         <v>800</v>
@@ -2477,7 +2633,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="3">
         <f t="shared" si="5"/>
         <v>999</v>
@@ -2550,40 +2706,40 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -2598,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="D3">
         <v>1000</v>
       </c>
@@ -2612,9 +2768,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>1000</v>
@@ -2629,7 +2785,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="D5">
         <v>1000</v>
       </c>
@@ -2643,15 +2799,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1000</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>1000</v>
@@ -2666,7 +2822,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="D8">
         <v>1000</v>
       </c>
@@ -2680,9 +2836,9 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>1000</v>
@@ -2697,7 +2853,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="D10">
         <v>1000</v>
       </c>
@@ -2725,67 +2881,67 @@
       <selection activeCell="A13" sqref="A13:L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="24.75">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -2819,12 +2975,12 @@
         <v>4.9382999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3">
         <v>3162278</v>
@@ -2858,12 +3014,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3">
         <v>0.31622773199999998</v>
@@ -2897,10 +3053,10 @@
         <v>22222.22222</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3">
         <v>1000000</v>
@@ -2933,48 +3089,48 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="3"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="27">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D7" s="26">
+        <v>25</v>
+      </c>
+      <c r="E7" s="26">
+        <v>50.299280719999999</v>
+      </c>
+      <c r="F7" s="26">
+        <v>75.61436673</v>
+      </c>
+      <c r="G7" s="26">
+        <v>100</v>
+      </c>
+      <c r="H7" s="26">
+        <v>120</v>
+      </c>
+      <c r="I7" s="26">
+        <v>156.25</v>
+      </c>
+      <c r="J7" s="26">
+        <v>204.0816327</v>
+      </c>
+      <c r="K7" s="26">
+        <v>400</v>
+      </c>
+      <c r="L7" s="26">
+        <v>493.82716049999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="25.5">
+      <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="30">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D7" s="29">
-        <v>25</v>
-      </c>
-      <c r="E7" s="29">
-        <v>50.299280719999999</v>
-      </c>
-      <c r="F7" s="29">
-        <v>75.61436673</v>
-      </c>
-      <c r="G7" s="29">
-        <v>100</v>
-      </c>
-      <c r="H7" s="29">
-        <v>120</v>
-      </c>
-      <c r="I7" s="29">
-        <v>156.25</v>
-      </c>
-      <c r="J7" s="29">
-        <v>204.0816327</v>
-      </c>
-      <c r="K7" s="29">
-        <v>400</v>
-      </c>
-      <c r="L7" s="29">
-        <v>493.82716049999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3">
         <v>10000.00001</v>
@@ -3008,12 +3164,12 @@
         <v>59382.716050000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="37.5">
       <c r="A9" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -3047,12 +3203,12 @@
         <v>44444</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="25.5">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4">
         <v>1E-4</v>
@@ -3086,135 +3242,135 @@
         <v>0.74839999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32">
+    <row r="11" spans="1:12">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29">
         <f t="shared" ref="C11:E11" si="0">C9*1.1/C8</f>
         <v>1.0999999989000001E-4</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="29">
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="29">
         <f t="shared" si="0"/>
         <v>1.0380888003810653</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="29">
         <f>F9*1.1/F8</f>
         <v>1.0893243166534166</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="29">
         <f>G9*1.1/G8</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="29">
         <f>H9*1.1/H8</f>
         <v>1.0954451150103324</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="29">
         <f t="shared" ref="I11:L11" si="1">I9*1.1/I8</f>
         <v>1.0731707317073171</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="29">
         <f t="shared" si="1"/>
         <v>1.0335415434646211</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="29">
         <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="29">
         <f t="shared" si="1"/>
         <v>0.82327659042803247</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+    <row r="13" spans="1:12">
+      <c r="A13" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3229,18 +3385,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B3FCC8-BAB7-40EE-AD0B-D20B49F368AF}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="26" customWidth="1"/>
+    <col min="4" max="4" width="16" style="23" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
@@ -3249,59 +3405,58 @@
     <col min="12" max="13" width="9.125" customWidth="1"/>
     <col min="14" max="14" width="11.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15">
       <c r="B1" s="20"/>
     </row>
-    <row r="7" spans="1:21" ht="69.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="62.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>67</v>
-      </c>
       <c r="H7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -3311,14 +3466,14 @@
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="28"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -3346,42 +3501,42 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="3">
-        <f>$L$8-L9</f>
+        <f t="shared" ref="A9:A11" si="0">$L$8-L9</f>
         <v>1</v>
       </c>
       <c r="B9" s="3">
         <f>H9/A9</f>
-        <v>112.23344556677856</v>
+        <v>202.0202020202014</v>
       </c>
       <c r="C9" s="3">
         <f>O9*L9+K9</f>
-        <v>20224.466891133558</v>
-      </c>
-      <c r="D9" s="28">
+        <v>20404.040404040403</v>
+      </c>
+      <c r="D9" s="25">
         <f>O9*$L$8+$K$8</f>
-        <v>20214.377217744222</v>
+        <v>20305.070911131515</v>
       </c>
       <c r="E9" s="13">
         <f>C9-D9</f>
-        <v>10.089673389335076</v>
+        <v>98.969492908887332</v>
       </c>
       <c r="F9" s="18">
         <f>O9/100</f>
-        <v>1.0214377217744222</v>
+        <v>1.0305070911131518</v>
       </c>
       <c r="G9" s="18">
         <f>C9/D9</f>
-        <v>1.0004991335266307</v>
+        <v>1.004874126928295</v>
       </c>
       <c r="H9" s="3">
-        <f>(J9-$K$8)/0.9</f>
-        <v>112.23344556677856</v>
+        <f>(J9-$K$8)/$B$25</f>
+        <v>202.0202020202014</v>
       </c>
       <c r="I9" s="3">
         <f>H9*0.9</f>
-        <v>101.0101010101007</v>
+        <v>181.81818181818127</v>
       </c>
       <c r="J9" s="3">
         <f>N9/L9</f>
@@ -3389,26 +3544,26 @@
       </c>
       <c r="K9" s="3">
         <f>$K$8+H9</f>
-        <v>10112.233445566779</v>
+        <v>10202.020202020201</v>
       </c>
       <c r="L9" s="3">
         <v>99</v>
       </c>
       <c r="M9" s="3">
         <f>K9*L9</f>
-        <v>1001111.1111111111</v>
+        <v>1009999.9999999999</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" ref="N9:N16" si="0">$K$8*$L$8</f>
+        <f>$K$8*$L$8</f>
         <v>1000000</v>
       </c>
       <c r="O9" s="3">
         <f>K9/L9</f>
-        <v>102.14377217744222</v>
+        <v>103.05070911131517</v>
       </c>
       <c r="P9" s="18">
         <f>1-J9/K9</f>
-        <v>1.1098779134295356E-3</v>
+        <v>9.9009900990099098E-3</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -3416,69 +3571,69 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="3">
-        <f t="shared" ref="A10:A16" si="1">$L$8-L10</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" ref="B10:B16" si="2">H10/A10</f>
-        <v>123.45679012345681</v>
+        <f t="shared" ref="B10:B11" si="1">H10/A10</f>
+        <v>210.52631578947404</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ref="C10:C16" si="3">O10*L10+K10</f>
-        <v>22469.135802469136</v>
-      </c>
-      <c r="D10" s="28">
-        <f t="shared" ref="D10:D16" si="4">O10*$L$8+$K$8</f>
-        <v>22482.853223593964</v>
+        <f t="shared" ref="C10:C11" si="2">O10*L10+K10</f>
+        <v>22105.26315789474</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" ref="D10:D11" si="3">O10*$L$8+$K$8</f>
+        <v>21634.349030470916</v>
       </c>
       <c r="E10" s="13">
-        <f t="shared" ref="E10:E16" si="5">C10-D10</f>
-        <v>-13.717421124827524</v>
+        <f t="shared" ref="E10:E11" si="4">C10-D10</f>
+        <v>470.91412742382454</v>
       </c>
       <c r="F10" s="18">
-        <f t="shared" ref="F10:F16" si="6">O10/100</f>
-        <v>1.2482853223593964</v>
+        <f t="shared" ref="F10:F11" si="5">O10/100</f>
+        <v>1.1634349030470916</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" ref="G10:G16" si="7">C10/D10</f>
-        <v>0.99938987187309336</v>
+        <f t="shared" ref="G10:G11" si="6">C10/D10</f>
+        <v>1.0217669654289374</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" ref="H10:H16" si="8">(J10-$K$8)/0.9</f>
-        <v>1234.5679012345681</v>
+        <f t="shared" ref="H10:H18" si="7">(J10-$K$8)/$B$25</f>
+        <v>1052.6315789473701</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" ref="I10:I16" si="9">H10*0.9</f>
-        <v>1111.1111111111113</v>
+        <f t="shared" ref="I10:I11" si="8">H10*0.9</f>
+        <v>947.36842105263315</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" ref="J10:J16" si="10">N10/L10</f>
-        <v>11111.111111111111</v>
+        <f t="shared" ref="J10:J11" si="9">N10/L10</f>
+        <v>10526.315789473685</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" ref="K10:K16" si="11">$K$8+H10</f>
-        <v>11234.567901234568</v>
+        <f t="shared" ref="K10:K11" si="10">$K$8+H10</f>
+        <v>11052.63157894737</v>
       </c>
       <c r="L10" s="3">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" ref="M10:M16" si="12">K10*L10</f>
-        <v>1011111.1111111111</v>
+        <f t="shared" ref="M10:M11" si="11">K10*L10</f>
+        <v>1050000.0000000002</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N10:N11" si="12">$K$8*$L$8</f>
         <v>1000000</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" ref="O10:O16" si="13">K10/L10</f>
-        <v>124.82853223593965</v>
+        <f t="shared" ref="O10:O11" si="13">K10/L10</f>
+        <v>116.34349030470916</v>
       </c>
       <c r="P10" s="18">
-        <f t="shared" ref="P10:P16" si="14">1-J10/K10</f>
-        <v>1.098901098901095E-2</v>
+        <f t="shared" ref="P10:P11" si="14">1-J10/K10</f>
+        <v>4.7619047619047672E-2</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -3486,69 +3641,69 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B11" s="3">
+        <v>217.39130434782601</v>
+      </c>
+      <c r="C11" s="3">
         <f t="shared" si="2"/>
-        <v>138.88888888888889</v>
-      </c>
-      <c r="C11" s="3">
+        <v>23478.260869565216</v>
+      </c>
+      <c r="D11" s="25">
         <f t="shared" si="3"/>
-        <v>25555.555555555555</v>
-      </c>
-      <c r="D11" s="28">
+        <v>22759.924385633269</v>
+      </c>
+      <c r="E11" s="13">
         <f t="shared" si="4"/>
-        <v>25972.222222222223</v>
-      </c>
-      <c r="E11" s="13">
+        <v>718.33648393194744</v>
+      </c>
+      <c r="F11" s="18">
         <f t="shared" si="5"/>
-        <v>-416.66666666666788</v>
-      </c>
-      <c r="F11" s="18">
+        <v>1.275992438563327</v>
+      </c>
+      <c r="G11" s="18">
         <f t="shared" si="6"/>
-        <v>1.5972222222222223</v>
-      </c>
-      <c r="G11" s="18">
+        <v>1.0315614617940199</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="7"/>
-        <v>0.98395721925133683</v>
-      </c>
-      <c r="H11" s="3">
+        <v>1739.1304347826081</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="8"/>
-        <v>2777.7777777777778</v>
-      </c>
-      <c r="I11" s="3">
+        <v>1565.2173913043473</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="9"/>
-        <v>2500</v>
-      </c>
-      <c r="J11" s="3">
+        <v>10869.565217391304</v>
+      </c>
+      <c r="K11" s="3">
         <f t="shared" si="10"/>
-        <v>12500</v>
-      </c>
-      <c r="K11" s="3">
+        <v>11739.130434782608</v>
+      </c>
+      <c r="L11" s="3">
+        <v>92</v>
+      </c>
+      <c r="M11" s="3">
         <f t="shared" si="11"/>
-        <v>12777.777777777777</v>
-      </c>
-      <c r="L11" s="3">
-        <v>80</v>
-      </c>
-      <c r="M11" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="N11" s="3">
         <f t="shared" si="12"/>
-        <v>1022222.2222222222</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="13"/>
-        <v>159.72222222222223</v>
+        <v>127.59924385633269</v>
       </c>
       <c r="P11" s="18">
         <f t="shared" si="14"/>
-        <v>2.1739130434782594E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -3556,69 +3711,69 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>$L$8-L12</f>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="2"/>
-        <v>158.73015873015873</v>
+        <f>H12/A12</f>
+        <v>222.22222222222226</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="3"/>
-        <v>29523.809523809527</v>
-      </c>
-      <c r="D12" s="28">
-        <f t="shared" si="4"/>
-        <v>31088.435374149663</v>
+        <f t="shared" ref="C12:C18" si="15">O12*L12+K12</f>
+        <v>24444.444444444445</v>
+      </c>
+      <c r="D12" s="25">
+        <f>O12*$L$8+$K$8</f>
+        <v>23580.246913580246</v>
       </c>
       <c r="E12" s="13">
-        <f t="shared" si="5"/>
-        <v>-1564.6258503401368</v>
+        <f>C12-D12</f>
+        <v>864.19753086419951</v>
       </c>
       <c r="F12" s="18">
-        <f t="shared" si="6"/>
-        <v>2.1088435374149661</v>
+        <f t="shared" ref="F12:F18" si="16">O12/100</f>
+        <v>1.3580246913580247</v>
       </c>
       <c r="G12" s="18">
+        <f t="shared" ref="G12:G18" si="17">C12/D12</f>
+        <v>1.036649214659686</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="7"/>
-        <v>0.94967177242888401</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="8"/>
-        <v>4761.9047619047624</v>
+        <v>2222.2222222222226</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="9"/>
-        <v>4285.7142857142862</v>
+        <f t="shared" ref="I12:I18" si="18">H12*0.9</f>
+        <v>2000.0000000000005</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="10"/>
-        <v>14285.714285714286</v>
+        <f t="shared" ref="J12:J18" si="19">N12/L12</f>
+        <v>11111.111111111111</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="11"/>
-        <v>14761.904761904763</v>
+        <f>$K$8+H12</f>
+        <v>12222.222222222223</v>
       </c>
       <c r="L12" s="3">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="12"/>
-        <v>1033333.3333333335</v>
+        <f t="shared" ref="M12:M18" si="20">K12*L12</f>
+        <v>1100000</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="0"/>
+        <f>$K$8*$L$8</f>
         <v>1000000</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="13"/>
-        <v>210.88435374149662</v>
+        <f t="shared" ref="O12:O18" si="21">K12/L12</f>
+        <v>135.80246913580248</v>
       </c>
       <c r="P12" s="18">
-        <f t="shared" si="14"/>
-        <v>3.2258064516129115E-2</v>
+        <f t="shared" ref="P12:P18" si="22">1-J12/K12</f>
+        <v>9.0909090909090939E-2</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -3626,69 +3781,69 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="3">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f>$L$8-L13</f>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="2"/>
-        <v>222.22222222222223</v>
+        <f>H13/A13</f>
+        <v>250</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="3"/>
-        <v>42222.222222222219</v>
-      </c>
-      <c r="D13" s="28">
-        <f t="shared" si="4"/>
-        <v>52222.222222222219</v>
+        <f t="shared" si="15"/>
+        <v>30000</v>
+      </c>
+      <c r="D13" s="25">
+        <f>O13*$L$8+$K$8</f>
+        <v>28750</v>
       </c>
       <c r="E13" s="13">
-        <f t="shared" si="5"/>
-        <v>-10000</v>
+        <f t="shared" ref="E13:E18" si="23">C13-D13</f>
+        <v>1250</v>
       </c>
       <c r="F13" s="18">
-        <f t="shared" si="6"/>
-        <v>4.2222222222222214</v>
+        <f t="shared" si="16"/>
+        <v>1.875</v>
       </c>
       <c r="G13" s="18">
+        <f t="shared" si="17"/>
+        <v>1.0434782608695652</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="7"/>
-        <v>0.80851063829787229</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="8"/>
-        <v>11111.111111111111</v>
+        <v>5000</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="9"/>
-        <v>10000</v>
+        <f t="shared" si="18"/>
+        <v>4500</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="10"/>
-        <v>20000</v>
+        <f t="shared" si="19"/>
+        <v>12500</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="11"/>
-        <v>21111.111111111109</v>
+        <f>$K$8+H13</f>
+        <v>15000</v>
       </c>
       <c r="L13" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="12"/>
-        <v>1055555.5555555555</v>
+        <f t="shared" si="20"/>
+        <v>1200000</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="0"/>
+        <f>$K$8*$L$8</f>
         <v>1000000</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="13"/>
-        <v>422.22222222222217</v>
+        <f t="shared" si="21"/>
+        <v>187.5</v>
       </c>
       <c r="P13" s="18">
-        <f t="shared" si="14"/>
-        <v>5.2631578947368363E-2</v>
+        <f t="shared" si="22"/>
+        <v>0.16666666666666663</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -3696,69 +3851,69 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="3">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f>$L$8-L14</f>
+        <v>30</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="2"/>
-        <v>246.9135802469136</v>
+        <f>H14/A14</f>
+        <v>285.71428571428572</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="3"/>
-        <v>47160.493827160491</v>
-      </c>
-      <c r="D14" s="28">
-        <f t="shared" si="4"/>
-        <v>62400.548696844984</v>
+        <f t="shared" si="15"/>
+        <v>37142.857142857145</v>
+      </c>
+      <c r="D14" s="25">
+        <f>O14*$L$8+$K$8</f>
+        <v>36530.612244897959</v>
       </c>
       <c r="E14" s="13">
-        <f t="shared" si="5"/>
-        <v>-15240.054869684493</v>
+        <f t="shared" si="23"/>
+        <v>612.24489795918635</v>
       </c>
       <c r="F14" s="18">
-        <f t="shared" si="6"/>
-        <v>5.2400548696844984</v>
+        <f t="shared" si="16"/>
+        <v>2.6530612244897958</v>
       </c>
       <c r="G14" s="18">
+        <f t="shared" si="17"/>
+        <v>1.016759776536313</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="7"/>
-        <v>0.75577049901077165</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="8"/>
-        <v>13580.246913580248</v>
+        <v>8571.4285714285725</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="9"/>
-        <v>12222.222222222223</v>
+        <f t="shared" si="18"/>
+        <v>7714.2857142857156</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="10"/>
-        <v>22222.222222222223</v>
+        <f t="shared" si="19"/>
+        <v>14285.714285714286</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="11"/>
-        <v>23580.246913580246</v>
+        <f>$K$8+H14</f>
+        <v>18571.428571428572</v>
       </c>
       <c r="L14" s="3">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="12"/>
-        <v>1061111.111111111</v>
+        <f t="shared" si="20"/>
+        <v>1300000</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="0"/>
+        <f>$K$8*$L$8</f>
         <v>1000000</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="13"/>
-        <v>524.00548696844987</v>
+        <f t="shared" si="21"/>
+        <v>265.30612244897958</v>
       </c>
       <c r="P14" s="18">
-        <f t="shared" si="14"/>
-        <v>5.7591623036649109E-2</v>
+        <f t="shared" si="22"/>
+        <v>0.23076923076923084</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -3766,69 +3921,69 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="3">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>$L$8-L15</f>
+        <v>50</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="2"/>
-        <v>555.55555555555554</v>
+        <f>H15/A15</f>
+        <v>400</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="3"/>
-        <v>108888.88888888889</v>
-      </c>
-      <c r="D15" s="28">
-        <f t="shared" si="4"/>
-        <v>282222.22222222219</v>
+        <f t="shared" si="15"/>
+        <v>60000</v>
+      </c>
+      <c r="D15" s="25">
+        <f>O15*$L$8+$K$8</f>
+        <v>70000</v>
       </c>
       <c r="E15" s="13">
-        <f t="shared" si="5"/>
-        <v>-173333.33333333331</v>
+        <f t="shared" si="23"/>
+        <v>-10000</v>
       </c>
       <c r="F15" s="18">
-        <f t="shared" si="6"/>
-        <v>27.222222222222221</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="G15" s="18">
+        <f t="shared" si="17"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="7"/>
-        <v>0.38582677165354334</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="8"/>
-        <v>44444.444444444445</v>
+        <v>20000</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="9"/>
-        <v>40000</v>
+        <f t="shared" si="18"/>
+        <v>18000</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="10"/>
-        <v>50000</v>
+        <f t="shared" si="19"/>
+        <v>20000</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="11"/>
-        <v>54444.444444444445</v>
+        <f>$K$8+H15</f>
+        <v>30000</v>
       </c>
       <c r="L15" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="12"/>
-        <v>1088888.888888889</v>
+        <f t="shared" si="20"/>
+        <v>1500000</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="0"/>
+        <f>$K$8*$L$8</f>
         <v>1000000</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="13"/>
-        <v>2722.2222222222222</v>
+        <f t="shared" si="21"/>
+        <v>600</v>
       </c>
       <c r="P15" s="18">
-        <f t="shared" si="14"/>
-        <v>8.1632653061224469E-2</v>
+        <f t="shared" si="22"/>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -3836,75 +3991,863 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="3">
-        <f t="shared" si="1"/>
-        <v>99</v>
+        <f t="shared" ref="A16:A18" si="24">$L$8-L16</f>
+        <v>55</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="2"/>
-        <v>11111.111111111111</v>
+        <f t="shared" ref="B16:B18" si="25">H16/A16</f>
+        <v>444.44444444444446</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="3"/>
-        <v>2220000</v>
-      </c>
-      <c r="D16" s="28">
-        <f t="shared" si="4"/>
-        <v>111010000</v>
+        <f t="shared" si="15"/>
+        <v>68888.888888888891</v>
+      </c>
+      <c r="D16" s="25">
+        <f t="shared" ref="D16:D18" si="26">O16*$L$8+$K$8</f>
+        <v>86543.209876543217</v>
       </c>
       <c r="E16" s="13">
-        <f t="shared" si="5"/>
-        <v>-108790000</v>
+        <f t="shared" si="23"/>
+        <v>-17654.320987654326</v>
       </c>
       <c r="F16" s="18">
-        <f t="shared" si="6"/>
-        <v>11100</v>
+        <f t="shared" si="16"/>
+        <v>7.6543209876543212</v>
       </c>
       <c r="G16" s="18">
+        <f t="shared" si="17"/>
+        <v>0.79600570613409416</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="7"/>
-        <v>1.9998198360508063E-2</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="8"/>
-        <v>1100000</v>
+        <v>24444.444444444445</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="9"/>
-        <v>990000</v>
+        <f t="shared" si="18"/>
+        <v>22000</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
+        <v>22222.222222222223</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" ref="K16:K18" si="27">$K$8+H16</f>
+        <v>34444.444444444445</v>
+      </c>
+      <c r="L16" s="3">
+        <v>45</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="20"/>
+        <v>1550000</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" ref="N16:N18" si="28">$K$8*$L$8</f>
         <v>1000000</v>
       </c>
-      <c r="K16" s="3">
-        <f t="shared" si="11"/>
-        <v>1110000</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="12"/>
-        <v>1110000</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
       <c r="O16" s="3">
-        <f t="shared" si="13"/>
-        <v>1110000</v>
+        <f t="shared" si="21"/>
+        <v>765.4320987654321</v>
       </c>
       <c r="P16" s="18">
-        <f t="shared" si="14"/>
-        <v>9.9099099099099086E-2</v>
+        <f t="shared" si="22"/>
+        <v>0.35483870967741937</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="3">
+        <f t="shared" si="24"/>
+        <v>80</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="25"/>
+        <v>1000</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="15"/>
+        <v>180000</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" si="26"/>
+        <v>460000</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="23"/>
+        <v>-280000</v>
+      </c>
+      <c r="F17" s="18">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="G17" s="18">
+        <f t="shared" si="17"/>
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="7"/>
+        <v>80000</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="18"/>
+        <v>72000</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="19"/>
+        <v>50000</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="27"/>
+        <v>90000</v>
+      </c>
+      <c r="L17" s="3">
+        <v>20</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="20"/>
+        <v>1800000</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="28"/>
+        <v>1000000</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="21"/>
+        <v>4500</v>
+      </c>
+      <c r="P17" s="18">
+        <f t="shared" si="22"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="3">
+        <f t="shared" si="24"/>
+        <v>99</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="25"/>
+        <v>20000</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="15"/>
+        <v>3980000</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" si="26"/>
+        <v>199010000</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="23"/>
+        <v>-195030000</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="shared" si="16"/>
+        <v>19900</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="17"/>
+        <v>1.999899502537561E-2</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="7"/>
+        <v>1980000</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="18"/>
+        <v>1782000</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="19"/>
+        <v>1000000</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="27"/>
+        <v>1990000</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="20"/>
+        <v>1990000</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="28"/>
+        <v>1000000</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="21"/>
+        <v>1990000</v>
+      </c>
+      <c r="P18" s="18">
+        <f t="shared" si="22"/>
+        <v>0.49748743718592969</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25">
+        <f>1-0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96A56E0-52F9-47C7-BA40-94F45C8883AF}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView zoomScale="105" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="25.375" customWidth="1"/>
+    <col min="10" max="10" width="24.25" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="14" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18">
+      <c r="B1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>2000</v>
+      </c>
+      <c r="D2">
+        <f>B2+200</f>
+        <v>2200</v>
+      </c>
+      <c r="E2">
+        <f>B2</f>
+        <v>2000</v>
+      </c>
+      <c r="F2">
+        <f>SQRT(B2*C2)</f>
+        <v>2000</v>
+      </c>
+      <c r="G2">
+        <f>SQRT(D2*E2)</f>
+        <v>2097.6176963403032</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>97.617696340303155</v>
+      </c>
+      <c r="I2" s="32">
+        <f>1-(SQRT(B2*C2)/SQRT(D2*E2))</f>
+        <v>4.653741075440776E-2</v>
+      </c>
+      <c r="J2" s="36">
+        <f>I2*F2/(1-I2)</f>
+        <v>97.617696340303254</v>
+      </c>
+      <c r="K2">
+        <f>SQRT(D2*E2)*I2</f>
+        <v>97.617696340303254</v>
+      </c>
+      <c r="L2">
+        <f>K2/G2*D2</f>
+        <v>102.38230365969707</v>
+      </c>
+      <c r="M2">
+        <f>H2/G2*E2</f>
+        <v>93.074821508815418</v>
+      </c>
+      <c r="N2">
+        <f>L2+M2</f>
+        <v>195.4571251685125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3">
+        <v>20000</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C6" si="0">B3</f>
+        <v>20000</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="1">B3+200</f>
+        <v>20200</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="2">B3</f>
+        <v>20000</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="3">SQRT(B3*C3)</f>
+        <v>20000</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="4">SQRT(D3*E3)</f>
+        <v>20099.751242241782</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="5">G3-F3</f>
+        <v>99.751242241782165</v>
+      </c>
+      <c r="I3" s="32">
+        <f t="shared" ref="I3:I6" si="6">1-(SQRT(B3*C3)/SQRT(D3*E3))</f>
+        <v>4.962809790010958E-3</v>
+      </c>
+      <c r="J3" s="36">
+        <f t="shared" ref="J3:J6" si="7">I3*F3/(1-I3)</f>
+        <v>99.751242241782435</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="8">SQRT(D3*E3)*I3</f>
+        <v>99.751242241782435</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L6" si="9">K3/G3*D3</f>
+        <v>100.24875775822136</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M6" si="10">H3/G3*E3</f>
+        <v>99.256195800218904</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N6" si="11">L3+M3</f>
+        <v>199.50495355844026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4">
+        <v>200000</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>200200</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>200099.97501249218</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="5"/>
+        <v>99.97501249218476</v>
+      </c>
+      <c r="I4" s="32">
+        <f t="shared" si="6"/>
+        <v>4.9962531222680351E-4</v>
+      </c>
+      <c r="J4" s="36">
+        <f t="shared" si="7"/>
+        <v>99.975012492191993</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="8"/>
+        <v>99.975012492191993</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="9"/>
+        <v>100.02498750780606</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="10"/>
+        <v>99.925062445353475</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="11"/>
+        <v>199.95004995315952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5">
+        <v>2000000</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>2000200</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>2000000</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>2000000</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>2000099.9975001251</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>99.997500125085935</v>
+      </c>
+      <c r="I5" s="32">
+        <f t="shared" si="6"/>
+        <v>4.9996250312545065E-5</v>
+      </c>
+      <c r="J5" s="37">
+        <f t="shared" si="7"/>
+        <v>99.997500125137009</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="8"/>
+        <v>99.997500125137009</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="9"/>
+        <v>100.00249987515264</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="10"/>
+        <v>99.992500625039057</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="11"/>
+        <v>199.99500050019168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6">
+        <v>20000000</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>20000000</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>20000200</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>20000000</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>20000000</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>20000099.999749999</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>99.999749999493361</v>
+      </c>
+      <c r="I6" s="39">
+        <f t="shared" si="6"/>
+        <v>4.9999625002516979E-6</v>
+      </c>
+      <c r="J6" s="38">
+        <f t="shared" si="7"/>
+        <v>99.999750000033998</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="8"/>
+        <v>99.999750000033984</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="9"/>
+        <v>100.00024999753401</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="10"/>
+        <v>99.999250004493334</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="11"/>
+        <v>199.99950000202733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18">
+      <c r="B16" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="30"/>
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>200</v>
+      </c>
+      <c r="B17">
+        <v>2000</v>
+      </c>
+      <c r="C17">
+        <f>B17</f>
+        <v>2000</v>
+      </c>
+      <c r="D17">
+        <f>B17+200</f>
+        <v>2200</v>
+      </c>
+      <c r="E17">
+        <f>B17+200</f>
+        <v>2200</v>
+      </c>
+      <c r="F17">
+        <f>SQRT(B17*C17)</f>
+        <v>2000</v>
+      </c>
+      <c r="G17">
+        <f>SQRT(D17*E17)</f>
+        <v>2200</v>
+      </c>
+      <c r="H17">
+        <f>G17-F17</f>
+        <v>200</v>
+      </c>
+      <c r="I17" s="32">
+        <f>1-(SQRT(B17*C17)/SQRT(D17*E17))</f>
+        <v>9.0909090909090939E-2</v>
+      </c>
+      <c r="J17" s="32">
+        <f>H17/G17</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K17" s="40">
+        <f>SQRT(D17*E17)*I17</f>
+        <v>200.00000000000006</v>
+      </c>
+      <c r="L17" s="41">
+        <f>J17*D17</f>
+        <v>200</v>
+      </c>
+      <c r="M17" s="41">
+        <f>J17*E17</f>
+        <v>200</v>
+      </c>
+      <c r="N17" s="41">
+        <f>L17+M17</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="B18">
+        <v>20000</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:C21" si="12">B18</f>
+        <v>20000</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D21" si="13">B18+200</f>
+        <v>20200</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:E21" si="14">B18+200</f>
+        <v>20200</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F21" si="15">SQRT(B18*C18)</f>
+        <v>20000</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G21" si="16">SQRT(D18*E18)</f>
+        <v>20200</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H21" si="17">G18-F18</f>
+        <v>200</v>
+      </c>
+      <c r="I18" s="32">
+        <f t="shared" ref="I18:I21" si="18">1-(SQRT(B18*C18)/SQRT(D18*E18))</f>
+        <v>9.9009900990099098E-3</v>
+      </c>
+      <c r="J18" s="32">
+        <f t="shared" ref="J18:J21" si="19">H18/G18</f>
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="K18" s="40">
+        <f t="shared" ref="K18:K21" si="20">SQRT(D18*E18)*I18</f>
+        <v>200.00000000000017</v>
+      </c>
+      <c r="L18" s="41">
+        <f t="shared" ref="L18:L21" si="21">J18*D18</f>
+        <v>200</v>
+      </c>
+      <c r="M18" s="41">
+        <f t="shared" ref="M18:M21" si="22">J18*E18</f>
+        <v>200</v>
+      </c>
+      <c r="N18" s="41">
+        <f t="shared" ref="N18:N21" si="23">L18+M18</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="B19">
+        <v>200000</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="12"/>
+        <v>200000</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="13"/>
+        <v>200200</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="14"/>
+        <v>200200</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="15"/>
+        <v>200000</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="16"/>
+        <v>200200</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="17"/>
+        <v>200</v>
+      </c>
+      <c r="I19" s="32">
+        <f t="shared" si="18"/>
+        <v>9.9900099900096517E-4</v>
+      </c>
+      <c r="J19" s="32">
+        <f t="shared" si="19"/>
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="K19" s="40">
+        <f t="shared" si="20"/>
+        <v>199.99999999999324</v>
+      </c>
+      <c r="L19" s="41">
+        <f t="shared" si="21"/>
+        <v>200</v>
+      </c>
+      <c r="M19" s="41">
+        <f t="shared" si="22"/>
+        <v>200</v>
+      </c>
+      <c r="N19" s="41">
+        <f t="shared" si="23"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="B20">
+        <v>2000000</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="12"/>
+        <v>2000000</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="13"/>
+        <v>2000200</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="14"/>
+        <v>2000200</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="15"/>
+        <v>2000000</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="16"/>
+        <v>2000200</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="17"/>
+        <v>200</v>
+      </c>
+      <c r="I20" s="32">
+        <f t="shared" si="18"/>
+        <v>9.9990000999916617E-5</v>
+      </c>
+      <c r="J20" s="32">
+        <f t="shared" si="19"/>
+        <v>9.9990000999900015E-5</v>
+      </c>
+      <c r="K20" s="40">
+        <f t="shared" si="20"/>
+        <v>200.00000000003322</v>
+      </c>
+      <c r="L20" s="41">
+        <f t="shared" si="21"/>
+        <v>200</v>
+      </c>
+      <c r="M20" s="41">
+        <f t="shared" si="22"/>
+        <v>200</v>
+      </c>
+      <c r="N20" s="41">
+        <f t="shared" si="23"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21">
+        <v>20000000</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="12"/>
+        <v>20000000</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="13"/>
+        <v>20000200</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="14"/>
+        <v>20000200</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="15"/>
+        <v>20000000</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="16"/>
+        <v>20000200</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="17"/>
+        <v>200</v>
+      </c>
+      <c r="I21" s="32">
+        <f t="shared" si="18"/>
+        <v>9.9999000009454164E-6</v>
+      </c>
+      <c r="J21" s="32">
+        <f t="shared" si="19"/>
+        <v>9.9999000009999908E-6</v>
+      </c>
+      <c r="K21" s="40">
+        <f t="shared" si="20"/>
+        <v>199.99999999890852</v>
+      </c>
+      <c r="L21" s="41">
+        <f t="shared" si="21"/>
+        <v>200.00000000000003</v>
+      </c>
+      <c r="M21" s="41">
+        <f t="shared" si="22"/>
+        <v>200.00000000000003</v>
+      </c>
+      <c r="N21" s="41">
+        <f t="shared" si="23"/>
+        <v>400.00000000000006</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/滑点理解图表格.xlsx
+++ b/滑点理解图表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SolidityProjectGit\solidityTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C1FD49-4B4A-4E5F-B767-B71D48DC88EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F511F8-7747-492F-B014-66DE5C44DDE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="456" activeTab="3" xr2:uid="{05AAACF9-C555-44C3-9157-138E1CF9061B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="456" activeTab="5" xr2:uid="{05AAACF9-C555-44C3-9157-138E1CF9061B}"/>
   </bookViews>
   <sheets>
     <sheet name="滑点计算" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="无偿损失计算" sheetId="4" r:id="rId3"/>
     <sheet name="单笔交易时" sheetId="3" r:id="rId4"/>
     <sheet name="长期看Lp分成" sheetId="5" r:id="rId5"/>
+    <sheet name="抵押算法" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
   <si>
     <t>购买ETH数量 （ΔY）</t>
   </si>
@@ -932,6 +934,90 @@
   </si>
   <si>
     <t>y^（y的增量）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>t=7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L(t)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p[user]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>t=9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>t=12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>t=14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>t=18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>s+=R/100*(9-7)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>s+=R/200*(12-9)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>s+=R/300(14-12)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>s+=R/100*(18-14)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黄</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward=(R/100*(9-7)+R/200*(12-9)-p[user])*100=3.5R</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p[user]取0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p[user]取R/100*(9-7)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为在t=12时小黄的代币数量变化了，所以要计算出变化前的收益。并且更新p[小黄]为s=R/100*(9-7)+R/200*(12-9)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p[user]取R/100*(9-7)+R/200*(12-9)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大熊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward=(R/300(14-12)+R/200*(12-9)+R/100*(9-7)-p[user])*200+reward=4.83R（4+5/6）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward=(R/100*(18-14)+R/300(14-12)+R/200*(12-9)+R/100*(9-7)-p[user])*100=6.17R(6+1/6)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -950,7 +1036,7 @@
     <numFmt numFmtId="181" formatCode="0.000_ "/>
     <numFmt numFmtId="182" formatCode="0.0000_ "/>
     <numFmt numFmtId="183" formatCode="0.0000%"/>
-    <numFmt numFmtId="193" formatCode="0_ "/>
+    <numFmt numFmtId="184" formatCode="0_ "/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1148,7 +1234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1248,15 +1334,6 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1272,7 +1349,34 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1334,6 +1438,368 @@
         <a:xfrm>
           <a:off x="9352016" y="1610843"/>
           <a:ext cx="5519239" cy="3578881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>132010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361530</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>26756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3FBF3B-83C4-4C9D-BA1C-26B0B4B3EEED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7029450" y="316160"/>
+          <a:ext cx="8387930" cy="4314346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>805189</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175847</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EAE468-2E45-4105-A8AE-2F696E93974F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="183174"/>
+          <a:ext cx="805189" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>822338</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A600EAE-F6F3-4137-B923-884C6047DD39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="366346"/>
+          <a:ext cx="822338" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>805189</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{372FC28C-9C80-4E51-A2E0-98C9949E02F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="549519"/>
+          <a:ext cx="805189" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>798634</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>174981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188509AE-A419-4E16-808C-BE0BEA9E9BFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="923193"/>
+          <a:ext cx="820615" cy="167653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>669681</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>167542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD49B34C-3EF5-47B0-A650-84D2D0291CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="669681" y="719992"/>
+          <a:ext cx="841619" cy="182206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561739</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE1F456-D337-4AE7-9068-CAB8956E090B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="1200150"/>
+          <a:ext cx="1885714" cy="380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>98114</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257152</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEBB8D30-89AA-40D7-B60D-FFAE4807A201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5584514" y="1219200"/>
+          <a:ext cx="159038" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2889,20 +3355,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -3287,90 +3753,90 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3387,7 +3853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B3FCC8-BAB7-40EE-AD0B-D20B49F368AF}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -4222,7 +4688,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4312,7 +4778,7 @@
         <f>1-(SQRT(B2*C2)/SQRT(D2*E2))</f>
         <v>4.653741075440776E-2</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="33">
         <f>I2*F2/(1-I2)</f>
         <v>97.617696340303254</v>
       </c>
@@ -4365,7 +4831,7 @@
         <f t="shared" ref="I3:I6" si="6">1-(SQRT(B3*C3)/SQRT(D3*E3))</f>
         <v>4.962809790010958E-3</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="33">
         <f t="shared" ref="J3:J6" si="7">I3*F3/(1-I3)</f>
         <v>99.751242241782435</v>
       </c>
@@ -4418,7 +4884,7 @@
         <f t="shared" si="6"/>
         <v>4.9962531222680351E-4</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="33">
         <f t="shared" si="7"/>
         <v>99.975012492191993</v>
       </c>
@@ -4471,7 +4937,7 @@
         <f t="shared" si="6"/>
         <v>4.9996250312545065E-5</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="34">
         <f t="shared" si="7"/>
         <v>99.997500125137009</v>
       </c>
@@ -4520,11 +4986,11 @@
         <f t="shared" si="5"/>
         <v>99.999749999493361</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="36">
         <f t="shared" si="6"/>
         <v>4.9999625002516979E-6</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="35">
         <f t="shared" si="7"/>
         <v>99.999750000033998</v>
       </c>
@@ -4620,19 +5086,19 @@
         <f>H17/G17</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="37">
         <f>SQRT(D17*E17)*I17</f>
         <v>200.00000000000006</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="38">
         <f>J17*D17</f>
         <v>200</v>
       </c>
-      <c r="M17" s="41">
+      <c r="M17" s="38">
         <f>J17*E17</f>
         <v>200</v>
       </c>
-      <c r="N17" s="41">
+      <c r="N17" s="38">
         <f>L17+M17</f>
         <v>400</v>
       </c>
@@ -4673,19 +5139,19 @@
         <f t="shared" ref="J18:J21" si="19">H18/G18</f>
         <v>9.9009900990099011E-3</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="37">
         <f t="shared" ref="K18:K21" si="20">SQRT(D18*E18)*I18</f>
         <v>200.00000000000017</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="38">
         <f t="shared" ref="L18:L21" si="21">J18*D18</f>
         <v>200</v>
       </c>
-      <c r="M18" s="41">
+      <c r="M18" s="38">
         <f t="shared" ref="M18:M21" si="22">J18*E18</f>
         <v>200</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="38">
         <f t="shared" ref="N18:N21" si="23">L18+M18</f>
         <v>400</v>
       </c>
@@ -4726,19 +5192,19 @@
         <f t="shared" si="19"/>
         <v>9.99000999000999E-4</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="37">
         <f t="shared" si="20"/>
         <v>199.99999999999324</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="38">
         <f t="shared" si="21"/>
         <v>200</v>
       </c>
-      <c r="M19" s="41">
+      <c r="M19" s="38">
         <f t="shared" si="22"/>
         <v>200</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="38">
         <f t="shared" si="23"/>
         <v>400</v>
       </c>
@@ -4779,19 +5245,19 @@
         <f t="shared" si="19"/>
         <v>9.9990000999900015E-5</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20" s="37">
         <f t="shared" si="20"/>
         <v>200.00000000003322</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="38">
         <f t="shared" si="21"/>
         <v>200</v>
       </c>
-      <c r="M20" s="41">
+      <c r="M20" s="38">
         <f t="shared" si="22"/>
         <v>200</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="38">
         <f t="shared" si="23"/>
         <v>400</v>
       </c>
@@ -4832,19 +5298,19 @@
         <f t="shared" si="19"/>
         <v>9.9999000009999908E-6</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K21" s="37">
         <f t="shared" si="20"/>
         <v>199.99999999890852</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="38">
         <f t="shared" si="21"/>
         <v>200.00000000000003</v>
       </c>
-      <c r="M21" s="41">
+      <c r="M21" s="38">
         <f t="shared" si="22"/>
         <v>200.00000000000003</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="38">
         <f t="shared" si="23"/>
         <v>400.00000000000006</v>
       </c>
@@ -4854,4 +5320,211 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEB02E9-709A-484D-A636-681928D00EFD}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="47"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="43"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:F19"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E639855-9DDA-4990-BCE9-F7DF8CA72F9B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/滑点理解图表格.xlsx
+++ b/滑点理解图表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SolidityProjectGit\solidityTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F511F8-7747-492F-B014-66DE5C44DDE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B06ADA-51DA-4CC0-B2F7-F1FCFB08CB16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="456" activeTab="5" xr2:uid="{05AAACF9-C555-44C3-9157-138E1CF9061B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="456" activeTab="6" xr2:uid="{05AAACF9-C555-44C3-9157-138E1CF9061B}"/>
   </bookViews>
   <sheets>
     <sheet name="滑点计算" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="单笔交易时" sheetId="3" r:id="rId4"/>
     <sheet name="长期看Lp分成" sheetId="5" r:id="rId5"/>
     <sheet name="抵押算法" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="套利数据演算" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
   <si>
     <t>购买ETH数量 （ΔY）</t>
   </si>
@@ -1018,6 +1018,223 @@
   </si>
   <si>
     <t>reward=(R/100*(18-14)+R/300(14-12)+R/200*(12-9)+R/100*(9-7)-p[user])*100=6.17R(6+1/6)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个ETH价格 (DAI)（交易时）</t>
+  </si>
+  <si>
+    <t>x/y(兑价)</t>
+  </si>
+  <si>
+    <t>原正常价格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉升ETH价格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投入</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DAI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ΔX</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,000DAI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ETH </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500ETH兑换100,000DAI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成本</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DAI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、正常拉高交易池价格再进行兑换 这种方法是亏本的。
+2、bzx协议第一次攻击事件中 关键点为 使用1300ETH就拉高了BTC的价格（本应使用5637.62ETH拉高）PS：当时uniswap是V1
+3、分析认为 像这种拉高拉低行为后 往往会借助其他产品（以此时价格进行计算）进行获利操作，也就是说价格操控的目的是将异常的价格喂价给其他产品。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1025,7 +1242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
@@ -1037,6 +1254,7 @@
     <numFmt numFmtId="182" formatCode="0.0000_ "/>
     <numFmt numFmtId="183" formatCode="0.0000%"/>
     <numFmt numFmtId="184" formatCode="0_ "/>
+    <numFmt numFmtId="186" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1184,7 +1402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1216,6 +1434,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1234,7 +1472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1352,6 +1590,12 @@
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1361,11 +1605,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1374,10 +1615,34 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1718,99 +1983,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561739</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133302</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE1F456-D337-4AE7-9068-CAB8956E090B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4162425" y="1200150"/>
-          <a:ext cx="1885714" cy="380952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>98114</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257152</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEBB8D30-89AA-40D7-B60D-FFAE4807A201}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5584514" y="1219200"/>
-          <a:ext cx="159038" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2111,7 +2283,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H8" sqref="H8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2222,7 +2394,7 @@
         <v>1.001001000000059E-3</v>
       </c>
       <c r="F3" s="13">
-        <f t="shared" ref="F3:F10" si="1">(H3-A3*100)</f>
+        <f>(H3-A3*100)</f>
         <v>0.10010010000000591</v>
       </c>
       <c r="G3" s="17">
@@ -2273,7 +2445,7 @@
         <v>1.0101009999999975E-2</v>
       </c>
       <c r="F4" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F3:F10" si="1">(H4-A4*100)</f>
         <v>10.101009999999974</v>
       </c>
       <c r="G4" s="17">
@@ -3169,7 +3341,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="127" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3355,20 +3527,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -3753,90 +3925,90 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5326,7 +5498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEB02E9-709A-484D-A636-681928D00EFD}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -5386,7 +5558,7 @@
       <c r="D4" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="39" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5419,38 +5591,38 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
       <c r="E13" t="s">
         <v>96</v>
       </c>
@@ -5459,20 +5631,20 @@
       <c r="A14" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="47" t="s">
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="47"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
@@ -5483,20 +5655,20 @@
       <c r="A19" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="43" t="s">
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="43"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5515,16 +5687,484 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E639855-9DDA-4990-BCE9-F7DF8CA72F9B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="22.875" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="38.25">
+      <c r="A1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>100</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3">
+        <v>200</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="9">
+        <v>200000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>500</v>
+      </c>
+      <c r="F3" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>400</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="49">
+        <f>C4/B4</f>
+        <v>399.2015968063788</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="50">
+        <f>$D$3-D4</f>
+        <v>399.2015968063788</v>
+      </c>
+      <c r="D4" s="51">
+        <f>$F$2/E4</f>
+        <v>199600.79840319362</v>
+      </c>
+      <c r="E4" s="2">
+        <v>501</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="G4" s="49">
+        <f>D4/E4</f>
+        <v>398.40478723192342</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="K4">
+        <f t="shared" ref="K4:K7" si="0">B4*100</f>
+        <v>100</v>
+      </c>
+      <c r="L4" s="48">
+        <f t="shared" ref="L4:L7" si="1">C4-K4</f>
+        <v>299.2015968063788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="49">
+        <f>C5/B5</f>
+        <v>392.15686274509937</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="50">
+        <f t="shared" ref="C5:C9" si="2">$D$3-D5</f>
+        <v>3921.5686274509935</v>
+      </c>
+      <c r="D5" s="51">
+        <f>$F$2/E5</f>
+        <v>196078.43137254901</v>
+      </c>
+      <c r="E5" s="2">
+        <v>510</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="G5" s="49">
+        <f t="shared" ref="G5:G9" si="3">D5/E5</f>
+        <v>384.46751249519411</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="L5" s="48">
+        <f t="shared" si="1"/>
+        <v>2921.5686274509935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="49">
+        <f>C6/B6</f>
+        <v>333.33333333333343</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="50">
+        <f t="shared" si="2"/>
+        <v>33333.333333333343</v>
+      </c>
+      <c r="D6" s="51">
+        <f>$F$2/E6</f>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="E6" s="2">
+        <v>600</v>
+      </c>
+      <c r="F6" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="G6" s="49">
+        <f t="shared" si="3"/>
+        <v>277.77777777777777</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="L6" s="48">
+        <f t="shared" si="1"/>
+        <v>23333.333333333343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="49">
+        <f>C7/B7</f>
+        <v>285.71428571428567</v>
+      </c>
+      <c r="B7" s="2">
+        <v>200</v>
+      </c>
+      <c r="C7" s="50">
+        <f t="shared" si="2"/>
+        <v>57142.85714285713</v>
+      </c>
+      <c r="D7" s="51">
+        <f>$F$2/E7</f>
+        <v>142857.14285714287</v>
+      </c>
+      <c r="E7" s="2">
+        <v>700</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="G7" s="49">
+        <f t="shared" si="3"/>
+        <v>204.08163265306123</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="L7" s="48">
+        <f t="shared" si="1"/>
+        <v>37142.85714285713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="49">
+        <f>C8/B8</f>
+        <v>200</v>
+      </c>
+      <c r="B8" s="2">
+        <v>500</v>
+      </c>
+      <c r="C8" s="51">
+        <f>$D$3-D8</f>
+        <v>100000</v>
+      </c>
+      <c r="D8" s="51">
+        <f>$F$2/E8</f>
+        <v>100000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="G8" s="49">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8">
+        <f>B8*100</f>
+        <v>50000</v>
+      </c>
+      <c r="L8" s="48">
+        <f>C8-K8</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="55">
+        <f>C9/B9</f>
+        <v>181.81818181818181</v>
+      </c>
+      <c r="B9" s="52">
+        <v>600</v>
+      </c>
+      <c r="C9" s="54">
+        <f t="shared" si="2"/>
+        <v>109090.90909090909</v>
+      </c>
+      <c r="D9" s="53">
+        <f>$F$2/E9</f>
+        <v>90909.090909090912</v>
+      </c>
+      <c r="E9" s="52">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="G9" s="55">
+        <f t="shared" si="3"/>
+        <v>82.644628099173559</v>
+      </c>
+      <c r="K9">
+        <f>B9*100</f>
+        <v>60000</v>
+      </c>
+      <c r="L9" s="48">
+        <f>C9-K9</f>
+        <v>49090.909090909088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:I23"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/滑点理解图表格.xlsx
+++ b/滑点理解图表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SolidityProjectGit\solidityTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B06ADA-51DA-4CC0-B2F7-F1FCFB08CB16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9261121E-6132-4D73-9B35-F9448FF4FF71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="456" activeTab="6" xr2:uid="{05AAACF9-C555-44C3-9157-138E1CF9061B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="456" firstSheet="2" activeTab="7" xr2:uid="{05AAACF9-C555-44C3-9157-138E1CF9061B}"/>
   </bookViews>
   <sheets>
     <sheet name="滑点计算" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="长期看Lp分成" sheetId="5" r:id="rId5"/>
     <sheet name="抵押算法" sheetId="6" r:id="rId6"/>
     <sheet name="套利数据演算" sheetId="7" r:id="rId7"/>
+    <sheet name="合约检测checklist" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
   <si>
     <t>购买ETH数量 （ΔY）</t>
   </si>
@@ -1235,6 +1236,14 @@
     <t>1、正常拉高交易池价格再进行兑换 这种方法是亏本的。
 2、bzx协议第一次攻击事件中 关键点为 使用1300ETH就拉高了BTC的价格（本应使用5637.62ETH拉高）PS：当时uniswap是V1
 3、分析认为 像这种拉高拉低行为后 往往会借助其他产品（以此时价格进行计算）进行获利操作，也就是说价格操控的目的是将异常的价格喂价给其他产品。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发币集中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件打印</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1254,7 +1263,7 @@
     <numFmt numFmtId="182" formatCode="0.0000_ "/>
     <numFmt numFmtId="183" formatCode="0.0000%"/>
     <numFmt numFmtId="184" formatCode="0_ "/>
-    <numFmt numFmtId="186" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="185" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1596,6 +1605,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1616,33 +1652,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2445,7 +2454,7 @@
         <v>1.0101009999999975E-2</v>
       </c>
       <c r="F4" s="13">
-        <f t="shared" ref="F3:F10" si="1">(H4-A4*100)</f>
+        <f t="shared" ref="F4:F10" si="1">(H4-A4*100)</f>
         <v>10.101009999999974</v>
       </c>
       <c r="G4" s="17">
@@ -3527,20 +3536,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -3925,90 +3934,90 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5591,38 +5600,38 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
       <c r="E13" t="s">
         <v>96</v>
       </c>
@@ -5631,20 +5640,20 @@
       <c r="A14" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="40" t="s">
         <v>99</v>
       </c>
       <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
@@ -5655,20 +5664,20 @@
       <c r="A19" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5689,7 +5698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E639855-9DDA-4990-BCE9-F7DF8CA72F9B}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+    <sheetView zoomScale="114" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -5734,7 +5743,7 @@
       <c r="I1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="49" t="s">
         <v>112</v>
       </c>
       <c r="L1" t="s">
@@ -5792,19 +5801,19 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="49">
-        <f>C4/B4</f>
+      <c r="A4" s="42">
+        <f t="shared" ref="A4:A9" si="0">C4/B4</f>
         <v>399.2015968063788</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="43">
         <f>$D$3-D4</f>
         <v>399.2015968063788</v>
       </c>
-      <c r="D4" s="51">
-        <f>$F$2/E4</f>
+      <c r="D4" s="44">
+        <f t="shared" ref="D4:D9" si="1">$F$2/E4</f>
         <v>199600.79840319362</v>
       </c>
       <c r="E4" s="2">
@@ -5813,35 +5822,35 @@
       <c r="F4" s="3">
         <v>100000000</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="42">
         <f>D4/E4</f>
         <v>398.40478723192342</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="K4">
-        <f t="shared" ref="K4:K7" si="0">B4*100</f>
+        <f t="shared" ref="K4:K7" si="2">B4*100</f>
         <v>100</v>
       </c>
-      <c r="L4" s="48">
-        <f t="shared" ref="L4:L7" si="1">C4-K4</f>
+      <c r="L4" s="41">
+        <f t="shared" ref="L4:L7" si="3">C4-K4</f>
         <v>299.2015968063788</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="49">
-        <f>C5/B5</f>
+      <c r="A5" s="42">
+        <f t="shared" si="0"/>
         <v>392.15686274509937</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="C5" s="50">
-        <f t="shared" ref="C5:C9" si="2">$D$3-D5</f>
+      <c r="C5" s="43">
+        <f t="shared" ref="C5:C9" si="4">$D$3-D5</f>
         <v>3921.5686274509935</v>
       </c>
-      <c r="D5" s="51">
-        <f>$F$2/E5</f>
+      <c r="D5" s="44">
+        <f t="shared" si="1"/>
         <v>196078.43137254901</v>
       </c>
       <c r="E5" s="2">
@@ -5850,35 +5859,35 @@
       <c r="F5" s="3">
         <v>100000000</v>
       </c>
-      <c r="G5" s="49">
-        <f t="shared" ref="G5:G9" si="3">D5/E5</f>
+      <c r="G5" s="42">
+        <f t="shared" ref="G5:G9" si="5">D5/E5</f>
         <v>384.46751249519411</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="K5">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="L5" s="41">
+        <f t="shared" si="3"/>
+        <v>2921.5686274509935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="42">
         <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="L5" s="48">
-        <f t="shared" si="1"/>
-        <v>2921.5686274509935</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="49">
-        <f>C6/B6</f>
         <v>333.33333333333343</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6" s="50">
-        <f t="shared" si="2"/>
+      <c r="C6" s="43">
+        <f t="shared" si="4"/>
         <v>33333.333333333343</v>
       </c>
-      <c r="D6" s="51">
-        <f>$F$2/E6</f>
+      <c r="D6" s="44">
+        <f t="shared" si="1"/>
         <v>166666.66666666666</v>
       </c>
       <c r="E6" s="2">
@@ -5887,35 +5896,35 @@
       <c r="F6" s="3">
         <v>100000000</v>
       </c>
-      <c r="G6" s="49">
-        <f t="shared" si="3"/>
+      <c r="G6" s="42">
+        <f t="shared" si="5"/>
         <v>277.77777777777777</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="K6">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="L6" s="41">
+        <f t="shared" si="3"/>
+        <v>23333.333333333343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="42">
         <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="L6" s="48">
-        <f t="shared" si="1"/>
-        <v>23333.333333333343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="49">
-        <f>C7/B7</f>
         <v>285.71428571428567</v>
       </c>
       <c r="B7" s="2">
         <v>200</v>
       </c>
-      <c r="C7" s="50">
-        <f t="shared" si="2"/>
+      <c r="C7" s="43">
+        <f t="shared" si="4"/>
         <v>57142.85714285713</v>
       </c>
-      <c r="D7" s="51">
-        <f>$F$2/E7</f>
+      <c r="D7" s="44">
+        <f t="shared" si="1"/>
         <v>142857.14285714287</v>
       </c>
       <c r="E7" s="2">
@@ -5924,35 +5933,35 @@
       <c r="F7" s="3">
         <v>100000000</v>
       </c>
-      <c r="G7" s="49">
-        <f t="shared" si="3"/>
+      <c r="G7" s="42">
+        <f t="shared" si="5"/>
         <v>204.08163265306123</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="K7">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="L7" s="41">
+        <f t="shared" si="3"/>
+        <v>37142.85714285713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="42">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="L7" s="48">
-        <f t="shared" si="1"/>
-        <v>37142.85714285713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="49">
-        <f>C8/B8</f>
         <v>200</v>
       </c>
       <c r="B8" s="2">
         <v>500</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="44">
         <f>$D$3-D8</f>
         <v>100000</v>
       </c>
-      <c r="D8" s="51">
-        <f>$F$2/E8</f>
+      <c r="D8" s="44">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="E8" s="2">
@@ -5961,8 +5970,8 @@
       <c r="F8" s="3">
         <v>100000000</v>
       </c>
-      <c r="G8" s="49">
-        <f t="shared" si="3"/>
+      <c r="G8" s="42">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H8" s="2"/>
@@ -5974,190 +5983,190 @@
         <f>B8*100</f>
         <v>50000</v>
       </c>
-      <c r="L8" s="48">
+      <c r="L8" s="41">
         <f>C8-K8</f>
         <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="55">
-        <f>C9/B9</f>
+      <c r="A9" s="48">
+        <f t="shared" si="0"/>
         <v>181.81818181818181</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="45">
         <v>600</v>
       </c>
-      <c r="C9" s="54">
-        <f t="shared" si="2"/>
+      <c r="C9" s="47">
+        <f t="shared" si="4"/>
         <v>109090.90909090909</v>
       </c>
-      <c r="D9" s="53">
-        <f>$F$2/E9</f>
+      <c r="D9" s="46">
+        <f t="shared" si="1"/>
         <v>90909.090909090912</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="45">
         <v>1100</v>
       </c>
       <c r="F9" s="3">
         <v>100000000</v>
       </c>
-      <c r="G9" s="55">
-        <f t="shared" si="3"/>
+      <c r="G9" s="48">
+        <f t="shared" si="5"/>
         <v>82.644628099173559</v>
       </c>
       <c r="K9">
         <f>B9*100</f>
         <v>60000</v>
       </c>
-      <c r="L9" s="48">
+      <c r="L9" s="41">
         <f>C9-K9</f>
         <v>49090.909090909088</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6167,4 +6176,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB19B31-D30F-4863-955C-99569444CE4E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/滑点理解图表格.xlsx
+++ b/滑点理解图表格.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SolidityProjectGit\solidityTest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9261121E-6132-4D73-9B35-F9448FF4FF71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="456" firstSheet="2" activeTab="7" xr2:uid="{05AAACF9-C555-44C3-9157-138E1CF9061B}"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="456" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="滑点计算" sheetId="1" r:id="rId1"/>
@@ -22,90 +16,252 @@
     <sheet name="套利数据演算" sheetId="7" r:id="rId7"/>
     <sheet name="合约检测checklist" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="126">
   <si>
     <t>购买ETH数量 （ΔY）</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ETH</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>价格</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (DAI)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（交易时）</t>
+    </r>
+  </si>
+  <si>
+    <t>滑点</t>
+  </si>
+  <si>
+    <t>滑点差值</t>
+  </si>
+  <si>
+    <t>(实际消耗-理论消耗)/理论消耗</t>
+  </si>
+  <si>
+    <t>实际消耗-理论消耗</t>
+  </si>
+  <si>
+    <t>理论消耗</t>
+  </si>
+  <si>
+    <t>购买时消耗的DAI （ΔX）</t>
+  </si>
+  <si>
+    <t>DAI流动量 （x）</t>
+  </si>
+  <si>
+    <t>ETH流动量 （y）</t>
+  </si>
+  <si>
+    <t>常数 （K）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x/y(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兑价</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>alpha （ΔX/x）</t>
+  </si>
+  <si>
+    <t>beta （ΔY/y）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>alpha</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>beta</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是之前的兑换前的流动量</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 控制输入为整数</t>
+  </si>
+  <si>
     <t>单个ETH价格 (DAI)</t>
   </si>
   <si>
-    <t>滑点</t>
-  </si>
-  <si>
-    <t>购买时消耗的DAI （ΔX）</t>
-  </si>
-  <si>
-    <t>DAI流动量 （x）</t>
-  </si>
-  <si>
-    <t>ETH流动量 （y）</t>
-  </si>
-  <si>
-    <t>常数 （K）</t>
+    <t>(实际产出-理论产出)/理论产出</t>
+  </si>
+  <si>
+    <t>实际产出-理论产出)</t>
+  </si>
+  <si>
+    <t>理论产出</t>
   </si>
   <si>
     <t>x/y</t>
   </si>
   <si>
-    <t>alpha （ΔX/x）</t>
-  </si>
-  <si>
-    <t>beta （ΔY/y）</t>
-  </si>
-  <si>
-    <t>理论消耗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑点差值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际消耗-理论消耗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(实际消耗-理论消耗)/理论消耗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 控制输入为整数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(实际产出-理论产出)/理论产出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>x/y(</t>
-    </r>
     <r>
       <rPr>
         <b/>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>alpha</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兑价</t>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
     </r>
     <r>
       <rPr>
@@ -113,752 +269,700 @@
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>beta</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是之前的兑换前的流动量</t>
+    </r>
+  </si>
+  <si>
+    <t>保证金</t>
+  </si>
+  <si>
+    <t>杠杆</t>
+  </si>
+  <si>
+    <t>怎么看</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收益 </t>
+  </si>
+  <si>
+    <t>收益率</t>
+  </si>
+  <si>
+    <t>x10</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>impermanant loss的比率与当前价格变化的关系，O列表示资金刚放入流动池的情况，O-&gt;H表示价格上涨时impermanent loss的变化，A&lt;-O表示价格下跌时impermanent loss的变化。</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ETH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前后价格比</t>
+    </r>
+  </si>
+  <si>
+    <t>p1/p0</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e(ETH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单个</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+  </si>
+  <si>
+    <t>DAI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ETH</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>价格</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <charset val="134"/>
+      </rPr>
+      <t>t(DAI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (DAI)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>p(DAI/ETH)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DAI</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（交易时）</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际产出-理论产出)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论产出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>保证金</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>杠杆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>t1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">收益 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>x10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么看</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>p1/p0</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <r>
-      <t>e(ETH</t>
+        <charset val="134"/>
+      </rPr>
+      <t>结算</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>v0(hold</t>
     </r>
     <r>
       <rPr>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数量</t>
+        <charset val="134"/>
+      </rPr>
+      <t>时资金</t>
     </r>
     <r>
       <rPr>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAI</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t(DAI</t>
+  </si>
+  <si>
+    <t>DAI结算</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>v1(</t>
     </r>
     <r>
       <rPr>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数量</t>
+        <charset val="134"/>
+      </rPr>
+      <t>放入流动池后的资金</t>
     </r>
     <r>
       <rPr>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>k</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p(DAI/ETH)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>v0(hold</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时资金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DAI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结算</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>impermanent loss</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>v1(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>放入流动池后的资金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAI结算</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>impermanant loss的比率与当前价格变化的关系，O列表示资金刚放入流动池的情况，O-&gt;H表示价格上涨时impermanent loss的变化，A&lt;-O表示价格下跌时impermanent loss的变化。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>L(v1/v0)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ETH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前后价格比</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>alpha</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>beta</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是之前的兑换前的流动量</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>购买时消耗的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">DAI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ΔX</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DAI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流动量</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DAI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计价流动量</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>x2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>购买时计价的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">DAI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计算</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>k</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>利差</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1/p0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总资产（DAI计价）原来v0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总资产（DAI计价）v1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1/v0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>根据上面数据画出的函数图像，蓝色的曲线是不包含手续费的，黄色的图像包含手续费，红色的线条是我手动添加上去的为了方便说明。
 先看蓝色曲线，当不计算手续费收益的情况下，无论币价上涨或下跌，流动性提供者100%会有损失。
 再看黄色的曲线，由于黄色曲线是计算手续费收益的，所以只要币价在一个范围内波动，流动性提供者可以稳赚手续费收益。
 PS:这里手续费10% 应该是 池中手续费占比</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产（DAI计价）v1</t>
+  </si>
+  <si>
+    <t>总资产（DAI计价）原来v0</t>
+  </si>
+  <si>
+    <t>利差</t>
+  </si>
+  <si>
+    <t>v1/v0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买时消耗的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DAI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ΔX</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买时计价的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DAI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Calibri"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DAI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计价流动量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DAI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流动量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>k</t>
+    </r>
+  </si>
+  <si>
+    <t>50%的手续费</t>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>y1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>fee=L2-L2</t>
   </si>
   <si>
     <t>流动性的百分比</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fee=L2-L2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x^（x的增量）</t>
+  </si>
+  <si>
+    <t>y^（y的增量）</t>
+  </si>
+  <si>
+    <t>x^+y^</t>
+  </si>
+  <si>
+    <t>流动性的百分比(fee/L2)</t>
+  </si>
+  <si>
+    <t>x^</t>
   </si>
   <si>
     <t>y^</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>x^</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>x^+y^</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>流动性的百分比(fee/L2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>alpha</t>
-    </r>
+  </si>
+  <si>
+    <t>L(t)</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>p[user]</t>
+  </si>
+  <si>
+    <t>t=7</t>
+  </si>
+  <si>
+    <t>t=9</t>
+  </si>
+  <si>
+    <t>s+=R/100*(9-7)</t>
+  </si>
+  <si>
+    <t>t=12</t>
+  </si>
+  <si>
+    <t>s+=R/200*(12-9)</t>
+  </si>
+  <si>
+    <t>t=14</t>
+  </si>
+  <si>
+    <t>s+=R/300(14-12)</t>
+  </si>
+  <si>
+    <t>t=18</t>
+  </si>
+  <si>
+    <t>s+=R/100*(18-14)</t>
+  </si>
+  <si>
+    <t>因为在t=12时小黄的代币数量变化了，所以要计算出变化前的收益。并且更新p[小黄]为s=R/100*(9-7)+R/200*(12-9)</t>
+  </si>
+  <si>
+    <t>小黄</t>
+  </si>
+  <si>
+    <t>reward=(R/100*(9-7)+R/200*(12-9)-p[user])*100=3.5R</t>
+  </si>
+  <si>
+    <t>p[user]取0</t>
+  </si>
+  <si>
+    <t>reward=(R/300(14-12)+R/200*(12-9)+R/100*(9-7)-p[user])*200+reward=4.83R（4+5/6）</t>
+  </si>
+  <si>
+    <t>p[user]取R/100*(9-7)+R/200*(12-9)</t>
+  </si>
+  <si>
+    <t>大熊</t>
+  </si>
+  <si>
+    <t>reward=(R/100*(18-14)+R/300(14-12)+R/200*(12-9)+R/100*(9-7)-p[user])*100=6.17R(6+1/6)</t>
+  </si>
+  <si>
+    <t>p[user]取R/100*(9-7)</t>
+  </si>
+  <si>
+    <t>单个ETH价格 (DAI)（交易时）</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
+        <charset val="134"/>
+      </rPr>
+      <t>输入的</t>
     </r>
     <r>
       <rPr>
@@ -866,9 +970,9 @@
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>beta</t>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ETH </t>
     </r>
     <r>
       <rPr>
@@ -876,20 +980,29 @@
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
+        <rFont val="Calibri"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
     </r>
     <r>
       <rPr>
@@ -897,396 +1010,202 @@
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>y</t>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DAI </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ΔX</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>x/y(兑价)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是之前的兑换前的流动量</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50%的手续费</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>x^（x的增量）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>y^（y的增量）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>t=7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L(t)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p[user]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>t=9</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>t=12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>t=14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>t=18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>s+=R/100*(9-7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>s+=R/200*(12-9)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>s+=R/300(14-12)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>s+=R/100*(18-14)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黄</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward=(R/100*(9-7)+R/200*(12-9)-p[user])*100=3.5R</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p[user]取0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p[user]取R/100*(9-7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为在t=12时小黄的代币数量变化了，所以要计算出变化前的收益。并且更新p[小黄]为s=R/100*(9-7)+R/200*(12-9)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p[user]取R/100*(9-7)+R/200*(12-9)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>大熊</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward=(R/300(14-12)+R/200*(12-9)+R/100*(9-7)-p[user])*200+reward=4.83R（4+5/6）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward=(R/100*(18-14)+R/300(14-12)+R/200*(12-9)+R/100*(9-7)-p[user])*100=6.17R(6+1/6)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个ETH价格 (DAI)（交易时）</t>
-  </si>
-  <si>
-    <t>x/y(兑价)</t>
+        <charset val="134"/>
+      </rPr>
+      <t>投入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成本</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DAI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>利润</t>
   </si>
   <si>
     <t>原正常价格</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>拉升ETH价格</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投入</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">DAI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ΔX</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>100,000DAI</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输入的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ETH </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>500ETH兑换100,000DAI</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成本</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DAI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>利润</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、正常拉高交易池价格再进行兑换 这种方法是亏本的。
 2、bzx协议第一次攻击事件中 关键点为 使用1300ETH就拉高了BTC的价格（本应使用5637.62ETH拉高）PS：当时uniswap是V1
 3、分析认为 像这种拉高拉低行为后 往往会借助其他产品（以此时价格进行计算）进行获利操作，也就是说价格操控的目的是将异常的价格喂价给其他产品。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用问题</t>
   </si>
   <si>
     <t>发币集中</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件打印</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要操作事件打印</t>
+  </si>
+  <si>
+    <t>2022.11.22新增</t>
+  </si>
+  <si>
+    <t>随机数</t>
+  </si>
+  <si>
+    <t>代码逻辑</t>
+  </si>
+  <si>
+    <t>冗余代码</t>
+  </si>
+  <si>
+    <t>函数命名规范</t>
+  </si>
+  <si>
+    <t>代币发售定价过高</t>
+  </si>
+  <si>
+    <t>本地版本编译错误（一般是有用测试框架的）</t>
+  </si>
+  <si>
+    <t>多余代币或者平台币锁在合约无法取出</t>
+  </si>
+  <si>
+    <t>代码使用问题</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="14">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.000%"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.000_ "/>
-    <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    <numFmt numFmtId="183" formatCode="0.0000%"/>
-    <numFmt numFmtId="184" formatCode="0_ "/>
-    <numFmt numFmtId="185" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000%"/>
+    <numFmt numFmtId="180" formatCode="0.000%"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.000_ "/>
+    <numFmt numFmtId="183" formatCode="0.0000_ "/>
+    <numFmt numFmtId="184" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
+    <numFmt numFmtId="185" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1295,19 +1214,209 @@
       <sz val="9.6"/>
       <color rgb="FF555555"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.6"/>
       <color rgb="FF555555"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="MJXc-TeX-math-I"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.6"/>
+      <color rgb="FF555555"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF555555"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1315,88 +1424,29 @@
       <sz val="9.6"/>
       <color rgb="FF555555"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9.6"/>
       <color rgb="FF555555"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
       <sz val="9.6"/>
       <color rgb="FF555555"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9.6"/>
-      <color rgb="FF555555"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF4D4D4D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.6"/>
-      <color rgb="FF555555"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.6"/>
-      <color rgb="FF555555"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="MJXc-TeX-math-I"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1410,8 +1460,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1421,16 +1657,75 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1438,214 +1733,280 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1653,29 +2014,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="40" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="4" borderId="1" xfId="40" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="4" borderId="1" xfId="40" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="2" builtinId="6"/>
-    <cellStyle name="着色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -1691,27 +2191,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6351B0FB-1960-4B1D-A91A-8BAED34E9EAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9352016" y="1610843"/>
-          <a:ext cx="5519239" cy="3578881"/>
+          <a:off x="9345930" y="1603375"/>
+          <a:ext cx="5514975" cy="3567430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1724,7 +2218,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1740,27 +2234,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3FBF3B-83C4-4C9D-BA1C-26B0B4B3EEED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7029450" y="316160"/>
-          <a:ext cx="8387930" cy="4314346"/>
+          <a:off x="7023100" y="312420"/>
+          <a:ext cx="8387715" cy="4238625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1784,27 +2272,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EAE468-2E45-4105-A8AE-2F696E93974F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="688731" y="183174"/>
-          <a:ext cx="805189" cy="175846"/>
+          <a:off x="685800" y="180975"/>
+          <a:ext cx="805180" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1828,27 +2310,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A600EAE-F6F3-4137-B923-884C6047DD39}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="688731" y="366346"/>
-          <a:ext cx="822338" cy="175846"/>
+          <a:off x="685800" y="361950"/>
+          <a:ext cx="822325" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1872,27 +2348,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{372FC28C-9C80-4E51-A2E0-98C9949E02F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="688731" y="549519"/>
-          <a:ext cx="805189" cy="175846"/>
+          <a:off x="685800" y="542925"/>
+          <a:ext cx="805180" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1916,27 +2386,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188509AE-A419-4E16-808C-BE0BEA9E9BFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="923193"/>
-          <a:ext cx="820615" cy="167653"/>
+          <a:off x="666750" y="911860"/>
+          <a:ext cx="817245" cy="167640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1960,27 +2424,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD49B34C-3EF5-47B0-A650-84D2D0291CF0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="669681" y="719992"/>
-          <a:ext cx="841619" cy="182206"/>
+          <a:off x="669290" y="709930"/>
+          <a:ext cx="842010" cy="179070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2035,7 +2493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2068,26 +2526,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2120,23 +2561,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2278,82 +2702,77 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7CF3E5-7D34-4A51-979D-A892FCDB2E15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="14" customWidth="1"/>
-    <col min="6" max="7" width="14.5" style="14" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="47" customWidth="1"/>
+    <col min="6" max="7" width="14.5" style="47" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="13" max="14" width="10.875" customWidth="1"/>
     <col min="16" max="16" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="42.75">
+    <row r="1" ht="42.75" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>17</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="2"/>
     </row>
@@ -2361,10 +2780,10 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3">
         <v>100000</v>
@@ -2389,29 +2808,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>100.10010010000001</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="D3" s="7">
+        <v>100.1001001</v>
+      </c>
+      <c r="C3" s="39">
+        <v>0.001</v>
+      </c>
+      <c r="D3" s="49">
         <f t="shared" ref="D3:D10" si="0">H3-A3*100</f>
-        <v>0.10010010000000591</v>
-      </c>
-      <c r="E3" s="13">
+        <v>0.100100100000006</v>
+      </c>
+      <c r="E3" s="36">
         <f>(H3-A3*100)/(A3*100)</f>
-        <v>1.001001000000059E-3</v>
-      </c>
-      <c r="F3" s="13">
+        <v>0.00100100100000006</v>
+      </c>
+      <c r="F3" s="36">
         <f>(H3-A3*100)</f>
-        <v>0.10010010000000591</v>
-      </c>
-      <c r="G3" s="17">
+        <v>0.100100100000006</v>
+      </c>
+      <c r="G3" s="50">
         <f>A3*100</f>
         <v>100</v>
       </c>
       <c r="H3" s="3">
-        <v>100.10010010000001</v>
+        <v>100.1001001</v>
       </c>
       <c r="I3" s="3">
         <v>100100.1001</v>
@@ -2426,10 +2845,10 @@
         <v>100.2003004</v>
       </c>
       <c r="M3" s="3">
-        <v>1.0010010000000001E-3</v>
+        <v>0.001001001</v>
       </c>
       <c r="N3" s="3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -2440,24 +2859,24 @@
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>101.01010100000001</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.01E-2</v>
-      </c>
-      <c r="D4" s="7">
+        <v>101.010101</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0.0101</v>
+      </c>
+      <c r="D4" s="49">
         <f t="shared" si="0"/>
-        <v>10.101009999999974</v>
-      </c>
-      <c r="E4" s="13">
+        <v>10.10101</v>
+      </c>
+      <c r="E4" s="36">
         <f>(H4-A4*100)/(A4*100)</f>
-        <v>1.0101009999999975E-2</v>
-      </c>
-      <c r="F4" s="13">
+        <v>0.01010101</v>
+      </c>
+      <c r="F4" s="36">
         <f t="shared" ref="F4:F10" si="1">(H4-A4*100)</f>
-        <v>10.101009999999974</v>
-      </c>
-      <c r="G4" s="17">
+        <v>10.10101</v>
+      </c>
+      <c r="G4" s="50">
         <f t="shared" ref="G4:G10" si="2">A4*100</f>
         <v>1000</v>
       </c>
@@ -2477,7 +2896,7 @@
         <v>102.0304051</v>
       </c>
       <c r="M4" s="3">
-        <v>1.0101010000000001E-2</v>
+        <v>0.01010101</v>
       </c>
       <c r="N4" s="3">
         <v>0.01</v>
@@ -2493,30 +2912,30 @@
       <c r="B5" s="3">
         <v>105.2631579</v>
       </c>
-      <c r="C5" s="4">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="39">
+        <v>0.0526</v>
+      </c>
+      <c r="D5" s="49">
         <f t="shared" si="0"/>
-        <v>263.15789500000028</v>
-      </c>
-      <c r="E5" s="13">
+        <v>263.157895</v>
+      </c>
+      <c r="E5" s="36">
         <f>(H5-A5*100)/(A5*100)</f>
-        <v>5.2631579000000053E-2</v>
-      </c>
-      <c r="F5" s="13">
+        <v>0.0526315790000001</v>
+      </c>
+      <c r="F5" s="36">
         <f t="shared" si="1"/>
-        <v>263.15789500000028</v>
-      </c>
-      <c r="G5" s="17">
+        <v>263.157895</v>
+      </c>
+      <c r="G5" s="50">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
       <c r="H5" s="3">
-        <v>5263.1578950000003</v>
+        <v>5263.157895</v>
       </c>
       <c r="I5" s="3">
-        <v>105263.15790000001</v>
+        <v>105263.1579</v>
       </c>
       <c r="J5" s="3">
         <v>950</v>
@@ -2528,7 +2947,7 @@
         <v>110.8033241</v>
       </c>
       <c r="M5" s="3">
-        <v>5.2631578999999998E-2</v>
+        <v>0.052631579</v>
       </c>
       <c r="N5" s="3">
         <v>0.05</v>
@@ -2544,22 +2963,22 @@
       <c r="B6" s="3">
         <v>111.1111111</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="39">
         <v>0.1111</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="49">
         <f t="shared" si="0"/>
-        <v>1111.1111099999998</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" ref="E6:E9" si="3">(H6-A6*100)/(A6*100)</f>
-        <v>0.11111111099999998</v>
-      </c>
-      <c r="F6" s="13">
+        <v>1111.11111</v>
+      </c>
+      <c r="E6" s="36">
+        <f t="shared" ref="E6:E10" si="3">(H6-A6*100)/(A6*100)</f>
+        <v>0.111111111</v>
+      </c>
+      <c r="F6" s="36">
         <f t="shared" si="1"/>
-        <v>1111.1111099999998</v>
-      </c>
-      <c r="G6" s="17">
+        <v>1111.11111</v>
+      </c>
+      <c r="G6" s="50">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
@@ -2567,7 +2986,7 @@
         <v>11111.11111</v>
       </c>
       <c r="I6" s="3">
-        <v>111111.11109999999</v>
+        <v>111111.1111</v>
       </c>
       <c r="J6" s="3">
         <v>900</v>
@@ -2576,7 +2995,7 @@
         <v>100000000</v>
       </c>
       <c r="L6" s="3">
-        <v>123.45679010000001</v>
+        <v>123.4567901</v>
       </c>
       <c r="M6" s="3">
         <v>0.111111111</v>
@@ -2595,29 +3014,29 @@
       <c r="B7" s="3">
         <v>125</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="39">
         <v>0.25</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="49">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="36">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="50">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="50">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="4">
         <v>25000</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="4">
         <v>125000</v>
       </c>
       <c r="J7" s="3">
@@ -2646,29 +3065,29 @@
       <c r="B8" s="3">
         <v>200</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="39">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="49">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="36">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="50">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="50">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="4">
         <v>100000</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="4">
         <v>200000</v>
       </c>
       <c r="J8" s="3">
@@ -2697,29 +3116,29 @@
       <c r="B9" s="3">
         <v>500</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="39">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="49">
         <f t="shared" si="0"/>
         <v>320000</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="36">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="50">
         <f t="shared" si="1"/>
         <v>320000</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="50">
         <f t="shared" si="2"/>
         <v>80000</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="4">
         <v>400000</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="4">
         <v>500000</v>
       </c>
       <c r="J9" s="3">
@@ -2748,29 +3167,29 @@
       <c r="B10" s="3">
         <v>100000</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="39">
         <v>999</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="49">
         <f t="shared" si="0"/>
         <v>99800100</v>
       </c>
-      <c r="E10" s="13">
-        <f>(H10-A10*100)/(A10*100)</f>
+      <c r="E10" s="36">
+        <f t="shared" si="3"/>
         <v>999</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="50">
         <f t="shared" si="1"/>
         <v>99800100</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="50">
         <f t="shared" si="2"/>
         <v>99900</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="4">
         <v>99900000</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="4">
         <v>100000000</v>
       </c>
       <c r="J10" s="3">
@@ -2792,69 +3211,69 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="14" spans="1:17">
-      <c r="H14" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1"/>
-    <row r="16" spans="1:17" ht="49.5">
+    <row r="14" spans="8:8">
+      <c r="H14" s="51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1"/>
+    <row r="16" ht="49.5" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="15" t="s">
+      <c r="D16" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="53" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3">
         <v>100000</v>
@@ -2877,29 +3296,29 @@
     <row r="18" spans="1:17">
       <c r="A18" s="3">
         <f>1000-J18</f>
-        <v>0.99900099900105488</v>
+        <v>0.999000999001055</v>
       </c>
       <c r="B18" s="3">
         <f>H18/A18</f>
-        <v>100.0999999999944</v>
-      </c>
-      <c r="C18" s="18">
+        <v>100.099999999994</v>
+      </c>
+      <c r="C18" s="37">
         <f>E18</f>
-        <v>-9.9900099894512095E-4</v>
-      </c>
-      <c r="D18" s="7">
+        <v>-0.000999000998945121</v>
+      </c>
+      <c r="D18" s="49">
         <f>H18/100-A18</f>
-        <v>9.9900099894512095E-4</v>
-      </c>
-      <c r="E18" s="13">
+        <v>0.000999000998945121</v>
+      </c>
+      <c r="E18" s="36">
         <f t="shared" ref="E18:E25" si="4">(A18-H18/100)/(H18/100)</f>
-        <v>-9.9900099894512095E-4</v>
-      </c>
-      <c r="F18" s="13">
+        <v>-0.000999000998945121</v>
+      </c>
+      <c r="F18" s="36">
         <f>A18-H18/100</f>
-        <v>-9.9900099894512095E-4</v>
-      </c>
-      <c r="G18" s="17">
+        <v>-0.000999000998945121</v>
+      </c>
+      <c r="G18" s="50">
         <f>H18/100</f>
         <v>1</v>
       </c>
@@ -2911,22 +3330,22 @@
       </c>
       <c r="J18" s="3">
         <f>K18/I18</f>
-        <v>999.00099900099895</v>
+        <v>999.000999000999</v>
       </c>
       <c r="K18" s="3">
         <v>100000000</v>
       </c>
       <c r="L18" s="3">
         <f>I18/J18</f>
-        <v>100.20010000000001</v>
+        <v>100.2001</v>
       </c>
       <c r="M18" s="3">
         <f>H18/100000</f>
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="N18" s="3">
         <f>A18/1000</f>
-        <v>9.9900099900105494E-4</v>
+        <v>0.000999000999001055</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -2935,29 +3354,29 @@
     <row r="19" spans="1:17">
       <c r="A19" s="3">
         <f t="shared" ref="A19:A25" si="5">1000-J19</f>
-        <v>9.9009900990098458</v>
+        <v>9.90099009900985</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" ref="B19:B25" si="6">H19/A19</f>
-        <v>101.00000000000057</v>
-      </c>
-      <c r="C19" s="18">
+        <v>101.000000000001</v>
+      </c>
+      <c r="C19" s="37">
         <f>E19</f>
-        <v>-9.9009900990154158E-3</v>
-      </c>
-      <c r="D19" s="7">
+        <v>-0.00990099009901542</v>
+      </c>
+      <c r="D19" s="49">
         <f t="shared" ref="D19:D25" si="7">H19/100-A19</f>
-        <v>9.9009900990154165E-2</v>
-      </c>
-      <c r="E19" s="13">
+        <v>0.0990099009901542</v>
+      </c>
+      <c r="E19" s="36">
         <f t="shared" si="4"/>
-        <v>-9.9009900990154158E-3</v>
-      </c>
-      <c r="F19" s="13">
+        <v>-0.00990099009901542</v>
+      </c>
+      <c r="F19" s="36">
         <f t="shared" ref="F19:F25" si="8">A19-H19/100</f>
-        <v>-9.9009900990154165E-2</v>
-      </c>
-      <c r="G19" s="17">
+        <v>-0.0990099009901542</v>
+      </c>
+      <c r="G19" s="50">
         <f t="shared" ref="G19:G25" si="9">H19/100</f>
         <v>10</v>
       </c>
@@ -2969,14 +3388,14 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" ref="J19:J25" si="10">K19/I19</f>
-        <v>990.09900990099015</v>
+        <v>990.09900990099</v>
       </c>
       <c r="K19" s="3">
         <v>100000000</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" ref="L19:L25" si="11">I19/J19</f>
-        <v>102.00999999999999</v>
+        <v>102.01</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" ref="M19:M25" si="12">H19/100000</f>
@@ -2984,7 +3403,7 @@
       </c>
       <c r="N19" s="3">
         <f t="shared" ref="N19:N25" si="13">A19/1000</f>
-        <v>9.9009900990098456E-3</v>
+        <v>0.00990099009900985</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -2993,29 +3412,29 @@
     <row r="20" spans="1:17">
       <c r="A20" s="3">
         <f t="shared" si="5"/>
-        <v>47.619047619047592</v>
+        <v>47.6190476190476</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="6"/>
-        <v>105.00000000000006</v>
-      </c>
-      <c r="C20" s="18">
+        <v>105</v>
+      </c>
+      <c r="C20" s="37">
         <f t="shared" ref="C20:C25" si="14">E20</f>
-        <v>-4.7619047619048158E-2</v>
-      </c>
-      <c r="D20" s="7">
+        <v>-0.0476190476190482</v>
+      </c>
+      <c r="D20" s="49">
         <f t="shared" si="7"/>
-        <v>2.380952380952408</v>
-      </c>
-      <c r="E20" s="13">
+        <v>2.38095238095241</v>
+      </c>
+      <c r="E20" s="36">
         <f t="shared" si="4"/>
-        <v>-4.7619047619048158E-2</v>
-      </c>
-      <c r="F20" s="13">
+        <v>-0.0476190476190482</v>
+      </c>
+      <c r="F20" s="36">
         <f t="shared" si="8"/>
-        <v>-2.380952380952408</v>
-      </c>
-      <c r="G20" s="17">
+        <v>-2.38095238095241</v>
+      </c>
+      <c r="G20" s="50">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
@@ -3027,7 +3446,7 @@
       </c>
       <c r="J20" s="3">
         <f t="shared" si="10"/>
-        <v>952.38095238095241</v>
+        <v>952.380952380952</v>
       </c>
       <c r="K20" s="3">
         <v>100000000</v>
@@ -3042,7 +3461,7 @@
       </c>
       <c r="N20" s="3">
         <f t="shared" si="13"/>
-        <v>4.7619047619047589E-2</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -3051,29 +3470,29 @@
     <row r="21" spans="1:17">
       <c r="A21" s="3">
         <f t="shared" si="5"/>
-        <v>90.909090909090878</v>
+        <v>90.9090909090909</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="6"/>
-        <v>110.00000000000004</v>
-      </c>
-      <c r="C21" s="18">
+        <v>110</v>
+      </c>
+      <c r="C21" s="37">
         <f t="shared" si="14"/>
-        <v>-9.0909090909091217E-2</v>
-      </c>
-      <c r="D21" s="7">
+        <v>-0.0909090909090912</v>
+      </c>
+      <c r="D21" s="49">
         <f t="shared" si="7"/>
-        <v>9.0909090909091219</v>
-      </c>
-      <c r="E21" s="13">
+        <v>9.09090909090912</v>
+      </c>
+      <c r="E21" s="36">
         <f t="shared" si="4"/>
-        <v>-9.0909090909091217E-2</v>
-      </c>
-      <c r="F21" s="13">
+        <v>-0.0909090909090912</v>
+      </c>
+      <c r="F21" s="36">
         <f t="shared" si="8"/>
-        <v>-9.0909090909091219</v>
-      </c>
-      <c r="G21" s="17">
+        <v>-9.09090909090912</v>
+      </c>
+      <c r="G21" s="50">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
@@ -3085,7 +3504,7 @@
       </c>
       <c r="J21" s="3">
         <f t="shared" si="10"/>
-        <v>909.09090909090912</v>
+        <v>909.090909090909</v>
       </c>
       <c r="K21" s="3">
         <v>100000000</v>
@@ -3100,7 +3519,7 @@
       </c>
       <c r="N21" s="3">
         <f t="shared" si="13"/>
-        <v>9.0909090909090884E-2</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -3115,23 +3534,23 @@
         <f t="shared" si="6"/>
         <v>125</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="37">
         <f t="shared" si="14"/>
         <v>-0.2</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="49">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="36">
         <f t="shared" si="4"/>
         <v>-0.2</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="50">
         <f t="shared" si="8"/>
         <v>-50</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="50">
         <f t="shared" si="9"/>
         <v>250</v>
       </c>
@@ -3173,23 +3592,23 @@
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="37">
         <f t="shared" si="14"/>
         <v>-0.5</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="49">
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="36">
         <f t="shared" si="4"/>
         <v>-0.5</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="50">
         <f t="shared" si="8"/>
         <v>-500</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="50">
         <f t="shared" si="9"/>
         <v>1000</v>
       </c>
@@ -3231,23 +3650,23 @@
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="37">
         <f t="shared" si="14"/>
         <v>-0.8</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="49">
         <f t="shared" si="7"/>
         <v>3200</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="36">
         <f t="shared" si="4"/>
         <v>-0.8</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="50">
         <f t="shared" si="8"/>
         <v>-3200</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="50">
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
@@ -3289,23 +3708,23 @@
         <f t="shared" si="6"/>
         <v>100000</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="37">
         <f t="shared" si="14"/>
         <v>-0.999</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="49">
         <f t="shared" si="7"/>
         <v>998001</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="36">
         <f t="shared" si="4"/>
         <v>-0.999</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="50">
         <f t="shared" si="8"/>
         <v>-998001</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="50">
         <f t="shared" si="9"/>
         <v>999000</v>
       </c>
@@ -3339,43 +3758,44 @@
       <c r="Q25" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240018BB-9ACC-434B-94E7-2812DA578A23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="127" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3383,10 +3803,10 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -3397,11 +3817,11 @@
       <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="4:7">
       <c r="D3">
         <v>1000</v>
       </c>
@@ -3411,13 +3831,13 @@
       <c r="F3">
         <v>-100</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="45">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1000</v>
@@ -3428,11 +3848,11 @@
       <c r="F4">
         <v>-100</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="45">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="4:7">
       <c r="D5">
         <v>1000</v>
       </c>
@@ -3442,7 +3862,7 @@
       <c r="F5">
         <v>100</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="45">
         <v>1</v>
       </c>
     </row>
@@ -3451,10 +3871,10 @@
         <v>1000</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
       </c>
       <c r="D7">
         <v>1000</v>
@@ -3465,11 +3885,11 @@
       <c r="F7">
         <v>100</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="45">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="4:7">
       <c r="D8">
         <v>1000</v>
       </c>
@@ -3479,13 +3899,13 @@
       <c r="F8">
         <v>-100</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="45">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="3:7">
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>1000</v>
@@ -3496,11 +3916,11 @@
       <c r="F9">
         <v>-100</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="45">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="4:7">
       <c r="D10">
         <v>1000</v>
       </c>
@@ -3510,124 +3930,125 @@
       <c r="F10">
         <v>100</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="45">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1DAE4A-5906-4718-9918-5A702D8FDDAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+    <row r="1" ht="24.75" customHeight="1" spans="1:12">
+      <c r="A1" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="24.75">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" ht="24.75" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="4">
+        <v>44</v>
+      </c>
+      <c r="C3" s="39">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="39">
         <v>0.25</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="39">
         <v>0.503</v>
       </c>
-      <c r="F3" s="4">
-        <v>0.75609999999999999</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="39">
+        <v>0.7561</v>
+      </c>
+      <c r="G3" s="39">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="39">
         <f>H7/100</f>
         <v>1.2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="39">
         <v>1.5625</v>
       </c>
-      <c r="J3" s="4">
-        <v>2.0407999999999999</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="J3" s="39">
+        <v>2.0408</v>
+      </c>
+      <c r="K3" s="39">
         <v>4</v>
       </c>
-      <c r="L3" s="4">
-        <v>4.9382999999999999</v>
+      <c r="L3" s="39">
+        <v>4.9383</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3">
         <v>3162278</v>
@@ -3646,7 +4067,7 @@
       </c>
       <c r="H4" s="3">
         <f>SQRT(H6/H7)</f>
-        <v>91.287092917527687</v>
+        <v>91.2870929175277</v>
       </c>
       <c r="I4" s="3">
         <v>80</v>
@@ -3663,13 +4084,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3">
-        <v>0.31622773199999998</v>
+        <v>0.316227732</v>
       </c>
       <c r="D5" s="3">
         <v>5000</v>
@@ -3678,14 +4099,14 @@
         <v>7092.198582</v>
       </c>
       <c r="F5" s="3">
-        <v>8695.6521740000007</v>
+        <v>8695.652174</v>
       </c>
       <c r="G5" s="3">
         <v>10000</v>
       </c>
       <c r="H5" s="3">
         <f>SQRT(H6*H7)</f>
-        <v>10954.451150103323</v>
+        <v>10954.4511501033</v>
       </c>
       <c r="I5" s="3">
         <v>12500</v>
@@ -3703,7 +4124,7 @@
     <row r="6" spans="1:12">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3">
         <v>1000000</v>
@@ -3738,46 +4159,46 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3"/>
-      <c r="B7" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="27">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="D7" s="26">
+      <c r="B7" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="41">
+        <v>1e-7</v>
+      </c>
+      <c r="D7" s="40">
         <v>25</v>
       </c>
-      <c r="E7" s="26">
-        <v>50.299280719999999</v>
-      </c>
-      <c r="F7" s="26">
+      <c r="E7" s="40">
+        <v>50.29928072</v>
+      </c>
+      <c r="F7" s="40">
         <v>75.61436673</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="40">
         <v>100</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="40">
         <v>120</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="40">
         <v>156.25</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="40">
         <v>204.0816327</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="40">
         <v>400</v>
       </c>
-      <c r="L7" s="26">
-        <v>493.82716049999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="25.5">
+      <c r="L7" s="40">
+        <v>493.8271605</v>
+      </c>
+    </row>
+    <row r="8" ht="25.5" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3">
         <v>10000.00001</v>
@@ -3789,7 +4210,7 @@
         <v>15029.92807</v>
       </c>
       <c r="F8" s="3">
-        <v>17561.436669999999</v>
+        <v>17561.43667</v>
       </c>
       <c r="G8" s="3">
         <v>20000</v>
@@ -3802,21 +4223,21 @@
         <v>25625</v>
       </c>
       <c r="J8" s="3">
-        <v>30408.163270000001</v>
+        <v>30408.16327</v>
       </c>
       <c r="K8" s="3">
         <v>50000</v>
       </c>
       <c r="L8" s="3">
-        <v>59382.716050000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="37.5">
-      <c r="A9" s="21" t="s">
-        <v>51</v>
+        <v>59382.71605</v>
+      </c>
+    </row>
+    <row r="9" ht="37.5" spans="1:12">
+      <c r="A9" s="42" t="s">
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -3835,7 +4256,7 @@
       </c>
       <c r="H9" s="3">
         <f>H4*H7+H5</f>
-        <v>21908.902300206646</v>
+        <v>21908.9023002066</v>
       </c>
       <c r="I9" s="3">
         <v>25000</v>
@@ -3850,280 +4271,280 @@
         <v>44444</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="25.5">
+    <row r="10" ht="25.5" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="D10" s="4">
+        <v>56</v>
+      </c>
+      <c r="C10" s="39">
+        <v>0.0001</v>
+      </c>
+      <c r="D10" s="39">
         <v>0.8</v>
       </c>
-      <c r="E10" s="4">
-        <v>0.94369999999999998</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.99029999999999996</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="E10" s="39">
+        <v>0.9437</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0.9903</v>
+      </c>
+      <c r="G10" s="39">
         <v>1</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="39">
         <f>H9/H8</f>
-        <v>0.99585919546393842</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.97560000000000002</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.93959999999999999</v>
-      </c>
-      <c r="K10" s="4">
+        <v>0.995859195463938</v>
+      </c>
+      <c r="I10" s="39">
+        <v>0.9756</v>
+      </c>
+      <c r="J10" s="39">
+        <v>0.9396</v>
+      </c>
+      <c r="K10" s="39">
         <v>0.8</v>
       </c>
-      <c r="L10" s="4">
-        <v>0.74839999999999995</v>
+      <c r="L10" s="39">
+        <v>0.7484</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29">
-        <f t="shared" ref="C11:E11" si="0">C9*1.1/C8</f>
-        <v>1.0999999989000001E-4</v>
-      </c>
-      <c r="D11" s="29">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44">
+        <f t="shared" ref="C11:H11" si="0">C9*1.1/C8</f>
+        <v>0.00010999999989</v>
+      </c>
+      <c r="D11" s="44">
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="44">
         <f t="shared" si="0"/>
-        <v>1.0380888003810653</v>
-      </c>
-      <c r="F11" s="29">
-        <f>F9*1.1/F8</f>
-        <v>1.0893243166534166</v>
-      </c>
-      <c r="G11" s="29">
-        <f>G9*1.1/G8</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H11" s="29">
-        <f>H9*1.1/H8</f>
-        <v>1.0954451150103324</v>
-      </c>
-      <c r="I11" s="29">
+        <v>1.03808880038107</v>
+      </c>
+      <c r="F11" s="44">
+        <f t="shared" si="0"/>
+        <v>1.08932431665342</v>
+      </c>
+      <c r="G11" s="44">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="H11" s="44">
+        <f t="shared" si="0"/>
+        <v>1.09544511501033</v>
+      </c>
+      <c r="I11" s="44">
         <f t="shared" ref="I11:L11" si="1">I9*1.1/I8</f>
-        <v>1.0731707317073171</v>
-      </c>
-      <c r="J11" s="29">
+        <v>1.07317073170732</v>
+      </c>
+      <c r="J11" s="44">
         <f t="shared" si="1"/>
-        <v>1.0335415434646211</v>
-      </c>
-      <c r="K11" s="29">
+        <v>1.03354154346462</v>
+      </c>
+      <c r="K11" s="44">
         <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="44">
         <f t="shared" si="1"/>
-        <v>0.82327659042803247</v>
+        <v>0.823276590428032</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
+      <c r="A13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A13:L18"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B3FCC8-BAB7-40EE-AD0B-D20B49F368AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="23" customWidth="1"/>
+    <col min="2" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="16" style="22" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="10" width="10.875" customWidth="1"/>
     <col min="11" max="11" width="12.125" customWidth="1"/>
     <col min="12" max="13" width="9.125" customWidth="1"/>
-    <col min="14" max="14" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" customWidth="1"/>
+    <col min="15" max="15" width="11.375" customWidth="1"/>
+    <col min="16" max="17" width="10.875" customWidth="1"/>
+    <col min="18" max="18" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15">
-      <c r="B1" s="20"/>
-    </row>
-    <row r="7" spans="1:21" ht="62.25">
+    <row r="1" ht="15" spans="2:2">
+      <c r="B1" s="31"/>
+    </row>
+    <row r="7" ht="62.25" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="K7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -4150,55 +4571,55 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="3">
-        <f t="shared" ref="A9:A11" si="0">$L$8-L9</f>
+        <f t="shared" ref="A9:A15" si="0">$L$8-L9</f>
         <v>1</v>
       </c>
       <c r="B9" s="3">
         <f>H9/A9</f>
-        <v>202.0202020202014</v>
+        <v>202.020202020201</v>
       </c>
       <c r="C9" s="3">
         <f>O9*L9+K9</f>
-        <v>20404.040404040403</v>
-      </c>
-      <c r="D9" s="25">
+        <v>20404.0404040404</v>
+      </c>
+      <c r="D9" s="35">
         <f>O9*$L$8+$K$8</f>
-        <v>20305.070911131515</v>
-      </c>
-      <c r="E9" s="13">
+        <v>20305.0709111315</v>
+      </c>
+      <c r="E9" s="36">
         <f>C9-D9</f>
-        <v>98.969492908887332</v>
-      </c>
-      <c r="F9" s="18">
+        <v>98.9694929088873</v>
+      </c>
+      <c r="F9" s="37">
         <f>O9/100</f>
-        <v>1.0305070911131518</v>
-      </c>
-      <c r="G9" s="18">
+        <v>1.03050709111315</v>
+      </c>
+      <c r="G9" s="37">
         <f>C9/D9</f>
-        <v>1.004874126928295</v>
+        <v>1.0048741269283</v>
       </c>
       <c r="H9" s="3">
         <f>(J9-$K$8)/$B$25</f>
-        <v>202.0202020202014</v>
+        <v>202.020202020201</v>
       </c>
       <c r="I9" s="3">
         <f>H9*0.9</f>
-        <v>181.81818181818127</v>
+        <v>181.818181818181</v>
       </c>
       <c r="J9" s="3">
         <f>N9/L9</f>
-        <v>10101.010101010101</v>
+        <v>10101.0101010101</v>
       </c>
       <c r="K9" s="3">
         <f>$K$8+H9</f>
-        <v>10202.020202020201</v>
+        <v>10202.0202020202</v>
       </c>
       <c r="L9" s="3">
         <v>99</v>
       </c>
       <c r="M9" s="3">
         <f>K9*L9</f>
-        <v>1009999.9999999999</v>
+        <v>1010000</v>
       </c>
       <c r="N9" s="3">
         <f>$K$8*$L$8</f>
@@ -4206,11 +4627,11 @@
       </c>
       <c r="O9" s="3">
         <f>K9/L9</f>
-        <v>103.05070911131517</v>
-      </c>
-      <c r="P9" s="18">
+        <v>103.050709111315</v>
+      </c>
+      <c r="P9" s="37">
         <f>1-J9/K9</f>
-        <v>9.9009900990099098E-3</v>
+        <v>0.00990099009900991</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -4224,63 +4645,63 @@
         <v>5</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" ref="B10:B11" si="1">H10/A10</f>
-        <v>210.52631578947404</v>
+        <f t="shared" ref="B10:B15" si="1">H10/A10</f>
+        <v>210.526315789474</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ref="C10:C11" si="2">O10*L10+K10</f>
-        <v>22105.26315789474</v>
-      </c>
-      <c r="D10" s="25">
-        <f t="shared" ref="D10:D11" si="3">O10*$L$8+$K$8</f>
-        <v>21634.349030470916</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" ref="E10:E11" si="4">C10-D10</f>
-        <v>470.91412742382454</v>
-      </c>
-      <c r="F10" s="18">
+        <v>22105.2631578947</v>
+      </c>
+      <c r="D10" s="35">
+        <f t="shared" ref="D10:D15" si="3">O10*$L$8+$K$8</f>
+        <v>21634.3490304709</v>
+      </c>
+      <c r="E10" s="36">
+        <f t="shared" ref="E10:E12" si="4">C10-D10</f>
+        <v>470.914127423825</v>
+      </c>
+      <c r="F10" s="37">
         <f t="shared" ref="F10:F11" si="5">O10/100</f>
-        <v>1.1634349030470916</v>
-      </c>
-      <c r="G10" s="18">
+        <v>1.16343490304709</v>
+      </c>
+      <c r="G10" s="37">
         <f t="shared" ref="G10:G11" si="6">C10/D10</f>
-        <v>1.0217669654289374</v>
+        <v>1.02176696542894</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" ref="H10:H18" si="7">(J10-$K$8)/$B$25</f>
-        <v>1052.6315789473701</v>
+        <v>1052.63157894737</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" ref="I10:I11" si="8">H10*0.9</f>
-        <v>947.36842105263315</v>
+        <v>947.368421052633</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" ref="J10:J11" si="9">N10/L10</f>
-        <v>10526.315789473685</v>
+        <v>10526.3157894737</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" ref="K10:K11" si="10">$K$8+H10</f>
-        <v>11052.63157894737</v>
+        <f t="shared" ref="K10:K15" si="10">$K$8+H10</f>
+        <v>11052.6315789474</v>
       </c>
       <c r="L10" s="3">
         <v>95</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" ref="M10:M11" si="11">K10*L10</f>
-        <v>1050000.0000000002</v>
+        <v>1050000</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" ref="N10:N11" si="12">$K$8*$L$8</f>
+        <f t="shared" ref="N10:N15" si="12">$K$8*$L$8</f>
         <v>1000000</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" ref="O10:O11" si="13">K10/L10</f>
-        <v>116.34349030470916</v>
-      </c>
-      <c r="P10" s="18">
+        <v>116.343490304709</v>
+      </c>
+      <c r="P10" s="37">
         <f t="shared" ref="P10:P11" si="14">1-J10/K10</f>
-        <v>4.7619047619047672E-2</v>
+        <v>0.0476190476190477</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -4295,43 +4716,43 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="1"/>
-        <v>217.39130434782601</v>
+        <v>217.391304347826</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="2"/>
-        <v>23478.260869565216</v>
-      </c>
-      <c r="D11" s="25">
+        <v>23478.2608695652</v>
+      </c>
+      <c r="D11" s="35">
         <f t="shared" si="3"/>
-        <v>22759.924385633269</v>
-      </c>
-      <c r="E11" s="13">
+        <v>22759.9243856333</v>
+      </c>
+      <c r="E11" s="36">
         <f t="shared" si="4"/>
-        <v>718.33648393194744</v>
-      </c>
-      <c r="F11" s="18">
+        <v>718.336483931947</v>
+      </c>
+      <c r="F11" s="37">
         <f t="shared" si="5"/>
-        <v>1.275992438563327</v>
-      </c>
-      <c r="G11" s="18">
+        <v>1.27599243856333</v>
+      </c>
+      <c r="G11" s="37">
         <f t="shared" si="6"/>
-        <v>1.0315614617940199</v>
+        <v>1.03156146179402</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="7"/>
-        <v>1739.1304347826081</v>
+        <v>1739.13043478261</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="8"/>
-        <v>1565.2173913043473</v>
+        <v>1565.21739130435</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="9"/>
-        <v>10869.565217391304</v>
+        <v>10869.5652173913</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="10"/>
-        <v>11739.130434782608</v>
+        <v>11739.1304347826</v>
       </c>
       <c r="L11" s="3">
         <v>92</v>
@@ -4346,11 +4767,11 @@
       </c>
       <c r="O11" s="3">
         <f t="shared" si="13"/>
-        <v>127.59924385633269</v>
-      </c>
-      <c r="P11" s="18">
+        <v>127.599243856333</v>
+      </c>
+      <c r="P11" s="37">
         <f t="shared" si="14"/>
-        <v>7.407407407407407E-2</v>
+        <v>0.0740740740740741</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -4360,48 +4781,48 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3">
-        <f>$L$8-L12</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <f>H12/A12</f>
-        <v>222.22222222222226</v>
+        <f t="shared" si="1"/>
+        <v>222.222222222222</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:C18" si="15">O12*L12+K12</f>
-        <v>24444.444444444445</v>
-      </c>
-      <c r="D12" s="25">
-        <f>O12*$L$8+$K$8</f>
-        <v>23580.246913580246</v>
-      </c>
-      <c r="E12" s="13">
-        <f>C12-D12</f>
-        <v>864.19753086419951</v>
-      </c>
-      <c r="F12" s="18">
+        <v>24444.4444444444</v>
+      </c>
+      <c r="D12" s="35">
+        <f t="shared" si="3"/>
+        <v>23580.2469135802</v>
+      </c>
+      <c r="E12" s="36">
+        <f t="shared" si="4"/>
+        <v>864.1975308642</v>
+      </c>
+      <c r="F12" s="37">
         <f t="shared" ref="F12:F18" si="16">O12/100</f>
-        <v>1.3580246913580247</v>
-      </c>
-      <c r="G12" s="18">
+        <v>1.35802469135802</v>
+      </c>
+      <c r="G12" s="37">
         <f t="shared" ref="G12:G18" si="17">C12/D12</f>
-        <v>1.036649214659686</v>
+        <v>1.03664921465969</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="7"/>
-        <v>2222.2222222222226</v>
+        <v>2222.22222222222</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" ref="I12:I18" si="18">H12*0.9</f>
-        <v>2000.0000000000005</v>
+        <v>2000</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" ref="J12:J18" si="19">N12/L12</f>
-        <v>11111.111111111111</v>
+        <v>11111.1111111111</v>
       </c>
       <c r="K12" s="3">
-        <f>$K$8+H12</f>
-        <v>12222.222222222223</v>
+        <f t="shared" si="10"/>
+        <v>12222.2222222222</v>
       </c>
       <c r="L12" s="3">
         <v>90</v>
@@ -4411,16 +4832,16 @@
         <v>1100000</v>
       </c>
       <c r="N12" s="3">
-        <f>$K$8*$L$8</f>
+        <f t="shared" si="12"/>
         <v>1000000</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" ref="O12:O18" si="21">K12/L12</f>
-        <v>135.80246913580248</v>
-      </c>
-      <c r="P12" s="18">
+        <v>135.802469135802</v>
+      </c>
+      <c r="P12" s="37">
         <f t="shared" ref="P12:P18" si="22">1-J12/K12</f>
-        <v>9.0909090909090939E-2</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -4430,32 +4851,32 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="3">
-        <f>$L$8-L13</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B13" s="3">
-        <f>H13/A13</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="15"/>
         <v>30000</v>
       </c>
-      <c r="D13" s="25">
-        <f>O13*$L$8+$K$8</f>
+      <c r="D13" s="35">
+        <f t="shared" si="3"/>
         <v>28750</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="36">
         <f t="shared" ref="E13:E18" si="23">C13-D13</f>
         <v>1250</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="37">
         <f t="shared" si="16"/>
         <v>1.875</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="37">
         <f t="shared" si="17"/>
-        <v>1.0434782608695652</v>
+        <v>1.04347826086957</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="7"/>
@@ -4470,7 +4891,7 @@
         <v>12500</v>
       </c>
       <c r="K13" s="3">
-        <f>$K$8+H13</f>
+        <f t="shared" si="10"/>
         <v>15000</v>
       </c>
       <c r="L13" s="3">
@@ -4481,16 +4902,16 @@
         <v>1200000</v>
       </c>
       <c r="N13" s="3">
-        <f>$K$8*$L$8</f>
+        <f t="shared" si="12"/>
         <v>1000000</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="21"/>
         <v>187.5</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="37">
         <f t="shared" si="22"/>
-        <v>0.16666666666666663</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -4500,48 +4921,48 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="3">
-        <f>$L$8-L14</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B14" s="3">
-        <f>H14/A14</f>
-        <v>285.71428571428572</v>
+        <f t="shared" si="1"/>
+        <v>285.714285714286</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="15"/>
-        <v>37142.857142857145</v>
-      </c>
-      <c r="D14" s="25">
-        <f>O14*$L$8+$K$8</f>
-        <v>36530.612244897959</v>
-      </c>
-      <c r="E14" s="13">
+        <v>37142.8571428571</v>
+      </c>
+      <c r="D14" s="35">
+        <f t="shared" si="3"/>
+        <v>36530.612244898</v>
+      </c>
+      <c r="E14" s="36">
         <f t="shared" si="23"/>
-        <v>612.24489795918635</v>
-      </c>
-      <c r="F14" s="18">
+        <v>612.244897959186</v>
+      </c>
+      <c r="F14" s="37">
         <f t="shared" si="16"/>
-        <v>2.6530612244897958</v>
-      </c>
-      <c r="G14" s="18">
+        <v>2.6530612244898</v>
+      </c>
+      <c r="G14" s="37">
         <f t="shared" si="17"/>
-        <v>1.016759776536313</v>
+        <v>1.01675977653631</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="7"/>
-        <v>8571.4285714285725</v>
+        <v>8571.42857142857</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="18"/>
-        <v>7714.2857142857156</v>
+        <v>7714.28571428572</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="19"/>
-        <v>14285.714285714286</v>
+        <v>14285.7142857143</v>
       </c>
       <c r="K14" s="3">
-        <f>$K$8+H14</f>
-        <v>18571.428571428572</v>
+        <f t="shared" si="10"/>
+        <v>18571.4285714286</v>
       </c>
       <c r="L14" s="3">
         <v>70</v>
@@ -4551,16 +4972,16 @@
         <v>1300000</v>
       </c>
       <c r="N14" s="3">
-        <f>$K$8*$L$8</f>
+        <f t="shared" si="12"/>
         <v>1000000</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="21"/>
-        <v>265.30612244897958</v>
-      </c>
-      <c r="P14" s="18">
+        <v>265.30612244898</v>
+      </c>
+      <c r="P14" s="37">
         <f t="shared" si="22"/>
-        <v>0.23076923076923084</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -4570,32 +4991,32 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="3">
-        <f>$L$8-L15</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B15" s="3">
-        <f>H15/A15</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="15"/>
         <v>60000</v>
       </c>
-      <c r="D15" s="25">
-        <f>O15*$L$8+$K$8</f>
+      <c r="D15" s="35">
+        <f t="shared" si="3"/>
         <v>70000</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="36">
         <f t="shared" si="23"/>
         <v>-10000</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="37">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="37">
         <f t="shared" si="17"/>
-        <v>0.8571428571428571</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="7"/>
@@ -4610,7 +5031,7 @@
         <v>20000</v>
       </c>
       <c r="K15" s="3">
-        <f>$K$8+H15</f>
+        <f t="shared" si="10"/>
         <v>30000</v>
       </c>
       <c r="L15" s="3">
@@ -4621,16 +5042,16 @@
         <v>1500000</v>
       </c>
       <c r="N15" s="3">
-        <f>$K$8*$L$8</f>
+        <f t="shared" si="12"/>
         <v>1000000</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" si="21"/>
         <v>600</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="37">
         <f t="shared" si="22"/>
-        <v>0.33333333333333337</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -4645,31 +5066,31 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" ref="B16:B18" si="25">H16/A16</f>
-        <v>444.44444444444446</v>
+        <v>444.444444444444</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="15"/>
-        <v>68888.888888888891</v>
-      </c>
-      <c r="D16" s="25">
+        <v>68888.8888888889</v>
+      </c>
+      <c r="D16" s="35">
         <f t="shared" ref="D16:D18" si="26">O16*$L$8+$K$8</f>
-        <v>86543.209876543217</v>
-      </c>
-      <c r="E16" s="13">
+        <v>86543.2098765432</v>
+      </c>
+      <c r="E16" s="36">
         <f t="shared" si="23"/>
-        <v>-17654.320987654326</v>
-      </c>
-      <c r="F16" s="18">
+        <v>-17654.3209876543</v>
+      </c>
+      <c r="F16" s="37">
         <f t="shared" si="16"/>
-        <v>7.6543209876543212</v>
-      </c>
-      <c r="G16" s="18">
+        <v>7.65432098765432</v>
+      </c>
+      <c r="G16" s="37">
         <f t="shared" si="17"/>
-        <v>0.79600570613409416</v>
+        <v>0.796005706134094</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="7"/>
-        <v>24444.444444444445</v>
+        <v>24444.4444444444</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="18"/>
@@ -4677,11 +5098,11 @@
       </c>
       <c r="J16" s="3">
         <f t="shared" si="19"/>
-        <v>22222.222222222223</v>
+        <v>22222.2222222222</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" ref="K16:K18" si="27">$K$8+H16</f>
-        <v>34444.444444444445</v>
+        <v>34444.4444444444</v>
       </c>
       <c r="L16" s="3">
         <v>45</v>
@@ -4696,11 +5117,11 @@
       </c>
       <c r="O16" s="3">
         <f t="shared" si="21"/>
-        <v>765.4320987654321</v>
-      </c>
-      <c r="P16" s="18">
+        <v>765.432098765432</v>
+      </c>
+      <c r="P16" s="37">
         <f t="shared" si="22"/>
-        <v>0.35483870967741937</v>
+        <v>0.354838709677419</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -4721,21 +5142,21 @@
         <f t="shared" si="15"/>
         <v>180000</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="35">
         <f t="shared" si="26"/>
         <v>460000</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="36">
         <f t="shared" si="23"/>
         <v>-280000</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="37">
         <f t="shared" si="16"/>
         <v>45</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="37">
         <f t="shared" si="17"/>
-        <v>0.39130434782608697</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="7"/>
@@ -4768,9 +5189,9 @@
         <f t="shared" si="21"/>
         <v>4500</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="37">
         <f t="shared" si="22"/>
-        <v>0.44444444444444442</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -4791,21 +5212,21 @@
         <f t="shared" si="15"/>
         <v>3980000</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="35">
         <f t="shared" si="26"/>
         <v>199010000</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="36">
         <f t="shared" si="23"/>
         <v>-195030000</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="37">
         <f t="shared" si="16"/>
         <v>19900</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="37">
         <f t="shared" si="17"/>
-        <v>1.999899502537561E-2</v>
+        <v>0.0199989950253756</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="7"/>
@@ -4838,9 +5259,9 @@
         <f t="shared" si="21"/>
         <v>1990000</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P18" s="37">
         <f t="shared" si="22"/>
-        <v>0.49748743718592969</v>
+        <v>0.49748743718593</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -4848,9 +5269,9 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <f>1-0.5</f>
@@ -4858,48 +5279,49 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96A56E0-52F9-47C7-BA40-94F45C8883AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0">
+    <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
     <col min="8" max="8" width="10.125" customWidth="1"/>
     <col min="9" max="9" width="25.375" customWidth="1"/>
     <col min="10" max="10" width="24.25" customWidth="1"/>
-    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
     <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="14" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18">
-      <c r="B1" s="23" t="s">
-        <v>67</v>
+    <row r="1" ht="18.75" spans="2:14">
+      <c r="B1" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
         <v>71</v>
@@ -4910,18 +5332,18 @@
       <c r="H1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="30"/>
+      <c r="I1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="23"/>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4949,38 +5371,38 @@
       </c>
       <c r="G2">
         <f>SQRT(D2*E2)</f>
-        <v>2097.6176963403032</v>
+        <v>2097.6176963403</v>
       </c>
       <c r="H2">
         <f>G2-F2</f>
-        <v>97.617696340303155</v>
-      </c>
-      <c r="I2" s="32">
+        <v>97.6176963403032</v>
+      </c>
+      <c r="I2" s="24">
         <f>1-(SQRT(B2*C2)/SQRT(D2*E2))</f>
-        <v>4.653741075440776E-2</v>
-      </c>
-      <c r="J2" s="33">
+        <v>0.0465374107544078</v>
+      </c>
+      <c r="J2" s="25">
         <f>I2*F2/(1-I2)</f>
-        <v>97.617696340303254</v>
+        <v>97.6176963403033</v>
       </c>
       <c r="K2">
         <f>SQRT(D2*E2)*I2</f>
-        <v>97.617696340303254</v>
+        <v>97.6176963403033</v>
       </c>
       <c r="L2">
         <f>K2/G2*D2</f>
-        <v>102.38230365969707</v>
+        <v>102.382303659697</v>
       </c>
       <c r="M2">
         <f>H2/G2*E2</f>
-        <v>93.074821508815418</v>
+        <v>93.0748215088154</v>
       </c>
       <c r="N2">
         <f>L2+M2</f>
-        <v>195.4571251685125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>195.457125168513</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3">
         <v>20000</v>
       </c>
@@ -5002,38 +5424,38 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G6" si="4">SQRT(D3*E3)</f>
-        <v>20099.751242241782</v>
+        <v>20099.7512422418</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H6" si="5">G3-F3</f>
-        <v>99.751242241782165</v>
-      </c>
-      <c r="I3" s="32">
+        <v>99.7512422417822</v>
+      </c>
+      <c r="I3" s="24">
         <f t="shared" ref="I3:I6" si="6">1-(SQRT(B3*C3)/SQRT(D3*E3))</f>
-        <v>4.962809790010958E-3</v>
-      </c>
-      <c r="J3" s="33">
+        <v>0.00496280979001096</v>
+      </c>
+      <c r="J3" s="25">
         <f t="shared" ref="J3:J6" si="7">I3*F3/(1-I3)</f>
-        <v>99.751242241782435</v>
+        <v>99.7512422417824</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K6" si="8">SQRT(D3*E3)*I3</f>
-        <v>99.751242241782435</v>
+        <v>99.7512422417824</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L6" si="9">K3/G3*D3</f>
-        <v>100.24875775822136</v>
+        <v>100.248757758221</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M6" si="10">H3/G3*E3</f>
-        <v>99.256195800218904</v>
+        <v>99.2561958002189</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N6" si="11">L3+M3</f>
-        <v>199.50495355844026</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>199.50495355844</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4">
         <v>200000</v>
       </c>
@@ -5055,38 +5477,38 @@
       </c>
       <c r="G4">
         <f t="shared" si="4"/>
-        <v>200099.97501249218</v>
+        <v>200099.975012492</v>
       </c>
       <c r="H4">
         <f t="shared" si="5"/>
-        <v>99.97501249218476</v>
-      </c>
-      <c r="I4" s="32">
+        <v>99.9750124921848</v>
+      </c>
+      <c r="I4" s="24">
         <f t="shared" si="6"/>
-        <v>4.9962531222680351E-4</v>
-      </c>
-      <c r="J4" s="33">
+        <v>0.000499625312226804</v>
+      </c>
+      <c r="J4" s="25">
         <f t="shared" si="7"/>
-        <v>99.975012492191993</v>
+        <v>99.975012492192</v>
       </c>
       <c r="K4">
         <f t="shared" si="8"/>
-        <v>99.975012492191993</v>
+        <v>99.975012492192</v>
       </c>
       <c r="L4">
         <f t="shared" si="9"/>
-        <v>100.02498750780606</v>
+        <v>100.024987507806</v>
       </c>
       <c r="M4">
         <f t="shared" si="10"/>
-        <v>99.925062445353475</v>
+        <v>99.9250624453535</v>
       </c>
       <c r="N4">
         <f t="shared" si="11"/>
-        <v>199.95004995315952</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>199.95004995316</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5">
         <v>2000000</v>
       </c>
@@ -5108,38 +5530,38 @@
       </c>
       <c r="G5">
         <f t="shared" si="4"/>
-        <v>2000099.9975001251</v>
+        <v>2000099.99750013</v>
       </c>
       <c r="H5">
         <f t="shared" si="5"/>
-        <v>99.997500125085935</v>
-      </c>
-      <c r="I5" s="32">
+        <v>99.9975001250859</v>
+      </c>
+      <c r="I5" s="24">
         <f t="shared" si="6"/>
-        <v>4.9996250312545065E-5</v>
-      </c>
-      <c r="J5" s="34">
+        <v>4.99962503125451e-5</v>
+      </c>
+      <c r="J5" s="26">
         <f t="shared" si="7"/>
-        <v>99.997500125137009</v>
+        <v>99.997500125137</v>
       </c>
       <c r="K5">
         <f t="shared" si="8"/>
-        <v>99.997500125137009</v>
+        <v>99.997500125137</v>
       </c>
       <c r="L5">
         <f t="shared" si="9"/>
-        <v>100.00249987515264</v>
+        <v>100.002499875153</v>
       </c>
       <c r="M5">
         <f t="shared" si="10"/>
-        <v>99.992500625039057</v>
+        <v>99.9925006250391</v>
       </c>
       <c r="N5">
         <f t="shared" si="11"/>
-        <v>199.99500050019168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>199.995000500192</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6">
         <v>20000000</v>
       </c>
@@ -5161,49 +5583,49 @@
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
-        <v>20000099.999749999</v>
+        <v>20000099.99975</v>
       </c>
       <c r="H6">
         <f t="shared" si="5"/>
-        <v>99.999749999493361</v>
-      </c>
-      <c r="I6" s="36">
+        <v>99.9997499994934</v>
+      </c>
+      <c r="I6" s="27">
         <f t="shared" si="6"/>
-        <v>4.9999625002516979E-6</v>
-      </c>
-      <c r="J6" s="35">
+        <v>4.9999625002517e-6</v>
+      </c>
+      <c r="J6" s="28">
         <f t="shared" si="7"/>
-        <v>99.999750000033998</v>
+        <v>99.999750000034</v>
       </c>
       <c r="K6">
         <f t="shared" si="8"/>
-        <v>99.999750000033984</v>
+        <v>99.999750000034</v>
       </c>
       <c r="L6">
         <f t="shared" si="9"/>
-        <v>100.00024999753401</v>
+        <v>100.000249997534</v>
       </c>
       <c r="M6">
         <f t="shared" si="10"/>
-        <v>99.999250004493334</v>
+        <v>99.9992500044933</v>
       </c>
       <c r="N6">
         <f t="shared" si="11"/>
-        <v>199.99950000202733</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="18">
-      <c r="B16" s="23" t="s">
-        <v>67</v>
+        <v>199.999500002027</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" spans="2:14">
+      <c r="B16" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
         <v>71</v>
@@ -5214,18 +5636,18 @@
       <c r="H16" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="L16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" t="s">
         <v>77</v>
-      </c>
-      <c r="J16" s="30"/>
-      <c r="L16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -5259,32 +5681,32 @@
         <f>G17-F17</f>
         <v>200</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="24">
         <f>1-(SQRT(B17*C17)/SQRT(D17*E17))</f>
-        <v>9.0909090909090939E-2</v>
-      </c>
-      <c r="J17" s="32">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="J17" s="24">
         <f>H17/G17</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="K17" s="37">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="K17" s="29">
         <f>SQRT(D17*E17)*I17</f>
-        <v>200.00000000000006</v>
-      </c>
-      <c r="L17" s="38">
+        <v>200</v>
+      </c>
+      <c r="L17" s="30">
         <f>J17*D17</f>
         <v>200</v>
       </c>
-      <c r="M17" s="38">
+      <c r="M17" s="30">
         <f>J17*E17</f>
         <v>200</v>
       </c>
-      <c r="N17" s="38">
+      <c r="N17" s="30">
         <f>L17+M17</f>
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="2:14">
       <c r="B18">
         <v>20000</v>
       </c>
@@ -5312,32 +5734,32 @@
         <f t="shared" ref="H18:H21" si="17">G18-F18</f>
         <v>200</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="24">
         <f t="shared" ref="I18:I21" si="18">1-(SQRT(B18*C18)/SQRT(D18*E18))</f>
-        <v>9.9009900990099098E-3</v>
-      </c>
-      <c r="J18" s="32">
+        <v>0.00990099009900991</v>
+      </c>
+      <c r="J18" s="24">
         <f t="shared" ref="J18:J21" si="19">H18/G18</f>
-        <v>9.9009900990099011E-3</v>
-      </c>
-      <c r="K18" s="37">
+        <v>0.0099009900990099</v>
+      </c>
+      <c r="K18" s="29">
         <f t="shared" ref="K18:K21" si="20">SQRT(D18*E18)*I18</f>
-        <v>200.00000000000017</v>
-      </c>
-      <c r="L18" s="38">
+        <v>200</v>
+      </c>
+      <c r="L18" s="30">
         <f t="shared" ref="L18:L21" si="21">J18*D18</f>
         <v>200</v>
       </c>
-      <c r="M18" s="38">
+      <c r="M18" s="30">
         <f t="shared" ref="M18:M21" si="22">J18*E18</f>
         <v>200</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="30">
         <f t="shared" ref="N18:N21" si="23">L18+M18</f>
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="2:14">
       <c r="B19">
         <v>200000</v>
       </c>
@@ -5365,32 +5787,32 @@
         <f t="shared" si="17"/>
         <v>200</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="24">
         <f t="shared" si="18"/>
-        <v>9.9900099900096517E-4</v>
-      </c>
-      <c r="J19" s="32">
+        <v>0.000999000999000965</v>
+      </c>
+      <c r="J19" s="24">
         <f t="shared" si="19"/>
-        <v>9.99000999000999E-4</v>
-      </c>
-      <c r="K19" s="37">
+        <v>0.000999000999000999</v>
+      </c>
+      <c r="K19" s="29">
         <f t="shared" si="20"/>
-        <v>199.99999999999324</v>
-      </c>
-      <c r="L19" s="38">
+        <v>199.999999999993</v>
+      </c>
+      <c r="L19" s="30">
         <f t="shared" si="21"/>
         <v>200</v>
       </c>
-      <c r="M19" s="38">
+      <c r="M19" s="30">
         <f t="shared" si="22"/>
         <v>200</v>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="30">
         <f t="shared" si="23"/>
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="2:14">
       <c r="B20">
         <v>2000000</v>
       </c>
@@ -5418,32 +5840,32 @@
         <f t="shared" si="17"/>
         <v>200</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="24">
         <f t="shared" si="18"/>
-        <v>9.9990000999916617E-5</v>
-      </c>
-      <c r="J20" s="32">
+        <v>9.99900009999166e-5</v>
+      </c>
+      <c r="J20" s="24">
         <f t="shared" si="19"/>
-        <v>9.9990000999900015E-5</v>
-      </c>
-      <c r="K20" s="37">
+        <v>9.99900009999e-5</v>
+      </c>
+      <c r="K20" s="29">
         <f t="shared" si="20"/>
-        <v>200.00000000003322</v>
-      </c>
-      <c r="L20" s="38">
+        <v>200.000000000033</v>
+      </c>
+      <c r="L20" s="30">
         <f t="shared" si="21"/>
         <v>200</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="30">
         <f t="shared" si="22"/>
         <v>200</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="30">
         <f t="shared" si="23"/>
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="2:14">
       <c r="B21">
         <v>20000000</v>
       </c>
@@ -5471,67 +5893,68 @@
         <f t="shared" si="17"/>
         <v>200</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="24">
         <f t="shared" si="18"/>
-        <v>9.9999000009454164E-6</v>
-      </c>
-      <c r="J21" s="32">
+        <v>9.99990000094542e-6</v>
+      </c>
+      <c r="J21" s="24">
         <f t="shared" si="19"/>
-        <v>9.9999000009999908E-6</v>
-      </c>
-      <c r="K21" s="37">
+        <v>9.99990000099999e-6</v>
+      </c>
+      <c r="K21" s="29">
         <f t="shared" si="20"/>
-        <v>199.99999999890852</v>
-      </c>
-      <c r="L21" s="38">
+        <v>199.999999998909</v>
+      </c>
+      <c r="L21" s="30">
         <f t="shared" si="21"/>
-        <v>200.00000000000003</v>
-      </c>
-      <c r="M21" s="38">
+        <v>200</v>
+      </c>
+      <c r="M21" s="30">
         <f t="shared" si="22"/>
-        <v>200.00000000000003</v>
-      </c>
-      <c r="N21" s="38">
+        <v>200</v>
+      </c>
+      <c r="N21" s="30">
         <f t="shared" si="23"/>
-        <v>400.00000000000006</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEB02E9-709A-484D-A636-681928D00EFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="3:5">
       <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>82</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5540,24 +5963,24 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -5565,192 +5988,192 @@
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
       <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>99</v>
-      </c>
-      <c r="F14" s="40"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="56"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A9:E10"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A9:E10"/>
     <mergeCell ref="B14:D15"/>
     <mergeCell ref="B19:D20"/>
-    <mergeCell ref="E19:F19"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E639855-9DDA-4990-BCE9-F7DF8CA72F9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
+    <sheetView zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
     <col min="10" max="10" width="22.875" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" ht="37.5" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>108</v>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="49" t="s">
-        <v>112</v>
-      </c>
       <c r="L1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3">
         <v>100</v>
       </c>
@@ -5769,19 +6192,19 @@
         <v>100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:9">
       <c r="A3" s="3">
         <v>200</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>100000</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>200000</v>
       </c>
       <c r="E3" s="3">
@@ -5794,27 +6217,27 @@
         <v>400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="42">
+      <c r="A4" s="5">
         <f t="shared" ref="A4:A9" si="0">C4/B4</f>
-        <v>399.2015968063788</v>
+        <v>399.201596806379</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="6">
         <f>$D$3-D4</f>
-        <v>399.2015968063788</v>
-      </c>
-      <c r="D4" s="44">
+        <v>399.201596806379</v>
+      </c>
+      <c r="D4" s="7">
         <f t="shared" ref="D4:D9" si="1">$F$2/E4</f>
-        <v>199600.79840319362</v>
+        <v>199600.798403194</v>
       </c>
       <c r="E4" s="2">
         <v>501</v>
@@ -5822,36 +6245,36 @@
       <c r="F4" s="3">
         <v>100000000</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="5">
         <f>D4/E4</f>
-        <v>398.40478723192342</v>
+        <v>398.404787231923</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="K4">
-        <f t="shared" ref="K4:K7" si="2">B4*100</f>
+        <f t="shared" ref="K4:K9" si="2">B4*100</f>
         <v>100</v>
       </c>
-      <c r="L4" s="41">
-        <f t="shared" ref="L4:L7" si="3">C4-K4</f>
-        <v>299.2015968063788</v>
+      <c r="L4" s="15">
+        <f t="shared" ref="L4:L9" si="3">C4-K4</f>
+        <v>299.201596806379</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="42">
+      <c r="A5" s="5">
         <f t="shared" si="0"/>
-        <v>392.15686274509937</v>
+        <v>392.156862745099</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="6">
         <f t="shared" ref="C5:C9" si="4">$D$3-D5</f>
-        <v>3921.5686274509935</v>
-      </c>
-      <c r="D5" s="44">
+        <v>3921.56862745099</v>
+      </c>
+      <c r="D5" s="7">
         <f t="shared" si="1"/>
-        <v>196078.43137254901</v>
+        <v>196078.431372549</v>
       </c>
       <c r="E5" s="2">
         <v>510</v>
@@ -5859,9 +6282,9 @@
       <c r="F5" s="3">
         <v>100000000</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="5">
         <f t="shared" ref="G5:G9" si="5">D5/E5</f>
-        <v>384.46751249519411</v>
+        <v>384.467512495194</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -5869,26 +6292,26 @@
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="15">
         <f t="shared" si="3"/>
-        <v>2921.5686274509935</v>
+        <v>2921.56862745099</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="42">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
-        <v>333.33333333333343</v>
+        <v>333.333333333333</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="6">
         <f t="shared" si="4"/>
-        <v>33333.333333333343</v>
-      </c>
-      <c r="D6" s="44">
+        <v>33333.3333333333</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" si="1"/>
-        <v>166666.66666666666</v>
+        <v>166666.666666667</v>
       </c>
       <c r="E6" s="2">
         <v>600</v>
@@ -5896,9 +6319,9 @@
       <c r="F6" s="3">
         <v>100000000</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="5">
         <f t="shared" si="5"/>
-        <v>277.77777777777777</v>
+        <v>277.777777777778</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -5906,26 +6329,26 @@
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="15">
         <f t="shared" si="3"/>
-        <v>23333.333333333343</v>
+        <v>23333.3333333333</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="42">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
-        <v>285.71428571428567</v>
+        <v>285.714285714286</v>
       </c>
       <c r="B7" s="2">
         <v>200</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="6">
         <f t="shared" si="4"/>
-        <v>57142.85714285713</v>
-      </c>
-      <c r="D7" s="44">
+        <v>57142.8571428571</v>
+      </c>
+      <c r="D7" s="7">
         <f t="shared" si="1"/>
-        <v>142857.14285714287</v>
+        <v>142857.142857143</v>
       </c>
       <c r="E7" s="2">
         <v>700</v>
@@ -5933,9 +6356,9 @@
       <c r="F7" s="3">
         <v>100000000</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="5">
         <f t="shared" si="5"/>
-        <v>204.08163265306123</v>
+        <v>204.081632653061</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -5943,24 +6366,24 @@
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="15">
         <f t="shared" si="3"/>
-        <v>37142.85714285713</v>
+        <v>37142.8571428571</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="42">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="B8" s="2">
         <v>500</v>
       </c>
-      <c r="C8" s="44">
-        <f>$D$3-D8</f>
+      <c r="C8" s="7">
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="7">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -5970,242 +6393,320 @@
       <c r="F8" s="3">
         <v>100000000</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="5">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K8">
-        <f>B8*100</f>
+        <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="L8" s="41">
-        <f>C8-K8</f>
+      <c r="L8" s="15">
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="48">
+      <c r="A9" s="8">
         <f t="shared" si="0"/>
-        <v>181.81818181818181</v>
-      </c>
-      <c r="B9" s="45">
+        <v>181.818181818182</v>
+      </c>
+      <c r="B9" s="9">
         <v>600</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="10">
         <f t="shared" si="4"/>
-        <v>109090.90909090909</v>
-      </c>
-      <c r="D9" s="46">
+        <v>109090.909090909</v>
+      </c>
+      <c r="D9" s="11">
         <f t="shared" si="1"/>
-        <v>90909.090909090912</v>
-      </c>
-      <c r="E9" s="45">
+        <v>90909.0909090909</v>
+      </c>
+      <c r="E9" s="9">
         <v>1100</v>
       </c>
       <c r="F9" s="3">
         <v>100000000</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="8">
         <f t="shared" si="5"/>
-        <v>82.644628099173559</v>
+        <v>82.6446280991736</v>
       </c>
       <c r="K9">
-        <f>B9*100</f>
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
-      <c r="L9" s="41">
-        <f>C9-K9</f>
-        <v>49090.909090909088</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
+      <c r="L9" s="15">
+        <f t="shared" si="3"/>
+        <v>49090.9090909091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A11:I23"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB19B31-D30F-4863-955C-99569444CE4E}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>115</v>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>116</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/滑点理解图表格.xlsx
+++ b/滑点理解图表格.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\projectTest\solidityTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D778724-EB5F-4593-B056-4A88327BD616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="456" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="滑点计算" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,23 @@
     <sheet name="套利数据演算" sheetId="7" r:id="rId7"/>
     <sheet name="合约检测checklist" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
   <si>
     <t>购买ETH数量 （ΔY）</t>
   </si>
@@ -32,6 +49,7 @@
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单个</t>
@@ -42,521 +60,538 @@
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ETH</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>价格</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (DAI)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（交易时）</t>
+    </r>
+  </si>
+  <si>
+    <t>滑点</t>
+  </si>
+  <si>
+    <t>滑点差值</t>
+  </si>
+  <si>
+    <t>(实际消耗-理论消耗)/理论消耗</t>
+  </si>
+  <si>
+    <t>实际消耗-理论消耗</t>
+  </si>
+  <si>
+    <t>理论消耗</t>
+  </si>
+  <si>
+    <t>购买时消耗的DAI （ΔX）</t>
+  </si>
+  <si>
+    <t>DAI流动量 （x）</t>
+  </si>
+  <si>
+    <t>ETH流动量 （y）</t>
+  </si>
+  <si>
+    <t>常数 （K）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x/y(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兑价</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>alpha （ΔX/x）</t>
+  </si>
+  <si>
+    <t>beta （ΔY/y）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>alpha</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>beta</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是之前的兑换前的流动量</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 控制输入为整数</t>
+  </si>
+  <si>
+    <t>单个ETH价格 (DAI)</t>
+  </si>
+  <si>
+    <t>(实际产出-理论产出)/理论产出</t>
+  </si>
+  <si>
+    <t>实际产出-理论产出)</t>
+  </si>
+  <si>
+    <t>理论产出</t>
+  </si>
+  <si>
+    <t>x/y</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>alpha</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>beta</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是之前的兑换前的流动量</t>
+    </r>
+  </si>
+  <si>
+    <t>保证金</t>
+  </si>
+  <si>
+    <t>杠杆</t>
+  </si>
+  <si>
+    <t>怎么看</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收益 </t>
+  </si>
+  <si>
+    <t>收益率</t>
+  </si>
+  <si>
+    <t>x10</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>impermanant loss的比率与当前价格变化的关系，O列表示资金刚放入流动池的情况，O-&gt;H表示价格上涨时impermanent loss的变化，A&lt;-O表示价格下跌时impermanent loss的变化。</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>ETH</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>价格</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>前后价格比</t>
+    </r>
+  </si>
+  <si>
+    <t>p1/p0</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e(ETH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> (DAI)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>DAI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t(DAI</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（交易时）</t>
-    </r>
-  </si>
-  <si>
-    <t>滑点</t>
-  </si>
-  <si>
-    <t>滑点差值</t>
-  </si>
-  <si>
-    <t>(实际消耗-理论消耗)/理论消耗</t>
-  </si>
-  <si>
-    <t>实际消耗-理论消耗</t>
-  </si>
-  <si>
-    <t>理论消耗</t>
-  </si>
-  <si>
-    <t>购买时消耗的DAI （ΔX）</t>
-  </si>
-  <si>
-    <t>DAI流动量 （x）</t>
-  </si>
-  <si>
-    <t>ETH流动量 （y）</t>
-  </si>
-  <si>
-    <t>常数 （K）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>数量</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>p(DAI/ETH)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DAI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>x/y(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>结算</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>v0(hold</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>兑价</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>时资金</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>DAI结算</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>v1(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>alpha （ΔX/x）</t>
-  </si>
-  <si>
-    <t>beta （ΔY/y）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>放入流动池后的资金</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>alpha</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>beta</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是之前的兑换前的流动量</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> 控制输入为整数</t>
-  </si>
-  <si>
-    <t>单个ETH价格 (DAI)</t>
-  </si>
-  <si>
-    <t>(实际产出-理论产出)/理论产出</t>
-  </si>
-  <si>
-    <t>实际产出-理论产出)</t>
-  </si>
-  <si>
-    <t>理论产出</t>
-  </si>
-  <si>
-    <t>x/y</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>alpha</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>beta</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是之前的兑换前的流动量</t>
-    </r>
-  </si>
-  <si>
-    <t>保证金</t>
-  </si>
-  <si>
-    <t>杠杆</t>
-  </si>
-  <si>
-    <t>怎么看</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收益 </t>
-  </si>
-  <si>
-    <t>收益率</t>
-  </si>
-  <si>
-    <t>x10</t>
-  </si>
-  <si>
-    <t>多</t>
-  </si>
-  <si>
-    <t>空</t>
-  </si>
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>impermanant loss的比率与当前价格变化的关系，O列表示资金刚放入流动池的情况，O-&gt;H表示价格上涨时impermanent loss的变化，A&lt;-O表示价格下跌时impermanent loss的变化。</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ETH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前后价格比</t>
-    </r>
-  </si>
-  <si>
-    <t>p1/p0</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>e(ETH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>DAI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t(DAI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>p(DAI/ETH)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DAI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结算</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>v0(hold</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时资金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>DAI结算</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>v1(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>放入流动池后的资金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -592,6 +627,7 @@
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>购买时消耗的</t>
@@ -602,8 +638,63 @@
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DAI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ΔX</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买时计价的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">DAI </t>
     </r>
     <r>
@@ -611,9 +702,150 @@
         <b/>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>X2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DAI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计价流动量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DAI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>流动量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>（</t>
     </r>
     <r>
@@ -622,8 +854,259 @@
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>k</t>
+    </r>
+  </si>
+  <si>
+    <t>50%的手续费</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>fee=L2-L2</t>
+  </si>
+  <si>
+    <t>流动性的百分比</t>
+  </si>
+  <si>
+    <t>x^（x的增量）</t>
+  </si>
+  <si>
+    <t>y^（y的增量）</t>
+  </si>
+  <si>
+    <t>x^+y^</t>
+  </si>
+  <si>
+    <t>流动性的百分比(fee/L2)</t>
+  </si>
+  <si>
+    <t>x^</t>
+  </si>
+  <si>
+    <t>y^</t>
+  </si>
+  <si>
+    <t>L(t)</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>p[user]</t>
+  </si>
+  <si>
+    <t>t=7</t>
+  </si>
+  <si>
+    <t>t=9</t>
+  </si>
+  <si>
+    <t>s+=R/100*(9-7)</t>
+  </si>
+  <si>
+    <t>t=12</t>
+  </si>
+  <si>
+    <t>s+=R/200*(12-9)</t>
+  </si>
+  <si>
+    <t>t=14</t>
+  </si>
+  <si>
+    <t>s+=R/300(14-12)</t>
+  </si>
+  <si>
+    <t>t=18</t>
+  </si>
+  <si>
+    <t>s+=R/100*(18-14)</t>
+  </si>
+  <si>
+    <t>因为在t=12时小黄的代币数量变化了，所以要计算出变化前的收益。并且更新p[小黄]为s=R/100*(9-7)+R/200*(12-9)</t>
+  </si>
+  <si>
+    <t>小黄</t>
+  </si>
+  <si>
+    <t>reward=(R/100*(9-7)+R/200*(12-9)-p[user])*100=3.5R</t>
+  </si>
+  <si>
+    <t>p[user]取0</t>
+  </si>
+  <si>
+    <t>reward=(R/300(14-12)+R/200*(12-9)+R/100*(9-7)-p[user])*200+reward=4.83R（4+5/6）</t>
+  </si>
+  <si>
+    <t>p[user]取R/100*(9-7)+R/200*(12-9)</t>
+  </si>
+  <si>
+    <t>大熊</t>
+  </si>
+  <si>
+    <t>reward=(R/100*(18-14)+R/300(14-12)+R/200*(12-9)+R/100*(9-7)-p[user])*100=6.17R(6+1/6)</t>
+  </si>
+  <si>
+    <t>p[user]取R/100*(9-7)</t>
+  </si>
+  <si>
+    <t>单个ETH价格 (DAI)（交易时）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ETH </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DAI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>ΔX</t>
     </r>
     <r>
@@ -632,21 +1115,50 @@
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
   </si>
   <si>
+    <t>x/y(兑价)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.6"/>
+        <color rgb="FF555555"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成本</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>购买时计价的</t>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -654,9 +1166,9 @@
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">DAI </t>
+        <family val="2"/>
+      </rPr>
+      <t>DAI</t>
     </r>
     <r>
       <rPr>
@@ -664,461 +1176,7 @@
         <sz val="9.6"/>
         <color rgb="FF555555"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Calibri"/>
-        <charset val="161"/>
-      </rPr>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DAI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计价流动量</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DAI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流动量</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计算</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>k</t>
-    </r>
-  </si>
-  <si>
-    <t>50%的手续费</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>y1</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>fee=L2-L2</t>
-  </si>
-  <si>
-    <t>流动性的百分比</t>
-  </si>
-  <si>
-    <t>x^（x的增量）</t>
-  </si>
-  <si>
-    <t>y^（y的增量）</t>
-  </si>
-  <si>
-    <t>x^+y^</t>
-  </si>
-  <si>
-    <t>流动性的百分比(fee/L2)</t>
-  </si>
-  <si>
-    <t>x^</t>
-  </si>
-  <si>
-    <t>y^</t>
-  </si>
-  <si>
-    <t>L(t)</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>p[user]</t>
-  </si>
-  <si>
-    <t>t=7</t>
-  </si>
-  <si>
-    <t>t=9</t>
-  </si>
-  <si>
-    <t>s+=R/100*(9-7)</t>
-  </si>
-  <si>
-    <t>t=12</t>
-  </si>
-  <si>
-    <t>s+=R/200*(12-9)</t>
-  </si>
-  <si>
-    <t>t=14</t>
-  </si>
-  <si>
-    <t>s+=R/300(14-12)</t>
-  </si>
-  <si>
-    <t>t=18</t>
-  </si>
-  <si>
-    <t>s+=R/100*(18-14)</t>
-  </si>
-  <si>
-    <t>因为在t=12时小黄的代币数量变化了，所以要计算出变化前的收益。并且更新p[小黄]为s=R/100*(9-7)+R/200*(12-9)</t>
-  </si>
-  <si>
-    <t>小黄</t>
-  </si>
-  <si>
-    <t>reward=(R/100*(9-7)+R/200*(12-9)-p[user])*100=3.5R</t>
-  </si>
-  <si>
-    <t>p[user]取0</t>
-  </si>
-  <si>
-    <t>reward=(R/300(14-12)+R/200*(12-9)+R/100*(9-7)-p[user])*200+reward=4.83R（4+5/6）</t>
-  </si>
-  <si>
-    <t>p[user]取R/100*(9-7)+R/200*(12-9)</t>
-  </si>
-  <si>
-    <t>大熊</t>
-  </si>
-  <si>
-    <t>reward=(R/100*(18-14)+R/300(14-12)+R/200*(12-9)+R/100*(9-7)-p[user])*100=6.17R(6+1/6)</t>
-  </si>
-  <si>
-    <t>p[user]取R/100*(9-7)</t>
-  </si>
-  <si>
-    <t>单个ETH价格 (DAI)（交易时）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输入的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ETH </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Calibri"/>
-        <charset val="161"/>
-      </rPr>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">DAI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ΔX</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>x/y(兑价)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投入</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成本</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DAI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.6"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -1179,29 +1237,35 @@
   </si>
   <si>
     <t>代码使用问题</t>
+  </si>
+  <si>
+    <t>2023.1.12</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印事件参数是否正确</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="12">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000%"/>
-    <numFmt numFmtId="180" formatCode="0.000%"/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.000_ "/>
-    <numFmt numFmtId="183" formatCode="0.0000_ "/>
-    <numFmt numFmtId="184" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
-    <numFmt numFmtId="185" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0.0000%"/>
+    <numFmt numFmtId="182" formatCode="0.000%"/>
+    <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="184" formatCode="0.000_ "/>
+    <numFmt numFmtId="185" formatCode="0.0000_ "/>
+    <numFmt numFmtId="186" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
+    <numFmt numFmtId="187" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1214,37 +1278,39 @@
       <sz val="9.6"/>
       <color rgb="FF555555"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.6"/>
       <color rgb="FF555555"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="MJXc-TeX-math-I"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF4D4D4D"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9.6"/>
       <color rgb="FF555555"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1252,6 +1318,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1259,12 +1326,14 @@
       <sz val="9.6"/>
       <color rgb="FF555555"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1272,151 +1341,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1424,6 +1350,7 @@
       <sz val="9.6"/>
       <color rgb="FF555555"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1431,17 +1358,33 @@
       <sz val="9.6"/>
       <color rgb="FF555555"/>
       <name val="Calibri"/>
-      <charset val="161"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9.6"/>
       <color rgb="FF555555"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1466,188 +1409,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1699,255 +1462,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1960,35 +1493,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2000,45 +1527,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2047,23 +1562,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="40" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="6" fillId="4" borderId="1" xfId="40" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2077,105 +1589,89 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="4" borderId="1" xfId="40" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="5">
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
+    <cellStyle name="千位分隔[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="着色 4" xfId="4" builtinId="41"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -2191,13 +1687,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2218,7 +1720,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -2234,13 +1736,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2272,13 +1780,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2310,13 +1824,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2348,13 +1868,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2386,13 +1912,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2424,13 +1956,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2702,24 +2240,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H8" sqref="H8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="47" customWidth="1"/>
-    <col min="6" max="7" width="14.5" style="47" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="40" customWidth="1"/>
+    <col min="6" max="7" width="14.5" style="40" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="9.875" customWidth="1"/>
@@ -2727,7 +2265,7 @@
     <col min="16" max="16" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.75" spans="1:17">
+    <row r="1" spans="1:17" ht="42.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2737,16 +2275,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2780,10 +2318,10 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3">
         <v>100000</v>
@@ -2808,29 +2346,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>100.1001001</v>
-      </c>
-      <c r="C3" s="39">
-        <v>0.001</v>
-      </c>
-      <c r="D3" s="49">
+        <v>100.10010010000001</v>
+      </c>
+      <c r="C3" s="32">
+        <v>1E-3</v>
+      </c>
+      <c r="D3" s="42">
         <f t="shared" ref="D3:D10" si="0">H3-A3*100</f>
-        <v>0.100100100000006</v>
-      </c>
-      <c r="E3" s="36">
+        <v>0.10010010000000591</v>
+      </c>
+      <c r="E3" s="30">
         <f>(H3-A3*100)/(A3*100)</f>
-        <v>0.00100100100000006</v>
-      </c>
-      <c r="F3" s="36">
+        <v>1.001001000000059E-3</v>
+      </c>
+      <c r="F3" s="30">
         <f>(H3-A3*100)</f>
-        <v>0.100100100000006</v>
-      </c>
-      <c r="G3" s="50">
+        <v>0.10010010000000591</v>
+      </c>
+      <c r="G3" s="43">
         <f>A3*100</f>
         <v>100</v>
       </c>
       <c r="H3" s="3">
-        <v>100.1001001</v>
+        <v>100.10010010000001</v>
       </c>
       <c r="I3" s="3">
         <v>100100.1001</v>
@@ -2845,10 +2383,10 @@
         <v>100.2003004</v>
       </c>
       <c r="M3" s="3">
-        <v>0.001001001</v>
+        <v>1.0010010000000001E-3</v>
       </c>
       <c r="N3" s="3">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -2859,24 +2397,24 @@
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>101.010101</v>
-      </c>
-      <c r="C4" s="39">
-        <v>0.0101</v>
-      </c>
-      <c r="D4" s="49">
+        <v>101.01010100000001</v>
+      </c>
+      <c r="C4" s="32">
+        <v>1.01E-2</v>
+      </c>
+      <c r="D4" s="42">
         <f t="shared" si="0"/>
-        <v>10.10101</v>
-      </c>
-      <c r="E4" s="36">
+        <v>10.101009999999974</v>
+      </c>
+      <c r="E4" s="30">
         <f>(H4-A4*100)/(A4*100)</f>
-        <v>0.01010101</v>
-      </c>
-      <c r="F4" s="36">
+        <v>1.0101009999999975E-2</v>
+      </c>
+      <c r="F4" s="30">
         <f t="shared" ref="F4:F10" si="1">(H4-A4*100)</f>
-        <v>10.10101</v>
-      </c>
-      <c r="G4" s="50">
+        <v>10.101009999999974</v>
+      </c>
+      <c r="G4" s="43">
         <f t="shared" ref="G4:G10" si="2">A4*100</f>
         <v>1000</v>
       </c>
@@ -2896,7 +2434,7 @@
         <v>102.0304051</v>
       </c>
       <c r="M4" s="3">
-        <v>0.01010101</v>
+        <v>1.0101010000000001E-2</v>
       </c>
       <c r="N4" s="3">
         <v>0.01</v>
@@ -2912,30 +2450,30 @@
       <c r="B5" s="3">
         <v>105.2631579</v>
       </c>
-      <c r="C5" s="39">
-        <v>0.0526</v>
-      </c>
-      <c r="D5" s="49">
+      <c r="C5" s="32">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="D5" s="42">
         <f t="shared" si="0"/>
-        <v>263.157895</v>
-      </c>
-      <c r="E5" s="36">
+        <v>263.15789500000028</v>
+      </c>
+      <c r="E5" s="30">
         <f>(H5-A5*100)/(A5*100)</f>
-        <v>0.0526315790000001</v>
-      </c>
-      <c r="F5" s="36">
+        <v>5.2631579000000053E-2</v>
+      </c>
+      <c r="F5" s="30">
         <f t="shared" si="1"/>
-        <v>263.157895</v>
-      </c>
-      <c r="G5" s="50">
+        <v>263.15789500000028</v>
+      </c>
+      <c r="G5" s="43">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
       <c r="H5" s="3">
-        <v>5263.157895</v>
+        <v>5263.1578950000003</v>
       </c>
       <c r="I5" s="3">
-        <v>105263.1579</v>
+        <v>105263.15790000001</v>
       </c>
       <c r="J5" s="3">
         <v>950</v>
@@ -2947,7 +2485,7 @@
         <v>110.8033241</v>
       </c>
       <c r="M5" s="3">
-        <v>0.052631579</v>
+        <v>5.2631578999999998E-2</v>
       </c>
       <c r="N5" s="3">
         <v>0.05</v>
@@ -2963,22 +2501,22 @@
       <c r="B6" s="3">
         <v>111.1111111</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="32">
         <v>0.1111</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="42">
         <f t="shared" si="0"/>
-        <v>1111.11111</v>
-      </c>
-      <c r="E6" s="36">
+        <v>1111.1111099999998</v>
+      </c>
+      <c r="E6" s="30">
         <f t="shared" ref="E6:E10" si="3">(H6-A6*100)/(A6*100)</f>
-        <v>0.111111111</v>
-      </c>
-      <c r="F6" s="36">
+        <v>0.11111111099999998</v>
+      </c>
+      <c r="F6" s="30">
         <f t="shared" si="1"/>
-        <v>1111.11111</v>
-      </c>
-      <c r="G6" s="50">
+        <v>1111.1111099999998</v>
+      </c>
+      <c r="G6" s="43">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
@@ -2986,7 +2524,7 @@
         <v>11111.11111</v>
       </c>
       <c r="I6" s="3">
-        <v>111111.1111</v>
+        <v>111111.11109999999</v>
       </c>
       <c r="J6" s="3">
         <v>900</v>
@@ -2995,7 +2533,7 @@
         <v>100000000</v>
       </c>
       <c r="L6" s="3">
-        <v>123.4567901</v>
+        <v>123.45679010000001</v>
       </c>
       <c r="M6" s="3">
         <v>0.111111111</v>
@@ -3014,22 +2552,22 @@
       <c r="B7" s="3">
         <v>125</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="32">
         <v>0.25</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="42">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="30">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="43">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="43">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
@@ -3065,22 +2603,22 @@
       <c r="B8" s="3">
         <v>200</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="32">
         <v>1</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="42">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="43">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="43">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
@@ -3116,22 +2654,22 @@
       <c r="B9" s="3">
         <v>500</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="32">
         <v>4</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="42">
         <f t="shared" si="0"/>
         <v>320000</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="43">
         <f t="shared" si="1"/>
         <v>320000</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="43">
         <f t="shared" si="2"/>
         <v>80000</v>
       </c>
@@ -3167,22 +2705,22 @@
       <c r="B10" s="3">
         <v>100000</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="32">
         <v>999</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="42">
         <f t="shared" si="0"/>
         <v>99800100</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="30">
         <f t="shared" si="3"/>
         <v>999</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="43">
         <f t="shared" si="1"/>
         <v>99800100</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="43">
         <f t="shared" si="2"/>
         <v>99900</v>
       </c>
@@ -3211,13 +2749,13 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="14" spans="8:8">
-      <c r="H14" s="51" t="s">
+    <row r="14" spans="1:17">
+      <c r="H14" s="44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="18" customHeight="1"/>
-    <row r="16" ht="49.5" spans="1:17">
+    <row r="15" spans="1:17" ht="18" customHeight="1"/>
+    <row r="16" spans="1:17" ht="49.5">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -3227,16 +2765,16 @@
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="46" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -3269,11 +2807,11 @@
     <row r="17" spans="1:17">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3">
         <v>100000</v>
@@ -3296,29 +2834,29 @@
     <row r="18" spans="1:17">
       <c r="A18" s="3">
         <f>1000-J18</f>
-        <v>0.999000999001055</v>
+        <v>0.99900099900105488</v>
       </c>
       <c r="B18" s="3">
         <f>H18/A18</f>
-        <v>100.099999999994</v>
-      </c>
-      <c r="C18" s="37">
+        <v>100.0999999999944</v>
+      </c>
+      <c r="C18" s="31">
         <f>E18</f>
-        <v>-0.000999000998945121</v>
-      </c>
-      <c r="D18" s="49">
+        <v>-9.9900099894512095E-4</v>
+      </c>
+      <c r="D18" s="42">
         <f>H18/100-A18</f>
-        <v>0.000999000998945121</v>
-      </c>
-      <c r="E18" s="36">
+        <v>9.9900099894512095E-4</v>
+      </c>
+      <c r="E18" s="30">
         <f t="shared" ref="E18:E25" si="4">(A18-H18/100)/(H18/100)</f>
-        <v>-0.000999000998945121</v>
-      </c>
-      <c r="F18" s="36">
+        <v>-9.9900099894512095E-4</v>
+      </c>
+      <c r="F18" s="30">
         <f>A18-H18/100</f>
-        <v>-0.000999000998945121</v>
-      </c>
-      <c r="G18" s="50">
+        <v>-9.9900099894512095E-4</v>
+      </c>
+      <c r="G18" s="43">
         <f>H18/100</f>
         <v>1</v>
       </c>
@@ -3330,22 +2868,22 @@
       </c>
       <c r="J18" s="3">
         <f>K18/I18</f>
-        <v>999.000999000999</v>
+        <v>999.00099900099895</v>
       </c>
       <c r="K18" s="3">
         <v>100000000</v>
       </c>
       <c r="L18" s="3">
         <f>I18/J18</f>
-        <v>100.2001</v>
+        <v>100.20010000000001</v>
       </c>
       <c r="M18" s="3">
         <f>H18/100000</f>
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="N18" s="3">
         <f>A18/1000</f>
-        <v>0.000999000999001055</v>
+        <v>9.9900099900105494E-4</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -3354,29 +2892,29 @@
     <row r="19" spans="1:17">
       <c r="A19" s="3">
         <f t="shared" ref="A19:A25" si="5">1000-J19</f>
-        <v>9.90099009900985</v>
+        <v>9.9009900990098458</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" ref="B19:B25" si="6">H19/A19</f>
-        <v>101.000000000001</v>
-      </c>
-      <c r="C19" s="37">
+        <v>101.00000000000057</v>
+      </c>
+      <c r="C19" s="31">
         <f>E19</f>
-        <v>-0.00990099009901542</v>
-      </c>
-      <c r="D19" s="49">
+        <v>-9.9009900990154158E-3</v>
+      </c>
+      <c r="D19" s="42">
         <f t="shared" ref="D19:D25" si="7">H19/100-A19</f>
-        <v>0.0990099009901542</v>
-      </c>
-      <c r="E19" s="36">
+        <v>9.9009900990154165E-2</v>
+      </c>
+      <c r="E19" s="30">
         <f t="shared" si="4"/>
-        <v>-0.00990099009901542</v>
-      </c>
-      <c r="F19" s="36">
+        <v>-9.9009900990154158E-3</v>
+      </c>
+      <c r="F19" s="30">
         <f t="shared" ref="F19:F25" si="8">A19-H19/100</f>
-        <v>-0.0990099009901542</v>
-      </c>
-      <c r="G19" s="50">
+        <v>-9.9009900990154165E-2</v>
+      </c>
+      <c r="G19" s="43">
         <f t="shared" ref="G19:G25" si="9">H19/100</f>
         <v>10</v>
       </c>
@@ -3388,14 +2926,14 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" ref="J19:J25" si="10">K19/I19</f>
-        <v>990.09900990099</v>
+        <v>990.09900990099015</v>
       </c>
       <c r="K19" s="3">
         <v>100000000</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" ref="L19:L25" si="11">I19/J19</f>
-        <v>102.01</v>
+        <v>102.00999999999999</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" ref="M19:M25" si="12">H19/100000</f>
@@ -3403,7 +2941,7 @@
       </c>
       <c r="N19" s="3">
         <f t="shared" ref="N19:N25" si="13">A19/1000</f>
-        <v>0.00990099009900985</v>
+        <v>9.9009900990098456E-3</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -3412,29 +2950,29 @@
     <row r="20" spans="1:17">
       <c r="A20" s="3">
         <f t="shared" si="5"/>
-        <v>47.6190476190476</v>
+        <v>47.619047619047592</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="6"/>
-        <v>105</v>
-      </c>
-      <c r="C20" s="37">
+        <v>105.00000000000006</v>
+      </c>
+      <c r="C20" s="31">
         <f t="shared" ref="C20:C25" si="14">E20</f>
-        <v>-0.0476190476190482</v>
-      </c>
-      <c r="D20" s="49">
+        <v>-4.7619047619048158E-2</v>
+      </c>
+      <c r="D20" s="42">
         <f t="shared" si="7"/>
-        <v>2.38095238095241</v>
-      </c>
-      <c r="E20" s="36">
+        <v>2.380952380952408</v>
+      </c>
+      <c r="E20" s="30">
         <f t="shared" si="4"/>
-        <v>-0.0476190476190482</v>
-      </c>
-      <c r="F20" s="36">
+        <v>-4.7619047619048158E-2</v>
+      </c>
+      <c r="F20" s="30">
         <f t="shared" si="8"/>
-        <v>-2.38095238095241</v>
-      </c>
-      <c r="G20" s="50">
+        <v>-2.380952380952408</v>
+      </c>
+      <c r="G20" s="43">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
@@ -3446,7 +2984,7 @@
       </c>
       <c r="J20" s="3">
         <f t="shared" si="10"/>
-        <v>952.380952380952</v>
+        <v>952.38095238095241</v>
       </c>
       <c r="K20" s="3">
         <v>100000000</v>
@@ -3461,7 +2999,7 @@
       </c>
       <c r="N20" s="3">
         <f t="shared" si="13"/>
-        <v>0.0476190476190476</v>
+        <v>4.7619047619047589E-2</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -3470,29 +3008,29 @@
     <row r="21" spans="1:17">
       <c r="A21" s="3">
         <f t="shared" si="5"/>
-        <v>90.9090909090909</v>
+        <v>90.909090909090878</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-      <c r="C21" s="37">
+        <v>110.00000000000004</v>
+      </c>
+      <c r="C21" s="31">
         <f t="shared" si="14"/>
-        <v>-0.0909090909090912</v>
-      </c>
-      <c r="D21" s="49">
+        <v>-9.0909090909091217E-2</v>
+      </c>
+      <c r="D21" s="42">
         <f t="shared" si="7"/>
-        <v>9.09090909090912</v>
-      </c>
-      <c r="E21" s="36">
+        <v>9.0909090909091219</v>
+      </c>
+      <c r="E21" s="30">
         <f t="shared" si="4"/>
-        <v>-0.0909090909090912</v>
-      </c>
-      <c r="F21" s="36">
+        <v>-9.0909090909091217E-2</v>
+      </c>
+      <c r="F21" s="30">
         <f t="shared" si="8"/>
-        <v>-9.09090909090912</v>
-      </c>
-      <c r="G21" s="50">
+        <v>-9.0909090909091219</v>
+      </c>
+      <c r="G21" s="43">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
@@ -3504,7 +3042,7 @@
       </c>
       <c r="J21" s="3">
         <f t="shared" si="10"/>
-        <v>909.090909090909</v>
+        <v>909.09090909090912</v>
       </c>
       <c r="K21" s="3">
         <v>100000000</v>
@@ -3519,7 +3057,7 @@
       </c>
       <c r="N21" s="3">
         <f t="shared" si="13"/>
-        <v>0.0909090909090909</v>
+        <v>9.0909090909090884E-2</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -3534,23 +3072,23 @@
         <f t="shared" si="6"/>
         <v>125</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="31">
         <f t="shared" si="14"/>
         <v>-0.2</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="42">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="30">
         <f t="shared" si="4"/>
         <v>-0.2</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="43">
         <f t="shared" si="8"/>
         <v>-50</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G22" s="43">
         <f t="shared" si="9"/>
         <v>250</v>
       </c>
@@ -3592,23 +3130,23 @@
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="31">
         <f t="shared" si="14"/>
         <v>-0.5</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="42">
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="30">
         <f t="shared" si="4"/>
         <v>-0.5</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23" s="43">
         <f t="shared" si="8"/>
         <v>-500</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="43">
         <f t="shared" si="9"/>
         <v>1000</v>
       </c>
@@ -3650,23 +3188,23 @@
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="31">
         <f t="shared" si="14"/>
         <v>-0.8</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="42">
         <f t="shared" si="7"/>
         <v>3200</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="30">
         <f t="shared" si="4"/>
         <v>-0.8</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="43">
         <f t="shared" si="8"/>
         <v>-3200</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G24" s="43">
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
@@ -3708,23 +3246,23 @@
         <f t="shared" si="6"/>
         <v>100000</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="31">
         <f t="shared" si="14"/>
         <v>-0.999</v>
       </c>
-      <c r="D25" s="49">
+      <c r="D25" s="42">
         <f t="shared" si="7"/>
         <v>998001</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="30">
         <f t="shared" si="4"/>
         <v>-0.999</v>
       </c>
-      <c r="F25" s="50">
+      <c r="F25" s="43">
         <f t="shared" si="8"/>
         <v>-998001</v>
       </c>
-      <c r="G25" s="50">
+      <c r="G25" s="43">
         <f t="shared" si="9"/>
         <v>999000</v>
       </c>
@@ -3758,22 +3296,21 @@
       <c r="Q25" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -3817,11 +3354,11 @@
       <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="4:7">
+    <row r="3" spans="1:7">
       <c r="D3">
         <v>1000</v>
       </c>
@@ -3831,11 +3368,11 @@
       <c r="F3">
         <v>-100</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="38">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" spans="1:7">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -3848,11 +3385,11 @@
       <c r="F4">
         <v>-100</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="38">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="4:7">
+    <row r="5" spans="1:7">
       <c r="D5">
         <v>1000</v>
       </c>
@@ -3862,7 +3399,7 @@
       <c r="F5">
         <v>100</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3885,11 +3422,11 @@
       <c r="F7">
         <v>100</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="38">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="4:7">
+    <row r="8" spans="1:7">
       <c r="D8">
         <v>1000</v>
       </c>
@@ -3899,11 +3436,11 @@
       <c r="F8">
         <v>-100</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="38">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="1:7">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -3916,11 +3453,11 @@
       <c r="F9">
         <v>-100</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="38">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
+    <row r="10" spans="1:7">
       <c r="D10">
         <v>1000</v>
       </c>
@@ -3930,19 +3467,18 @@
       <c r="F10">
         <v>100</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="38">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
@@ -3956,21 +3492,21 @@
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" customHeight="1" spans="1:12">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -4004,43 +3540,43 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" ht="24.75" spans="1:12">
+    <row r="3" spans="1:12" ht="24.75">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="32">
         <v>0</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="32">
         <v>0.25</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="32">
         <v>0.503</v>
       </c>
-      <c r="F3" s="39">
-        <v>0.7561</v>
-      </c>
-      <c r="G3" s="39">
+      <c r="F3" s="32">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="G3" s="32">
         <v>1</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="32">
         <f>H7/100</f>
         <v>1.2</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="32">
         <v>1.5625</v>
       </c>
-      <c r="J3" s="39">
-        <v>2.0408</v>
-      </c>
-      <c r="K3" s="39">
+      <c r="J3" s="32">
+        <v>2.0407999999999999</v>
+      </c>
+      <c r="K3" s="32">
         <v>4</v>
       </c>
-      <c r="L3" s="39">
-        <v>4.9383</v>
+      <c r="L3" s="32">
+        <v>4.9382999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4067,7 +3603,7 @@
       </c>
       <c r="H4" s="3">
         <f>SQRT(H6/H7)</f>
-        <v>91.2870929175277</v>
+        <v>91.287092917527687</v>
       </c>
       <c r="I4" s="3">
         <v>80</v>
@@ -4090,7 +3626,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="3">
-        <v>0.316227732</v>
+        <v>0.31622773199999998</v>
       </c>
       <c r="D5" s="3">
         <v>5000</v>
@@ -4099,14 +3635,14 @@
         <v>7092.198582</v>
       </c>
       <c r="F5" s="3">
-        <v>8695.652174</v>
+        <v>8695.6521740000007</v>
       </c>
       <c r="G5" s="3">
         <v>10000</v>
       </c>
       <c r="H5" s="3">
         <f>SQRT(H6*H7)</f>
-        <v>10954.4511501033</v>
+        <v>10954.451150103323</v>
       </c>
       <c r="I5" s="3">
         <v>12500</v>
@@ -4159,41 +3695,41 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3"/>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="41">
-        <v>1e-7</v>
-      </c>
-      <c r="D7" s="40">
+      <c r="C7" s="34">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D7" s="33">
         <v>25</v>
       </c>
-      <c r="E7" s="40">
-        <v>50.29928072</v>
-      </c>
-      <c r="F7" s="40">
+      <c r="E7" s="33">
+        <v>50.299280719999999</v>
+      </c>
+      <c r="F7" s="33">
         <v>75.61436673</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="33">
         <v>100</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="33">
         <v>120</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="33">
         <v>156.25</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="33">
         <v>204.0816327</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="33">
         <v>400</v>
       </c>
-      <c r="L7" s="40">
-        <v>493.8271605</v>
-      </c>
-    </row>
-    <row r="8" ht="25.5" spans="1:12">
+      <c r="L7" s="33">
+        <v>493.82716049999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="25.5">
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
@@ -4210,7 +3746,7 @@
         <v>15029.92807</v>
       </c>
       <c r="F8" s="3">
-        <v>17561.43667</v>
+        <v>17561.436669999999</v>
       </c>
       <c r="G8" s="3">
         <v>20000</v>
@@ -4223,17 +3759,17 @@
         <v>25625</v>
       </c>
       <c r="J8" s="3">
-        <v>30408.16327</v>
+        <v>30408.163270000001</v>
       </c>
       <c r="K8" s="3">
         <v>50000</v>
       </c>
       <c r="L8" s="3">
-        <v>59382.71605</v>
-      </c>
-    </row>
-    <row r="9" ht="37.5" spans="1:12">
-      <c r="A9" s="42" t="s">
+        <v>59382.716050000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="37.5">
+      <c r="A9" s="35" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4256,7 +3792,7 @@
       </c>
       <c r="H9" s="3">
         <f>H4*H7+H5</f>
-        <v>21908.9023002066</v>
+        <v>21908.902300206646</v>
       </c>
       <c r="I9" s="3">
         <v>25000</v>
@@ -4271,189 +3807,188 @@
         <v>44444</v>
       </c>
     </row>
-    <row r="10" ht="25.5" spans="1:12">
+    <row r="10" spans="1:12" ht="25.5">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="39">
-        <v>0.0001</v>
-      </c>
-      <c r="D10" s="39">
+      <c r="C10" s="32">
+        <v>1E-4</v>
+      </c>
+      <c r="D10" s="32">
         <v>0.8</v>
       </c>
-      <c r="E10" s="39">
-        <v>0.9437</v>
-      </c>
-      <c r="F10" s="39">
-        <v>0.9903</v>
-      </c>
-      <c r="G10" s="39">
+      <c r="E10" s="32">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="G10" s="32">
         <v>1</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="32">
         <f>H9/H8</f>
-        <v>0.995859195463938</v>
-      </c>
-      <c r="I10" s="39">
-        <v>0.9756</v>
-      </c>
-      <c r="J10" s="39">
-        <v>0.9396</v>
-      </c>
-      <c r="K10" s="39">
+        <v>0.99585919546393842</v>
+      </c>
+      <c r="I10" s="32">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="J10" s="32">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="K10" s="32">
         <v>0.8</v>
       </c>
-      <c r="L10" s="39">
-        <v>0.7484</v>
+      <c r="L10" s="32">
+        <v>0.74839999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37">
         <f t="shared" ref="C11:H11" si="0">C9*1.1/C8</f>
-        <v>0.00010999999989</v>
-      </c>
-      <c r="D11" s="44">
+        <v>1.0999999989000001E-4</v>
+      </c>
+      <c r="D11" s="37">
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="37">
         <f t="shared" si="0"/>
-        <v>1.03808880038107</v>
-      </c>
-      <c r="F11" s="44">
+        <v>1.0380888003810653</v>
+      </c>
+      <c r="F11" s="37">
         <f t="shared" si="0"/>
-        <v>1.08932431665342</v>
-      </c>
-      <c r="G11" s="44">
+        <v>1.0893243166534166</v>
+      </c>
+      <c r="G11" s="37">
         <f t="shared" si="0"/>
-        <v>1.1</v>
-      </c>
-      <c r="H11" s="44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H11" s="37">
         <f t="shared" si="0"/>
-        <v>1.09544511501033</v>
-      </c>
-      <c r="I11" s="44">
+        <v>1.0954451150103324</v>
+      </c>
+      <c r="I11" s="37">
         <f t="shared" ref="I11:L11" si="1">I9*1.1/I8</f>
-        <v>1.07317073170732</v>
-      </c>
-      <c r="J11" s="44">
+        <v>1.0731707317073171</v>
+      </c>
+      <c r="J11" s="37">
         <f t="shared" si="1"/>
-        <v>1.03354154346462</v>
-      </c>
-      <c r="K11" s="44">
+        <v>1.0335415434646211</v>
+      </c>
+      <c r="K11" s="37">
         <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="37">
         <f t="shared" si="1"/>
-        <v>0.823276590428032</v>
+        <v>0.82327659042803247</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A13:L18"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4464,7 +3999,7 @@
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="16" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16" style="16" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
@@ -4477,29 +4012,29 @@
     <col min="18" max="18" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:2">
-      <c r="B1" s="31"/>
-    </row>
-    <row r="7" ht="62.25" spans="1:21">
+    <row r="1" spans="1:21" ht="15">
+      <c r="B1" s="25"/>
+    </row>
+    <row r="7" spans="1:21" ht="62.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="28" t="s">
         <v>61</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -4541,10 +4076,10 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -4576,50 +4111,50 @@
       </c>
       <c r="B9" s="3">
         <f>H9/A9</f>
-        <v>202.020202020201</v>
+        <v>202.0202020202014</v>
       </c>
       <c r="C9" s="3">
         <f>O9*L9+K9</f>
-        <v>20404.0404040404</v>
-      </c>
-      <c r="D9" s="35">
+        <v>20404.040404040403</v>
+      </c>
+      <c r="D9" s="29">
         <f>O9*$L$8+$K$8</f>
-        <v>20305.0709111315</v>
-      </c>
-      <c r="E9" s="36">
+        <v>20305.070911131515</v>
+      </c>
+      <c r="E9" s="30">
         <f>C9-D9</f>
-        <v>98.9694929088873</v>
-      </c>
-      <c r="F9" s="37">
+        <v>98.969492908887332</v>
+      </c>
+      <c r="F9" s="31">
         <f>O9/100</f>
-        <v>1.03050709111315</v>
-      </c>
-      <c r="G9" s="37">
+        <v>1.0305070911131518</v>
+      </c>
+      <c r="G9" s="31">
         <f>C9/D9</f>
-        <v>1.0048741269283</v>
+        <v>1.004874126928295</v>
       </c>
       <c r="H9" s="3">
         <f>(J9-$K$8)/$B$25</f>
-        <v>202.020202020201</v>
+        <v>202.0202020202014</v>
       </c>
       <c r="I9" s="3">
         <f>H9*0.9</f>
-        <v>181.818181818181</v>
+        <v>181.81818181818127</v>
       </c>
       <c r="J9" s="3">
         <f>N9/L9</f>
-        <v>10101.0101010101</v>
+        <v>10101.010101010101</v>
       </c>
       <c r="K9" s="3">
         <f>$K$8+H9</f>
-        <v>10202.0202020202</v>
+        <v>10202.020202020201</v>
       </c>
       <c r="L9" s="3">
         <v>99</v>
       </c>
       <c r="M9" s="3">
         <f>K9*L9</f>
-        <v>1010000</v>
+        <v>1009999.9999999999</v>
       </c>
       <c r="N9" s="3">
         <f>$K$8*$L$8</f>
@@ -4627,11 +4162,11 @@
       </c>
       <c r="O9" s="3">
         <f>K9/L9</f>
-        <v>103.050709111315</v>
-      </c>
-      <c r="P9" s="37">
+        <v>103.05070911131517</v>
+      </c>
+      <c r="P9" s="31">
         <f>1-J9/K9</f>
-        <v>0.00990099009900991</v>
+        <v>9.9009900990099098E-3</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -4646,50 +4181,50 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" ref="B10:B15" si="1">H10/A10</f>
-        <v>210.526315789474</v>
+        <v>210.52631578947404</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ref="C10:C11" si="2">O10*L10+K10</f>
-        <v>22105.2631578947</v>
-      </c>
-      <c r="D10" s="35">
+        <v>22105.26315789474</v>
+      </c>
+      <c r="D10" s="29">
         <f t="shared" ref="D10:D15" si="3">O10*$L$8+$K$8</f>
-        <v>21634.3490304709</v>
-      </c>
-      <c r="E10" s="36">
+        <v>21634.349030470916</v>
+      </c>
+      <c r="E10" s="30">
         <f t="shared" ref="E10:E12" si="4">C10-D10</f>
-        <v>470.914127423825</v>
-      </c>
-      <c r="F10" s="37">
+        <v>470.91412742382454</v>
+      </c>
+      <c r="F10" s="31">
         <f t="shared" ref="F10:F11" si="5">O10/100</f>
-        <v>1.16343490304709</v>
-      </c>
-      <c r="G10" s="37">
+        <v>1.1634349030470916</v>
+      </c>
+      <c r="G10" s="31">
         <f t="shared" ref="G10:G11" si="6">C10/D10</f>
-        <v>1.02176696542894</v>
+        <v>1.0217669654289374</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" ref="H10:H18" si="7">(J10-$K$8)/$B$25</f>
-        <v>1052.63157894737</v>
+        <v>1052.6315789473701</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" ref="I10:I11" si="8">H10*0.9</f>
-        <v>947.368421052633</v>
+        <v>947.36842105263315</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" ref="J10:J11" si="9">N10/L10</f>
-        <v>10526.3157894737</v>
+        <v>10526.315789473685</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" ref="K10:K15" si="10">$K$8+H10</f>
-        <v>11052.6315789474</v>
+        <v>11052.63157894737</v>
       </c>
       <c r="L10" s="3">
         <v>95</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" ref="M10:M11" si="11">K10*L10</f>
-        <v>1050000</v>
+        <v>1050000.0000000002</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" ref="N10:N15" si="12">$K$8*$L$8</f>
@@ -4697,11 +4232,11 @@
       </c>
       <c r="O10" s="3">
         <f t="shared" ref="O10:O11" si="13">K10/L10</f>
-        <v>116.343490304709</v>
-      </c>
-      <c r="P10" s="37">
+        <v>116.34349030470916</v>
+      </c>
+      <c r="P10" s="31">
         <f t="shared" ref="P10:P11" si="14">1-J10/K10</f>
-        <v>0.0476190476190477</v>
+        <v>4.7619047619047672E-2</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -4716,43 +4251,43 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="1"/>
-        <v>217.391304347826</v>
+        <v>217.39130434782601</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="2"/>
-        <v>23478.2608695652</v>
-      </c>
-      <c r="D11" s="35">
+        <v>23478.260869565216</v>
+      </c>
+      <c r="D11" s="29">
         <f t="shared" si="3"/>
-        <v>22759.9243856333</v>
-      </c>
-      <c r="E11" s="36">
+        <v>22759.924385633269</v>
+      </c>
+      <c r="E11" s="30">
         <f t="shared" si="4"/>
-        <v>718.336483931947</v>
-      </c>
-      <c r="F11" s="37">
+        <v>718.33648393194744</v>
+      </c>
+      <c r="F11" s="31">
         <f t="shared" si="5"/>
-        <v>1.27599243856333</v>
-      </c>
-      <c r="G11" s="37">
+        <v>1.275992438563327</v>
+      </c>
+      <c r="G11" s="31">
         <f t="shared" si="6"/>
-        <v>1.03156146179402</v>
+        <v>1.0315614617940199</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="7"/>
-        <v>1739.13043478261</v>
+        <v>1739.1304347826081</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="8"/>
-        <v>1565.21739130435</v>
+        <v>1565.2173913043473</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="9"/>
-        <v>10869.5652173913</v>
+        <v>10869.565217391304</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="10"/>
-        <v>11739.1304347826</v>
+        <v>11739.130434782608</v>
       </c>
       <c r="L11" s="3">
         <v>92</v>
@@ -4767,11 +4302,11 @@
       </c>
       <c r="O11" s="3">
         <f t="shared" si="13"/>
-        <v>127.599243856333</v>
-      </c>
-      <c r="P11" s="37">
+        <v>127.59924385633269</v>
+      </c>
+      <c r="P11" s="31">
         <f t="shared" si="14"/>
-        <v>0.0740740740740741</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -4786,43 +4321,43 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="1"/>
-        <v>222.222222222222</v>
+        <v>222.22222222222226</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:C18" si="15">O12*L12+K12</f>
-        <v>24444.4444444444</v>
-      </c>
-      <c r="D12" s="35">
+        <v>24444.444444444445</v>
+      </c>
+      <c r="D12" s="29">
         <f t="shared" si="3"/>
-        <v>23580.2469135802</v>
-      </c>
-      <c r="E12" s="36">
+        <v>23580.246913580246</v>
+      </c>
+      <c r="E12" s="30">
         <f t="shared" si="4"/>
-        <v>864.1975308642</v>
-      </c>
-      <c r="F12" s="37">
+        <v>864.19753086419951</v>
+      </c>
+      <c r="F12" s="31">
         <f t="shared" ref="F12:F18" si="16">O12/100</f>
-        <v>1.35802469135802</v>
-      </c>
-      <c r="G12" s="37">
+        <v>1.3580246913580247</v>
+      </c>
+      <c r="G12" s="31">
         <f t="shared" ref="G12:G18" si="17">C12/D12</f>
-        <v>1.03664921465969</v>
+        <v>1.036649214659686</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="7"/>
-        <v>2222.22222222222</v>
+        <v>2222.2222222222226</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" ref="I12:I18" si="18">H12*0.9</f>
-        <v>2000</v>
+        <v>2000.0000000000005</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" ref="J12:J18" si="19">N12/L12</f>
-        <v>11111.1111111111</v>
+        <v>11111.111111111111</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="10"/>
-        <v>12222.2222222222</v>
+        <v>12222.222222222223</v>
       </c>
       <c r="L12" s="3">
         <v>90</v>
@@ -4837,11 +4372,11 @@
       </c>
       <c r="O12" s="3">
         <f t="shared" ref="O12:O18" si="21">K12/L12</f>
-        <v>135.802469135802</v>
-      </c>
-      <c r="P12" s="37">
+        <v>135.80246913580248</v>
+      </c>
+      <c r="P12" s="31">
         <f t="shared" ref="P12:P18" si="22">1-J12/K12</f>
-        <v>0.0909090909090909</v>
+        <v>9.0909090909090939E-2</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -4862,21 +4397,21 @@
         <f t="shared" si="15"/>
         <v>30000</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="29">
         <f t="shared" si="3"/>
         <v>28750</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="30">
         <f t="shared" ref="E13:E18" si="23">C13-D13</f>
         <v>1250</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="31">
         <f t="shared" si="16"/>
         <v>1.875</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="31">
         <f t="shared" si="17"/>
-        <v>1.04347826086957</v>
+        <v>1.0434782608695652</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="7"/>
@@ -4909,9 +4444,9 @@
         <f t="shared" si="21"/>
         <v>187.5</v>
       </c>
-      <c r="P13" s="37">
+      <c r="P13" s="31">
         <f t="shared" si="22"/>
-        <v>0.166666666666667</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -4926,43 +4461,43 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="1"/>
-        <v>285.714285714286</v>
+        <v>285.71428571428572</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="15"/>
-        <v>37142.8571428571</v>
-      </c>
-      <c r="D14" s="35">
+        <v>37142.857142857145</v>
+      </c>
+      <c r="D14" s="29">
         <f t="shared" si="3"/>
-        <v>36530.612244898</v>
-      </c>
-      <c r="E14" s="36">
+        <v>36530.612244897959</v>
+      </c>
+      <c r="E14" s="30">
         <f t="shared" si="23"/>
-        <v>612.244897959186</v>
-      </c>
-      <c r="F14" s="37">
+        <v>612.24489795918635</v>
+      </c>
+      <c r="F14" s="31">
         <f t="shared" si="16"/>
-        <v>2.6530612244898</v>
-      </c>
-      <c r="G14" s="37">
+        <v>2.6530612244897958</v>
+      </c>
+      <c r="G14" s="31">
         <f t="shared" si="17"/>
-        <v>1.01675977653631</v>
+        <v>1.016759776536313</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="7"/>
-        <v>8571.42857142857</v>
+        <v>8571.4285714285725</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="18"/>
-        <v>7714.28571428572</v>
+        <v>7714.2857142857156</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="19"/>
-        <v>14285.7142857143</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="10"/>
-        <v>18571.4285714286</v>
+        <v>18571.428571428572</v>
       </c>
       <c r="L14" s="3">
         <v>70</v>
@@ -4977,11 +4512,11 @@
       </c>
       <c r="O14" s="3">
         <f t="shared" si="21"/>
-        <v>265.30612244898</v>
-      </c>
-      <c r="P14" s="37">
+        <v>265.30612244897958</v>
+      </c>
+      <c r="P14" s="31">
         <f t="shared" si="22"/>
-        <v>0.230769230769231</v>
+        <v>0.23076923076923084</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -5002,21 +4537,21 @@
         <f t="shared" si="15"/>
         <v>60000</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="29">
         <f t="shared" si="3"/>
         <v>70000</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="30">
         <f t="shared" si="23"/>
         <v>-10000</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="31">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="31">
         <f t="shared" si="17"/>
-        <v>0.857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="7"/>
@@ -5049,9 +4584,9 @@
         <f t="shared" si="21"/>
         <v>600</v>
       </c>
-      <c r="P15" s="37">
+      <c r="P15" s="31">
         <f t="shared" si="22"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -5066,31 +4601,31 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" ref="B16:B18" si="25">H16/A16</f>
-        <v>444.444444444444</v>
+        <v>444.44444444444446</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="15"/>
-        <v>68888.8888888889</v>
-      </c>
-      <c r="D16" s="35">
+        <v>68888.888888888891</v>
+      </c>
+      <c r="D16" s="29">
         <f t="shared" ref="D16:D18" si="26">O16*$L$8+$K$8</f>
-        <v>86543.2098765432</v>
-      </c>
-      <c r="E16" s="36">
+        <v>86543.209876543217</v>
+      </c>
+      <c r="E16" s="30">
         <f t="shared" si="23"/>
-        <v>-17654.3209876543</v>
-      </c>
-      <c r="F16" s="37">
+        <v>-17654.320987654326</v>
+      </c>
+      <c r="F16" s="31">
         <f t="shared" si="16"/>
-        <v>7.65432098765432</v>
-      </c>
-      <c r="G16" s="37">
+        <v>7.6543209876543212</v>
+      </c>
+      <c r="G16" s="31">
         <f t="shared" si="17"/>
-        <v>0.796005706134094</v>
+        <v>0.79600570613409416</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="7"/>
-        <v>24444.4444444444</v>
+        <v>24444.444444444445</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="18"/>
@@ -5098,11 +4633,11 @@
       </c>
       <c r="J16" s="3">
         <f t="shared" si="19"/>
-        <v>22222.2222222222</v>
+        <v>22222.222222222223</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" ref="K16:K18" si="27">$K$8+H16</f>
-        <v>34444.4444444444</v>
+        <v>34444.444444444445</v>
       </c>
       <c r="L16" s="3">
         <v>45</v>
@@ -5117,11 +4652,11 @@
       </c>
       <c r="O16" s="3">
         <f t="shared" si="21"/>
-        <v>765.432098765432</v>
-      </c>
-      <c r="P16" s="37">
+        <v>765.4320987654321</v>
+      </c>
+      <c r="P16" s="31">
         <f t="shared" si="22"/>
-        <v>0.354838709677419</v>
+        <v>0.35483870967741937</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -5142,21 +4677,21 @@
         <f t="shared" si="15"/>
         <v>180000</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="29">
         <f t="shared" si="26"/>
         <v>460000</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="30">
         <f t="shared" si="23"/>
         <v>-280000</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="31">
         <f t="shared" si="16"/>
         <v>45</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="31">
         <f t="shared" si="17"/>
-        <v>0.391304347826087</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="7"/>
@@ -5189,9 +4724,9 @@
         <f t="shared" si="21"/>
         <v>4500</v>
       </c>
-      <c r="P17" s="37">
+      <c r="P17" s="31">
         <f t="shared" si="22"/>
-        <v>0.444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -5212,21 +4747,21 @@
         <f t="shared" si="15"/>
         <v>3980000</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="29">
         <f t="shared" si="26"/>
         <v>199010000</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="30">
         <f t="shared" si="23"/>
         <v>-195030000</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="31">
         <f t="shared" si="16"/>
         <v>19900</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="31">
         <f t="shared" si="17"/>
-        <v>0.0199989950253756</v>
+        <v>1.999899502537561E-2</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="7"/>
@@ -5259,9 +4794,9 @@
         <f t="shared" si="21"/>
         <v>1990000</v>
       </c>
-      <c r="P18" s="37">
+      <c r="P18" s="31">
         <f t="shared" si="22"/>
-        <v>0.49748743718593</v>
+        <v>0.49748743718592969</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -5269,7 +4804,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -5279,15 +4814,14 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
@@ -5310,8 +4844,8 @@
     <col min="13" max="14" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="2:14">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:14" ht="18.75">
+      <c r="B1" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C1" t="s">
@@ -5332,10 +4866,10 @@
       <c r="H1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="17"/>
       <c r="L1" t="s">
         <v>75</v>
       </c>
@@ -5371,38 +4905,38 @@
       </c>
       <c r="G2">
         <f>SQRT(D2*E2)</f>
-        <v>2097.6176963403</v>
+        <v>2097.6176963403032</v>
       </c>
       <c r="H2">
         <f>G2-F2</f>
-        <v>97.6176963403032</v>
-      </c>
-      <c r="I2" s="24">
+        <v>97.617696340303155</v>
+      </c>
+      <c r="I2" s="18">
         <f>1-(SQRT(B2*C2)/SQRT(D2*E2))</f>
-        <v>0.0465374107544078</v>
-      </c>
-      <c r="J2" s="25">
+        <v>4.653741075440776E-2</v>
+      </c>
+      <c r="J2" s="19">
         <f>I2*F2/(1-I2)</f>
-        <v>97.6176963403033</v>
+        <v>97.617696340303254</v>
       </c>
       <c r="K2">
         <f>SQRT(D2*E2)*I2</f>
-        <v>97.6176963403033</v>
+        <v>97.617696340303254</v>
       </c>
       <c r="L2">
         <f>K2/G2*D2</f>
-        <v>102.382303659697</v>
+        <v>102.38230365969707</v>
       </c>
       <c r="M2">
         <f>H2/G2*E2</f>
-        <v>93.0748215088154</v>
+        <v>93.074821508815418</v>
       </c>
       <c r="N2">
         <f>L2+M2</f>
-        <v>195.457125168513</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14">
+        <v>195.4571251685125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="B3">
         <v>20000</v>
       </c>
@@ -5424,38 +4958,38 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G6" si="4">SQRT(D3*E3)</f>
-        <v>20099.7512422418</v>
+        <v>20099.751242241782</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H6" si="5">G3-F3</f>
-        <v>99.7512422417822</v>
-      </c>
-      <c r="I3" s="24">
+        <v>99.751242241782165</v>
+      </c>
+      <c r="I3" s="18">
         <f t="shared" ref="I3:I6" si="6">1-(SQRT(B3*C3)/SQRT(D3*E3))</f>
-        <v>0.00496280979001096</v>
-      </c>
-      <c r="J3" s="25">
+        <v>4.962809790010958E-3</v>
+      </c>
+      <c r="J3" s="19">
         <f t="shared" ref="J3:J6" si="7">I3*F3/(1-I3)</f>
-        <v>99.7512422417824</v>
+        <v>99.751242241782435</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K6" si="8">SQRT(D3*E3)*I3</f>
-        <v>99.7512422417824</v>
+        <v>99.751242241782435</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L6" si="9">K3/G3*D3</f>
-        <v>100.248757758221</v>
+        <v>100.24875775822136</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M6" si="10">H3/G3*E3</f>
-        <v>99.2561958002189</v>
+        <v>99.256195800218904</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N6" si="11">L3+M3</f>
-        <v>199.50495355844</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
+        <v>199.50495355844026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="B4">
         <v>200000</v>
       </c>
@@ -5477,38 +5011,38 @@
       </c>
       <c r="G4">
         <f t="shared" si="4"/>
-        <v>200099.975012492</v>
+        <v>200099.97501249218</v>
       </c>
       <c r="H4">
         <f t="shared" si="5"/>
-        <v>99.9750124921848</v>
-      </c>
-      <c r="I4" s="24">
+        <v>99.97501249218476</v>
+      </c>
+      <c r="I4" s="18">
         <f t="shared" si="6"/>
-        <v>0.000499625312226804</v>
-      </c>
-      <c r="J4" s="25">
+        <v>4.9962531222680351E-4</v>
+      </c>
+      <c r="J4" s="19">
         <f t="shared" si="7"/>
-        <v>99.975012492192</v>
+        <v>99.975012492191993</v>
       </c>
       <c r="K4">
         <f t="shared" si="8"/>
-        <v>99.975012492192</v>
+        <v>99.975012492191993</v>
       </c>
       <c r="L4">
         <f t="shared" si="9"/>
-        <v>100.024987507806</v>
+        <v>100.02498750780606</v>
       </c>
       <c r="M4">
         <f t="shared" si="10"/>
-        <v>99.9250624453535</v>
+        <v>99.925062445353475</v>
       </c>
       <c r="N4">
         <f t="shared" si="11"/>
-        <v>199.95004995316</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
+        <v>199.95004995315952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5">
         <v>2000000</v>
       </c>
@@ -5530,38 +5064,38 @@
       </c>
       <c r="G5">
         <f t="shared" si="4"/>
-        <v>2000099.99750013</v>
+        <v>2000099.9975001251</v>
       </c>
       <c r="H5">
         <f t="shared" si="5"/>
-        <v>99.9975001250859</v>
-      </c>
-      <c r="I5" s="24">
+        <v>99.997500125085935</v>
+      </c>
+      <c r="I5" s="18">
         <f t="shared" si="6"/>
-        <v>4.99962503125451e-5</v>
-      </c>
-      <c r="J5" s="26">
+        <v>4.9996250312545065E-5</v>
+      </c>
+      <c r="J5" s="20">
         <f t="shared" si="7"/>
-        <v>99.997500125137</v>
+        <v>99.997500125137009</v>
       </c>
       <c r="K5">
         <f t="shared" si="8"/>
-        <v>99.997500125137</v>
+        <v>99.997500125137009</v>
       </c>
       <c r="L5">
         <f t="shared" si="9"/>
-        <v>100.002499875153</v>
+        <v>100.00249987515264</v>
       </c>
       <c r="M5">
         <f t="shared" si="10"/>
-        <v>99.9925006250391</v>
+        <v>99.992500625039057</v>
       </c>
       <c r="N5">
         <f t="shared" si="11"/>
-        <v>199.995000500192</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
+        <v>199.99500050019168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6">
         <v>20000000</v>
       </c>
@@ -5583,39 +5117,39 @@
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
-        <v>20000099.99975</v>
+        <v>20000099.999749999</v>
       </c>
       <c r="H6">
         <f t="shared" si="5"/>
-        <v>99.9997499994934</v>
-      </c>
-      <c r="I6" s="27">
+        <v>99.999749999493361</v>
+      </c>
+      <c r="I6" s="21">
         <f t="shared" si="6"/>
-        <v>4.9999625002517e-6</v>
-      </c>
-      <c r="J6" s="28">
+        <v>4.9999625002516979E-6</v>
+      </c>
+      <c r="J6" s="22">
         <f t="shared" si="7"/>
-        <v>99.999750000034</v>
+        <v>99.999750000033998</v>
       </c>
       <c r="K6">
         <f t="shared" si="8"/>
-        <v>99.999750000034</v>
+        <v>99.999750000033984</v>
       </c>
       <c r="L6">
         <f t="shared" si="9"/>
-        <v>100.000249997534</v>
+        <v>100.00024999753401</v>
       </c>
       <c r="M6">
         <f t="shared" si="10"/>
-        <v>99.9992500044933</v>
+        <v>99.999250004493334</v>
       </c>
       <c r="N6">
         <f t="shared" si="11"/>
-        <v>199.999500002027</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" spans="2:14">
-      <c r="B16" s="22" t="s">
+        <v>199.99950000202733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.75">
+      <c r="B16" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C16" t="s">
@@ -5636,10 +5170,10 @@
       <c r="H16" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="23"/>
+      <c r="J16" s="17"/>
       <c r="L16" t="s">
         <v>79</v>
       </c>
@@ -5681,32 +5215,32 @@
         <f>G17-F17</f>
         <v>200</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="18">
         <f>1-(SQRT(B17*C17)/SQRT(D17*E17))</f>
-        <v>0.0909090909090909</v>
-      </c>
-      <c r="J17" s="24">
+        <v>9.0909090909090939E-2</v>
+      </c>
+      <c r="J17" s="18">
         <f>H17/G17</f>
-        <v>0.0909090909090909</v>
-      </c>
-      <c r="K17" s="29">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K17" s="23">
         <f>SQRT(D17*E17)*I17</f>
-        <v>200</v>
-      </c>
-      <c r="L17" s="30">
+        <v>200.00000000000006</v>
+      </c>
+      <c r="L17" s="24">
         <f>J17*D17</f>
         <v>200</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="24">
         <f>J17*E17</f>
         <v>200</v>
       </c>
-      <c r="N17" s="30">
+      <c r="N17" s="24">
         <f>L17+M17</f>
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="1:14">
       <c r="B18">
         <v>20000</v>
       </c>
@@ -5734,32 +5268,32 @@
         <f t="shared" ref="H18:H21" si="17">G18-F18</f>
         <v>200</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="18">
         <f t="shared" ref="I18:I21" si="18">1-(SQRT(B18*C18)/SQRT(D18*E18))</f>
-        <v>0.00990099009900991</v>
-      </c>
-      <c r="J18" s="24">
+        <v>9.9009900990099098E-3</v>
+      </c>
+      <c r="J18" s="18">
         <f t="shared" ref="J18:J21" si="19">H18/G18</f>
-        <v>0.0099009900990099</v>
-      </c>
-      <c r="K18" s="29">
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="K18" s="23">
         <f t="shared" ref="K18:K21" si="20">SQRT(D18*E18)*I18</f>
-        <v>200</v>
-      </c>
-      <c r="L18" s="30">
+        <v>200.00000000000017</v>
+      </c>
+      <c r="L18" s="24">
         <f t="shared" ref="L18:L21" si="21">J18*D18</f>
         <v>200</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="24">
         <f t="shared" ref="M18:M21" si="22">J18*E18</f>
         <v>200</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18" s="24">
         <f t="shared" ref="N18:N21" si="23">L18+M18</f>
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="1:14">
       <c r="B19">
         <v>200000</v>
       </c>
@@ -5787,32 +5321,32 @@
         <f t="shared" si="17"/>
         <v>200</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="18">
         <f t="shared" si="18"/>
-        <v>0.000999000999000965</v>
-      </c>
-      <c r="J19" s="24">
+        <v>9.9900099900096517E-4</v>
+      </c>
+      <c r="J19" s="18">
         <f t="shared" si="19"/>
-        <v>0.000999000999000999</v>
-      </c>
-      <c r="K19" s="29">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="K19" s="23">
         <f t="shared" si="20"/>
-        <v>199.999999999993</v>
-      </c>
-      <c r="L19" s="30">
+        <v>199.99999999999324</v>
+      </c>
+      <c r="L19" s="24">
         <f t="shared" si="21"/>
         <v>200</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="24">
         <f t="shared" si="22"/>
         <v>200</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="24">
         <f t="shared" si="23"/>
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="1:14">
       <c r="B20">
         <v>2000000</v>
       </c>
@@ -5840,32 +5374,32 @@
         <f t="shared" si="17"/>
         <v>200</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="18">
         <f t="shared" si="18"/>
-        <v>9.99900009999166e-5</v>
-      </c>
-      <c r="J20" s="24">
+        <v>9.9990000999916617E-5</v>
+      </c>
+      <c r="J20" s="18">
         <f t="shared" si="19"/>
-        <v>9.99900009999e-5</v>
-      </c>
-      <c r="K20" s="29">
+        <v>9.9990000999900015E-5</v>
+      </c>
+      <c r="K20" s="23">
         <f t="shared" si="20"/>
-        <v>200.000000000033</v>
-      </c>
-      <c r="L20" s="30">
+        <v>200.00000000003322</v>
+      </c>
+      <c r="L20" s="24">
         <f t="shared" si="21"/>
         <v>200</v>
       </c>
-      <c r="M20" s="30">
+      <c r="M20" s="24">
         <f t="shared" si="22"/>
         <v>200</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="24">
         <f t="shared" si="23"/>
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="1:14">
       <c r="B21">
         <v>20000000</v>
       </c>
@@ -5893,55 +5427,54 @@
         <f t="shared" si="17"/>
         <v>200</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="18">
         <f t="shared" si="18"/>
-        <v>9.99990000094542e-6</v>
-      </c>
-      <c r="J21" s="24">
+        <v>9.9999000009454164E-6</v>
+      </c>
+      <c r="J21" s="18">
         <f t="shared" si="19"/>
-        <v>9.99990000099999e-6</v>
-      </c>
-      <c r="K21" s="29">
+        <v>9.9999000009999908E-6</v>
+      </c>
+      <c r="K21" s="23">
         <f t="shared" si="20"/>
-        <v>199.999999998909</v>
-      </c>
-      <c r="L21" s="30">
+        <v>199.99999999890852</v>
+      </c>
+      <c r="L21" s="24">
         <f t="shared" si="21"/>
-        <v>200</v>
-      </c>
-      <c r="M21" s="30">
+        <v>200.00000000000003</v>
+      </c>
+      <c r="M21" s="24">
         <f t="shared" si="22"/>
-        <v>200</v>
-      </c>
-      <c r="N21" s="30">
+        <v>200.00000000000003</v>
+      </c>
+      <c r="N21" s="24">
         <f t="shared" si="23"/>
-        <v>400</v>
+        <v>400.00000000000006</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5">
+    <row r="1" spans="1:5">
       <c r="C1" t="s">
         <v>81</v>
       </c>
@@ -5990,7 +5523,7 @@
       <c r="D4" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6023,62 +5556,61 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
       <c r="E13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="17" spans="1:1">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -6087,20 +5619,20 @@
       <c r="A19" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6111,15 +5643,14 @@
     <mergeCell ref="B14:D15"/>
     <mergeCell ref="B19:D20"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
@@ -6140,7 +5671,7 @@
     <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.5" spans="1:12">
+    <row r="1" spans="1:12" ht="38.25">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -6166,14 +5697,14 @@
       <c r="I1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="L1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" s="3">
         <v>100</v>
       </c>
@@ -6196,7 +5727,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" s="3">
         <v>200</v>
       </c>
@@ -6226,18 +5757,18 @@
     <row r="4" spans="1:12">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A9" si="0">C4/B4</f>
-        <v>399.201596806379</v>
+        <v>399.2015968063788</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="6">
         <f>$D$3-D4</f>
-        <v>399.201596806379</v>
+        <v>399.2015968063788</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:D9" si="1">$F$2/E4</f>
-        <v>199600.798403194</v>
+        <v>199600.79840319362</v>
       </c>
       <c r="E4" s="2">
         <v>501</v>
@@ -6247,7 +5778,7 @@
       </c>
       <c r="G4" s="5">
         <f>D4/E4</f>
-        <v>398.404787231923</v>
+        <v>398.40478723192342</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -6255,26 +5786,26 @@
         <f t="shared" ref="K4:K9" si="2">B4*100</f>
         <v>100</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="13">
         <f t="shared" ref="L4:L9" si="3">C4-K4</f>
-        <v>299.201596806379</v>
+        <v>299.2015968063788</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
-        <v>392.156862745099</v>
+        <v>392.15686274509937</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" ref="C5:C9" si="4">$D$3-D5</f>
-        <v>3921.56862745099</v>
+        <v>3921.5686274509935</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="1"/>
-        <v>196078.431372549</v>
+        <v>196078.43137254901</v>
       </c>
       <c r="E5" s="2">
         <v>510</v>
@@ -6284,7 +5815,7 @@
       </c>
       <c r="G5" s="5">
         <f t="shared" ref="G5:G9" si="5">D5/E5</f>
-        <v>384.467512495194</v>
+        <v>384.46751249519411</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -6292,26 +5823,26 @@
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="13">
         <f t="shared" si="3"/>
-        <v>2921.56862745099</v>
+        <v>2921.5686274509935</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
-        <v>333.333333333333</v>
+        <v>333.33333333333343</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="4"/>
-        <v>33333.3333333333</v>
+        <v>33333.333333333343</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="1"/>
-        <v>166666.666666667</v>
+        <v>166666.66666666666</v>
       </c>
       <c r="E6" s="2">
         <v>600</v>
@@ -6321,7 +5852,7 @@
       </c>
       <c r="G6" s="5">
         <f t="shared" si="5"/>
-        <v>277.777777777778</v>
+        <v>277.77777777777777</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6329,26 +5860,26 @@
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="13">
         <f t="shared" si="3"/>
-        <v>23333.3333333333</v>
+        <v>23333.333333333343</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
-        <v>285.714285714286</v>
+        <v>285.71428571428567</v>
       </c>
       <c r="B7" s="2">
         <v>200</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="4"/>
-        <v>57142.8571428571</v>
+        <v>57142.85714285713</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="1"/>
-        <v>142857.142857143</v>
+        <v>142857.14285714287</v>
       </c>
       <c r="E7" s="2">
         <v>700</v>
@@ -6358,7 +5889,7 @@
       </c>
       <c r="G7" s="5">
         <f t="shared" si="5"/>
-        <v>204.081632653061</v>
+        <v>204.08163265306123</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -6366,9 +5897,9 @@
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <f t="shared" si="3"/>
-        <v>37142.8571428571</v>
+        <v>37142.85714285713</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6406,7 +5937,7 @@
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="13">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
@@ -6414,18 +5945,18 @@
     <row r="9" spans="1:12">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
-        <v>181.818181818182</v>
+        <v>181.81818181818181</v>
       </c>
       <c r="B9" s="9">
         <v>600</v>
       </c>
       <c r="C9" s="10">
         <f t="shared" si="4"/>
-        <v>109090.909090909</v>
+        <v>109090.90909090909</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="1"/>
-        <v>90909.0909090909</v>
+        <v>90909.090909090912</v>
       </c>
       <c r="E9" s="9">
         <v>1100</v>
@@ -6435,187 +5966,186 @@
       </c>
       <c r="G9" s="8">
         <f t="shared" si="5"/>
-        <v>82.6446280991736</v>
+        <v>82.644628099173559</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
         <v>60000</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="13">
         <f t="shared" si="3"/>
-        <v>49090.9090909091</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="12" t="s">
+        <v>49090.909090909088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A11:I23"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -6636,7 +6166,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -6705,8 +6235,22 @@
         <v>125</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="55">
+        <v>1</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/滑点理解图表格.xlsx
+++ b/滑点理解图表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\projectTest\solidityTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D778724-EB5F-4593-B056-4A88327BD616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F29C82-E39F-4D23-A9FF-6B9890A93BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="滑点计算" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="长期看Lp分成" sheetId="5" r:id="rId5"/>
     <sheet name="抵押算法" sheetId="6" r:id="rId6"/>
     <sheet name="套利数据演算" sheetId="7" r:id="rId7"/>
-    <sheet name="合约检测checklist" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
   <si>
     <t>购买ETH数量 （ΔY）</t>
   </si>
@@ -1201,50 +1200,6 @@
     <t>1、正常拉高交易池价格再进行兑换 这种方法是亏本的。
 2、bzx协议第一次攻击事件中 关键点为 使用1300ETH就拉高了BTC的价格（本应使用5637.62ETH拉高）PS：当时uniswap是V1
 3、分析认为 像这种拉高拉低行为后 往往会借助其他产品（以此时价格进行计算）进行获利操作，也就是说价格操控的目的是将异常的价格喂价给其他产品。</t>
-  </si>
-  <si>
-    <t>通用问题</t>
-  </si>
-  <si>
-    <t>发币集中</t>
-  </si>
-  <si>
-    <t>重要操作事件打印</t>
-  </si>
-  <si>
-    <t>2022.11.22新增</t>
-  </si>
-  <si>
-    <t>随机数</t>
-  </si>
-  <si>
-    <t>代码逻辑</t>
-  </si>
-  <si>
-    <t>冗余代码</t>
-  </si>
-  <si>
-    <t>函数命名规范</t>
-  </si>
-  <si>
-    <t>代币发售定价过高</t>
-  </si>
-  <si>
-    <t>本地版本编译错误（一般是有用测试框架的）</t>
-  </si>
-  <si>
-    <t>多余代币或者平台币锁在合约无法取出</t>
-  </si>
-  <si>
-    <t>代码使用问题</t>
-  </si>
-  <si>
-    <t>2023.1.12</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印事件参数是否正确</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1254,18 +1209,18 @@
   <numFmts count="12">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0.0000%"/>
-    <numFmt numFmtId="182" formatCode="0.000%"/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
-    <numFmt numFmtId="184" formatCode="0.000_ "/>
-    <numFmt numFmtId="185" formatCode="0.0000_ "/>
-    <numFmt numFmtId="186" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
-    <numFmt numFmtId="187" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000%"/>
+    <numFmt numFmtId="180" formatCode="0.000%"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.000_ "/>
+    <numFmt numFmtId="183" formatCode="0.0000_ "/>
+    <numFmt numFmtId="184" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
+    <numFmt numFmtId="185" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1331,14 +1286,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1467,20 +1414,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1499,7 +1446,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1511,7 +1458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1529,31 +1476,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1562,16 +1509,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1601,7 +1548,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1610,7 +1557,7 @@
     <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1619,7 +1566,7 @@
     <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1645,9 +1592,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3296,7 +3240,7 @@
       <c r="Q25" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -3472,7 +3416,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3481,8 +3425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:L18"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3981,7 +3925,7 @@
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A13:L18"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4814,7 +4758,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -5453,7 +5397,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -5643,7 +5587,7 @@
     <mergeCell ref="B14:D15"/>
     <mergeCell ref="B19:D20"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6126,131 +6070,8 @@
   <mergeCells count="1">
     <mergeCell ref="A11:I23"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="55">
-        <v>1</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/滑点理解图表格.xlsx
+++ b/滑点理解图表格.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\projectTest\solidityTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SolidityProjectGit\solidityTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F29C82-E39F-4D23-A9FF-6B9890A93BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A8CAE9-8378-4D2E-8771-F54E8EA71960}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,10 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="115">
   <si>
     <t>购买ETH数量 （ΔY）</t>
   </si>
@@ -1200,6 +1196,10 @@
     <t>1、正常拉高交易池价格再进行兑换 这种方法是亏本的。
 2、bzx协议第一次攻击事件中 关键点为 使用1300ETH就拉高了BTC的价格（本应使用5637.62ETH拉高）PS：当时uniswap是V1
 3、分析认为 像这种拉高拉低行为后 往往会借助其他产品（以此时价格进行计算）进行获利操作，也就是说价格操控的目的是将异常的价格喂价给其他产品。</t>
+  </si>
+  <si>
+    <t>无常损失：当初如果没有拿来添加流动性，我等到价格上涨了兑换和移除流动性获取的价值的差值</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1427,7 +1427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1593,6 +1593,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="百分比" xfId="3" builtinId="5"/>
@@ -1618,16 +1621,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>345288</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>70034</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>184203</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>373645</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161084</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>212560</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1650,8 +1653,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9345930" y="1603375"/>
-          <a:ext cx="5514975" cy="3567430"/>
+          <a:off x="8504571" y="672350"/>
+          <a:ext cx="5519239" cy="3578881"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3423,10 +3426,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3920,10 +3923,41 @@
       <c r="K18" s="50"/>
       <c r="L18" s="50"/>
     </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A13:L18"/>
+    <mergeCell ref="A20:L21"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6072,6 +6106,6 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>